--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="1303">
   <si>
     <t>PS</t>
   </si>
@@ -3653,12 +3653,6 @@
     <t>Vis</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>RE?</t>
-  </si>
-  <si>
     <t>aqyAsaq ityaqyAsa#H</t>
   </si>
   <si>
@@ -3716,9 +3710,6 @@
     <t>iqddha itIqddhaH ||</t>
   </si>
   <si>
-    <t>NE+re?</t>
-  </si>
-  <si>
     <t>aqntarityaqntaH</t>
   </si>
   <si>
@@ -3833,15 +3824,9 @@
     <t>NE+NSE</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>NE+NSE+NRE</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>yaqj~jiyA#saq iti# yaqj~jiyA#saH ||</t>
   </si>
   <si>
@@ -3911,9 +3896,6 @@
     <t>dyAvA#pRuthiqvI |</t>
   </si>
   <si>
-    <t>gm?</t>
-  </si>
-  <si>
     <t>suryaq iti# sUrya#H ||</t>
   </si>
   <si>
@@ -3942,19 +3924,37 @@
   </si>
   <si>
     <t>Sarddha$m |</t>
+  </si>
+  <si>
+    <t>n(H)</t>
+  </si>
+  <si>
+    <t>ceti# ca ||</t>
+  </si>
+  <si>
+    <t>NE+NRE</t>
+  </si>
+  <si>
+    <t>R( c)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4048,7 +4048,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4058,18 +4058,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4101,108 +4089,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4216,11 +4207,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4228,26 +4219,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4534,10 +4516,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomLeft" activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5442,7 +5424,7 @@
         <v>181</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -6025,7 +6007,7 @@
         <v>199</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -6514,7 +6496,7 @@
         <v>199</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -7356,7 +7338,7 @@
         <v>204</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -7481,7 +7463,7 @@
         <v>181</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -8166,7 +8148,7 @@
         <v>1177</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -8653,7 +8635,7 @@
         <v>181</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
@@ -8870,7 +8852,7 @@
         <v>1205</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>1180</v>
+        <v>1302</v>
       </c>
       <c r="X96" s="21"/>
     </row>
@@ -8901,7 +8883,7 @@
         <v>1177</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X97" s="21"/>
     </row>
@@ -9135,7 +9117,7 @@
         <v>136</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X105" s="21"/>
     </row>
@@ -9808,7 +9790,7 @@
         <v>204</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X128" s="21"/>
     </row>
@@ -11108,7 +11090,7 @@
         <v>182</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X172" s="21"/>
     </row>
@@ -11261,7 +11243,7 @@
         <v>198</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X177" s="21"/>
     </row>
@@ -11611,7 +11593,7 @@
         <v>198</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X189" s="21"/>
     </row>
@@ -11761,10 +11743,10 @@
         <v>75</v>
       </c>
       <c r="N194" s="12" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="O194" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X194" s="21"/>
     </row>
@@ -11917,7 +11899,7 @@
         <v>160</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X199" s="21"/>
     </row>
@@ -12075,7 +12057,7 @@
         <v>1177</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X204" s="21"/>
     </row>
@@ -12233,7 +12215,7 @@
         <v>1177</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X209" s="21"/>
     </row>
@@ -15367,7 +15349,7 @@
         <v>203</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X315" s="21"/>
     </row>
@@ -15482,6 +15464,12 @@
       <c r="N319" s="12" t="s">
         <v>68</v>
       </c>
+      <c r="S319" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T319" s="2" t="s">
+        <v>1299</v>
+      </c>
       <c r="X319" s="21"/>
     </row>
     <row r="320" spans="5:24" x14ac:dyDescent="0.25">
@@ -15513,14 +15501,8 @@
       <c r="P320" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="S320" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="T320" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="X320" s="49" t="s">
-        <v>1287</v>
+      <c r="X320" s="47" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="321" spans="5:24" x14ac:dyDescent="0.25">
@@ -15709,7 +15691,7 @@
         <v>1180</v>
       </c>
       <c r="X326" s="42" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="327" spans="5:24" x14ac:dyDescent="0.25">
@@ -16149,7 +16131,7 @@
         <v>181</v>
       </c>
       <c r="O341" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X341" s="21"/>
     </row>
@@ -16291,8 +16273,11 @@
       <c r="N346" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="R346" s="44" t="s">
-        <v>1213</v>
+      <c r="S346" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T346" s="2" t="s">
+        <v>1211</v>
       </c>
       <c r="X346" s="21"/>
     </row>
@@ -16633,7 +16618,7 @@
         <v>160</v>
       </c>
       <c r="O358" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X358" s="21"/>
     </row>
@@ -16897,7 +16882,7 @@
         <v>1207</v>
       </c>
       <c r="T367" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="X367" s="21"/>
     </row>
@@ -17136,7 +17121,7 @@
         <v>202</v>
       </c>
       <c r="O375" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X375" s="21"/>
     </row>
@@ -17222,14 +17207,11 @@
       <c r="N378" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R378" s="44" t="s">
-        <v>1213</v>
-      </c>
       <c r="S378" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T378" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X378" s="21"/>
     </row>
@@ -17260,7 +17242,7 @@
         <v>72</v>
       </c>
       <c r="O379" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X379" s="21"/>
     </row>
@@ -17290,7 +17272,7 @@
         <v>203</v>
       </c>
       <c r="O380" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X380" s="21"/>
     </row>
@@ -18161,8 +18143,8 @@
       <c r="P410" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X410" s="45" t="s">
-        <v>1274</v>
+      <c r="X410" s="44" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="411" spans="4:24" x14ac:dyDescent="0.25">
@@ -18190,7 +18172,7 @@
         <v>1184</v>
       </c>
       <c r="O411" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X411" s="21"/>
     </row>
@@ -19124,8 +19106,8 @@
         <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="N444" s="50" t="s">
-        <v>1288</v>
+      <c r="N444" s="45" t="s">
+        <v>1283</v>
       </c>
       <c r="X444" s="21"/>
     </row>
@@ -19298,7 +19280,7 @@
         <v>201</v>
       </c>
       <c r="O450" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X450" s="21"/>
     </row>
@@ -19418,7 +19400,7 @@
         <v>203</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X454" s="21"/>
     </row>
@@ -19510,7 +19492,7 @@
         <v>203</v>
       </c>
       <c r="O457" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X457" s="21"/>
     </row>
@@ -20613,7 +20595,7 @@
         <v>200</v>
       </c>
       <c r="O495" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X495" s="21"/>
     </row>
@@ -20992,7 +20974,7 @@
         <v>204</v>
       </c>
       <c r="O508" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X508" s="21"/>
     </row>
@@ -21079,7 +21061,7 @@
         <v>181</v>
       </c>
       <c r="O511" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X511" s="21"/>
     </row>
@@ -21334,11 +21316,8 @@
       <c r="N520" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="R520" s="44" t="s">
-        <v>1238</v>
-      </c>
       <c r="S520" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="X520" s="21"/>
     </row>
@@ -21488,7 +21467,7 @@
         <v>1180</v>
       </c>
       <c r="X525" s="39" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="526" spans="5:24" x14ac:dyDescent="0.25">
@@ -21720,7 +21699,7 @@
         <v>198</v>
       </c>
       <c r="O533" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X533" s="21"/>
     </row>
@@ -21782,7 +21761,7 @@
         <v>1180</v>
       </c>
       <c r="X535" s="42" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="536" spans="5:24" x14ac:dyDescent="0.25">
@@ -21957,7 +21936,7 @@
         <v>1180</v>
       </c>
       <c r="X541" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="542" spans="5:24" x14ac:dyDescent="0.25">
@@ -22046,7 +22025,7 @@
         <v>1180</v>
       </c>
       <c r="X544" s="42" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="545" spans="5:24" x14ac:dyDescent="0.25">
@@ -22247,7 +22226,7 @@
         <v>1180</v>
       </c>
       <c r="X551" s="39" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="552" spans="5:24" x14ac:dyDescent="0.25">
@@ -22558,7 +22537,7 @@
         <v>1177</v>
       </c>
       <c r="O561" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X561" s="21"/>
     </row>
@@ -22732,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="X567" s="42" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="568" spans="5:24" x14ac:dyDescent="0.25">
@@ -22936,7 +22915,7 @@
         <v>1177</v>
       </c>
       <c r="O574" s="2" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X574" s="21"/>
     </row>
@@ -23081,7 +23060,7 @@
         <v>1177</v>
       </c>
       <c r="O579" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X579" s="21"/>
     </row>
@@ -23337,7 +23316,7 @@
         <v>198</v>
       </c>
       <c r="O588" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X588" s="21"/>
     </row>
@@ -23371,8 +23350,8 @@
       <c r="P589" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X589" s="51" t="s">
-        <v>1289</v>
+      <c r="X589" s="48" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="590" spans="5:24" x14ac:dyDescent="0.25">
@@ -23635,7 +23614,7 @@
         <v>182</v>
       </c>
       <c r="O598" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X598" s="21"/>
     </row>
@@ -23779,7 +23758,7 @@
         <v>496</v>
       </c>
       <c r="R603" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="X603" s="21"/>
     </row>
@@ -23951,14 +23930,11 @@
       <c r="N609" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="R609" s="2" t="s">
-        <v>1180</v>
-      </c>
       <c r="S609" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T609" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X609" s="21"/>
     </row>
@@ -24412,7 +24388,7 @@
         <v>205</v>
       </c>
       <c r="U625" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X625" s="36" t="s">
         <v>1186</v>
@@ -24557,13 +24533,13 @@
         <v>136</v>
       </c>
       <c r="O630" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="S630" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="T630" s="2" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="X630" s="21"/>
     </row>
@@ -24594,7 +24570,7 @@
         <v>182</v>
       </c>
       <c r="O631" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X631" s="21"/>
     </row>
@@ -24749,13 +24725,13 @@
         <v>136</v>
       </c>
       <c r="O636" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="S636" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="T636" s="2" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="X636" s="21"/>
     </row>
@@ -24786,7 +24762,7 @@
         <v>182</v>
       </c>
       <c r="O637" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X637" s="21"/>
     </row>
@@ -24971,8 +24947,8 @@
       <c r="P643" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X643" s="45" t="s">
-        <v>1275</v>
+      <c r="X643" s="44" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="644" spans="5:24" x14ac:dyDescent="0.25">
@@ -25747,7 +25723,7 @@
         <v>1207</v>
       </c>
       <c r="T669" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X669" s="21"/>
     </row>
@@ -25812,7 +25788,7 @@
         <v>181</v>
       </c>
       <c r="O671" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X671" s="21"/>
     </row>
@@ -25988,7 +25964,7 @@
         <v>181</v>
       </c>
       <c r="O677" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X677" s="21"/>
     </row>
@@ -26047,8 +26023,8 @@
       <c r="N679" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="R679" s="44" t="s">
-        <v>1238</v>
+      <c r="S679" s="2" t="s">
+        <v>1235</v>
       </c>
       <c r="X679" s="21"/>
     </row>
@@ -26201,7 +26177,7 @@
         <v>182</v>
       </c>
       <c r="O684" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X684" s="21"/>
     </row>
@@ -26574,7 +26550,7 @@
         <v>201</v>
       </c>
       <c r="O697" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X697" s="21"/>
     </row>
@@ -26722,7 +26698,7 @@
         <v>201</v>
       </c>
       <c r="O702" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X702" s="21"/>
     </row>
@@ -26809,7 +26785,7 @@
         <v>201</v>
       </c>
       <c r="O705" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X705" s="21"/>
     </row>
@@ -27051,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="R713" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="X713" s="21" t="s">
         <v>84</v>
@@ -27087,7 +27063,7 @@
         <v>0</v>
       </c>
       <c r="Q714" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="X714" s="21" t="s">
         <v>558</v>
@@ -27120,7 +27096,7 @@
         <v>181</v>
       </c>
       <c r="O715" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X715" s="21"/>
     </row>
@@ -27444,7 +27420,7 @@
         <v>201</v>
       </c>
       <c r="O726" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X726" s="21"/>
     </row>
@@ -27882,7 +27858,10 @@
         <v>574</v>
       </c>
       <c r="S741" s="2" t="s">
-        <v>1265</v>
+        <v>1262</v>
+      </c>
+      <c r="T741" s="2" t="s">
+        <v>1261</v>
       </c>
       <c r="X741" s="21"/>
     </row>
@@ -27913,7 +27892,7 @@
         <v>182</v>
       </c>
       <c r="O742" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X742" s="21"/>
     </row>
@@ -28028,7 +28007,7 @@
         <v>136</v>
       </c>
       <c r="O746" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X746" s="21"/>
     </row>
@@ -28150,6 +28129,9 @@
       <c r="S750" s="2" t="s">
         <v>1207</v>
       </c>
+      <c r="T750" s="2" t="s">
+        <v>1257</v>
+      </c>
       <c r="X750" s="21"/>
     </row>
     <row r="751" spans="5:24" x14ac:dyDescent="0.25">
@@ -28259,14 +28241,14 @@
         <f t="shared" si="24"/>
         <v>84</v>
       </c>
-      <c r="N754" s="46" t="s">
-        <v>1276</v>
+      <c r="N754" s="45" t="s">
+        <v>1271</v>
       </c>
       <c r="O754" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X754" s="45" t="s">
-        <v>1277</v>
+      <c r="X754" s="44" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="755" spans="5:24" x14ac:dyDescent="0.25">
@@ -28352,10 +28334,10 @@
         <v>94</v>
       </c>
       <c r="S757" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="V757" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="X757" s="21"/>
     </row>
@@ -28566,8 +28548,8 @@
       <c r="P764" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X764" s="51" t="s">
-        <v>1290</v>
+      <c r="X764" s="48" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="765" spans="5:24" x14ac:dyDescent="0.25">
@@ -28652,7 +28634,7 @@
         <v>181</v>
       </c>
       <c r="O767" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X767" s="21"/>
     </row>
@@ -28772,7 +28754,7 @@
         <v>181</v>
       </c>
       <c r="O771" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X771" s="21"/>
     </row>
@@ -28887,7 +28869,7 @@
         <v>181</v>
       </c>
       <c r="O775" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X775" s="21"/>
     </row>
@@ -29002,7 +28984,7 @@
         <v>181</v>
       </c>
       <c r="O779" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X779" s="21"/>
     </row>
@@ -29122,10 +29104,10 @@
         <v>0</v>
       </c>
       <c r="S783" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="V783" s="2" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="X783" s="21" t="s">
         <v>584</v>
@@ -29532,7 +29514,7 @@
         <v>181</v>
       </c>
       <c r="O797" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X797" s="21"/>
     </row>
@@ -29760,7 +29742,7 @@
         <v>181</v>
       </c>
       <c r="O805" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X805" s="21"/>
     </row>
@@ -29875,7 +29857,7 @@
         <v>181</v>
       </c>
       <c r="O809" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X809" s="21"/>
     </row>
@@ -30081,8 +30063,8 @@
       <c r="O816" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X816" s="45" t="s">
-        <v>1279</v>
+      <c r="X816" s="44" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="817" spans="5:24" x14ac:dyDescent="0.25">
@@ -31142,7 +31124,7 @@
         <v>182</v>
       </c>
       <c r="O853" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X853" s="21"/>
     </row>
@@ -31346,7 +31328,7 @@
         <v>136</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X860" s="21"/>
     </row>
@@ -31439,7 +31421,7 @@
         <v>203</v>
       </c>
       <c r="O863" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X863" s="21"/>
     </row>
@@ -31617,8 +31599,8 @@
       <c r="P869" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X869" s="51" t="s">
-        <v>1291</v>
+      <c r="X869" s="48" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="870" spans="5:24" x14ac:dyDescent="0.25">
@@ -31646,7 +31628,7 @@
         <v>201</v>
       </c>
       <c r="O870" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X870" s="21"/>
     </row>
@@ -31762,7 +31744,7 @@
         <v>201</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X874" s="21"/>
     </row>
@@ -32067,8 +32049,8 @@
       <c r="O884" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T884" s="2" t="s">
-        <v>1267</v>
+      <c r="U884" s="2" t="s">
+        <v>1264</v>
       </c>
       <c r="X884" s="21" t="s">
         <v>609</v>
@@ -32101,7 +32083,7 @@
         <v>1175</v>
       </c>
       <c r="O885" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X885" s="21"/>
     </row>
@@ -32224,7 +32206,7 @@
         <v>0</v>
       </c>
       <c r="U889" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="X889" s="21" t="s">
         <v>609</v>
@@ -32257,7 +32239,7 @@
         <v>203</v>
       </c>
       <c r="O890" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X890" s="21"/>
     </row>
@@ -32343,14 +32325,11 @@
       <c r="N893" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="R893" s="2" t="s">
-        <v>1180</v>
-      </c>
       <c r="S893" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T893" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X893" s="21"/>
     </row>
@@ -32738,7 +32717,7 @@
         <v>136</v>
       </c>
       <c r="O906" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X906" s="21"/>
     </row>
@@ -32822,7 +32801,7 @@
         <v>40</v>
       </c>
       <c r="N909" s="12" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="O909" s="15"/>
       <c r="X909" s="21"/>
@@ -32938,9 +32917,6 @@
       <c r="N913" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U913" s="44" t="s">
-        <v>1209</v>
-      </c>
       <c r="X913" s="21"/>
     </row>
     <row r="914" spans="5:24" x14ac:dyDescent="0.25">
@@ -33054,7 +33030,7 @@
         <v>201</v>
       </c>
       <c r="O917" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X917" s="21"/>
     </row>
@@ -34254,7 +34230,7 @@
         <v>1183</v>
       </c>
       <c r="U958" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X958" s="21" t="s">
         <v>646</v>
@@ -34682,7 +34658,7 @@
         <v>26</v>
       </c>
       <c r="N973" s="12" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="O973" s="2" t="s">
         <v>1183</v>
@@ -35432,7 +35408,7 @@
         <v>1176</v>
       </c>
       <c r="O999" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X999" s="21"/>
     </row>
@@ -36124,7 +36100,7 @@
         <v>1180</v>
       </c>
       <c r="X1023" s="40" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1024" spans="5:24" x14ac:dyDescent="0.25">
@@ -36207,9 +36183,6 @@
       <c r="N1026" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="R1026" s="2" t="s">
-        <v>1294</v>
-      </c>
       <c r="X1026" s="21"/>
     </row>
     <row r="1027" spans="5:24" x14ac:dyDescent="0.25">
@@ -36295,7 +36268,7 @@
         <v>156</v>
       </c>
       <c r="U1029" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="X1029" s="21"/>
     </row>
@@ -36326,10 +36299,10 @@
         <v>669</v>
       </c>
       <c r="S1030" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="V1030" s="2" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="X1030" s="21"/>
     </row>
@@ -36360,7 +36333,7 @@
         <v>181</v>
       </c>
       <c r="O1031" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1031" s="21"/>
     </row>
@@ -36421,10 +36394,10 @@
       </c>
       <c r="O1033" s="2"/>
       <c r="S1033" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="V1033" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="X1033" s="21"/>
     </row>
@@ -36454,6 +36427,9 @@
       <c r="N1034" s="12" t="s">
         <v>671</v>
       </c>
+      <c r="U1034" s="2" t="s">
+        <v>1267</v>
+      </c>
       <c r="X1034" s="21"/>
     </row>
     <row r="1035" spans="5:24" x14ac:dyDescent="0.25">
@@ -36485,8 +36461,8 @@
       <c r="P1035" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1035" s="51" t="s">
-        <v>1295</v>
+      <c r="X1035" s="48" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="1036" spans="5:24" x14ac:dyDescent="0.25">
@@ -36516,9 +36492,6 @@
         <v>88</v>
       </c>
       <c r="O1036" s="2"/>
-      <c r="U1036" s="2" t="s">
-        <v>1268</v>
-      </c>
       <c r="X1036" s="21"/>
     </row>
     <row r="1037" spans="5:24" x14ac:dyDescent="0.25">
@@ -37142,7 +37115,7 @@
         <v>1180</v>
       </c>
       <c r="X1057" s="40" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1058" spans="5:24" x14ac:dyDescent="0.25">
@@ -37677,7 +37650,7 @@
         <v>181</v>
       </c>
       <c r="O1076" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1076" s="21"/>
     </row>
@@ -37736,7 +37709,7 @@
         <v>198</v>
       </c>
       <c r="O1078" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1078" s="21"/>
     </row>
@@ -37879,7 +37852,7 @@
         <v>201</v>
       </c>
       <c r="O1083" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1083" s="21"/>
     </row>
@@ -38473,7 +38446,7 @@
         <v>1180</v>
       </c>
       <c r="X1103" s="40" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1104" spans="5:24" x14ac:dyDescent="0.25">
@@ -38758,7 +38731,7 @@
         <v>1180</v>
       </c>
       <c r="X1113" s="40" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1114" spans="5:24" x14ac:dyDescent="0.25">
@@ -39399,7 +39372,7 @@
         <v>197</v>
       </c>
       <c r="O1135" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1135" s="21"/>
     </row>
@@ -39571,7 +39544,7 @@
         <v>204</v>
       </c>
       <c r="O1141" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1141" s="21"/>
     </row>
@@ -39604,8 +39577,8 @@
       <c r="P1142" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1142" s="48" t="s">
-        <v>1281</v>
+      <c r="X1142" s="46" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="1143" spans="5:24" x14ac:dyDescent="0.25">
@@ -39751,8 +39724,6 @@
       <c r="N1147" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="S1147" s="47"/>
-      <c r="T1147" s="47"/>
       <c r="X1147" s="21"/>
     </row>
     <row r="1148" spans="5:24" x14ac:dyDescent="0.25">
@@ -39843,7 +39814,7 @@
         <v>1180</v>
       </c>
       <c r="X1150" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1151" spans="5:24" x14ac:dyDescent="0.25">
@@ -39959,8 +39930,8 @@
       <c r="P1154" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1154" s="51" t="s">
-        <v>1296</v>
+      <c r="X1154" s="48" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="1155" spans="5:24" x14ac:dyDescent="0.25">
@@ -40017,7 +39988,7 @@
       </c>
       <c r="O1156" s="2"/>
       <c r="U1156" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="X1156" s="21"/>
     </row>
@@ -40076,7 +40047,7 @@
         <v>727</v>
       </c>
       <c r="U1158" s="2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="X1158" s="21"/>
     </row>
@@ -40280,7 +40251,7 @@
         <v>1180</v>
       </c>
       <c r="X1165" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1166" spans="5:24" x14ac:dyDescent="0.25">
@@ -40604,7 +40575,7 @@
         <v>1180</v>
       </c>
       <c r="X1176" s="41" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1177" spans="5:24" x14ac:dyDescent="0.25">
@@ -40634,7 +40605,7 @@
         <v>181</v>
       </c>
       <c r="O1177" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1177" s="21"/>
     </row>
@@ -40840,8 +40811,8 @@
       <c r="P1184" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1184" s="51" t="s">
-        <v>1297</v>
+      <c r="X1184" s="48" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="1185" spans="5:24" x14ac:dyDescent="0.25">
@@ -41047,7 +41018,7 @@
         <v>1180</v>
       </c>
       <c r="X1191" s="40" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1192" spans="5:24" x14ac:dyDescent="0.25">
@@ -41133,7 +41104,7 @@
         <v>1175</v>
       </c>
       <c r="O1194" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1194" s="21"/>
     </row>
@@ -41163,8 +41134,8 @@
       <c r="N1195" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="R1195" s="44" t="s">
-        <v>1298</v>
+      <c r="S1195" s="2" t="s">
+        <v>1292</v>
       </c>
       <c r="X1195" s="21"/>
     </row>
@@ -41343,7 +41314,7 @@
         <v>1180</v>
       </c>
       <c r="X1201" s="40" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1202" spans="5:24" x14ac:dyDescent="0.25">
@@ -41464,7 +41435,7 @@
       <c r="O1205" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X1205" s="45" t="s">
+      <c r="X1205" s="44" t="s">
         <v>756</v>
       </c>
     </row>
@@ -41611,7 +41582,7 @@
         <v>1180</v>
       </c>
       <c r="X1210" s="12" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1211" spans="5:24" x14ac:dyDescent="0.25">
@@ -41668,14 +41639,11 @@
       <c r="N1212" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="R1212" s="2" t="s">
-        <v>1213</v>
-      </c>
       <c r="S1212" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T1212" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X1212" s="21"/>
     </row>
@@ -41887,7 +41855,7 @@
         <v>1180</v>
       </c>
       <c r="X1219" s="12" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1220" spans="5:24" x14ac:dyDescent="0.25">
@@ -41974,7 +41942,7 @@
         <v>181</v>
       </c>
       <c r="O1222" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1222" s="21"/>
     </row>
@@ -42116,14 +42084,11 @@
       <c r="N1227" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="R1227" s="2" t="s">
-        <v>1213</v>
-      </c>
       <c r="S1227" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T1227" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X1227" s="21"/>
     </row>
@@ -42220,8 +42185,8 @@
       <c r="U1230" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="X1230" s="45" t="s">
-        <v>1283</v>
+      <c r="X1230" s="44" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="1231" spans="5:24" x14ac:dyDescent="0.25">
@@ -42391,8 +42356,8 @@
       <c r="N1236" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="R1236" s="44" t="s">
-        <v>1238</v>
+      <c r="S1236" s="2" t="s">
+        <v>1235</v>
       </c>
       <c r="X1236" s="21"/>
     </row>
@@ -42571,7 +42536,7 @@
         <v>203</v>
       </c>
       <c r="O1242" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1242" s="21"/>
     </row>
@@ -42659,9 +42624,6 @@
       <c r="N1245" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="S1245" s="2" t="s">
-        <v>1270</v>
-      </c>
       <c r="X1245" s="21"/>
     </row>
     <row r="1246" spans="5:24" x14ac:dyDescent="0.25">
@@ -42691,7 +42653,7 @@
         <v>781</v>
       </c>
       <c r="U1246" s="2" t="s">
-        <v>1229</v>
+        <v>1301</v>
       </c>
       <c r="X1246" s="21"/>
     </row>
@@ -42722,7 +42684,7 @@
         <v>181</v>
       </c>
       <c r="O1247" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1247" s="21"/>
     </row>
@@ -42844,17 +42806,14 @@
       <c r="P1251" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="R1251" s="2" t="s">
-        <v>1213</v>
-      </c>
       <c r="S1251" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T1251" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X1251" s="40" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1252" spans="5:24" x14ac:dyDescent="0.25">
@@ -42881,13 +42840,13 @@
         <v>98</v>
       </c>
       <c r="N1252" s="12" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="O1252" s="2" t="s">
         <v>205</v>
       </c>
       <c r="X1252" s="40" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1253" spans="5:24" x14ac:dyDescent="0.25">
@@ -42976,14 +42935,11 @@
       <c r="N1255" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="R1255" s="2" t="s">
-        <v>1213</v>
-      </c>
       <c r="S1255" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="T1255" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X1255" s="21"/>
     </row>
@@ -43042,10 +42998,10 @@
         <v>787</v>
       </c>
       <c r="S1257" s="2" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="T1257" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X1257" s="21"/>
     </row>
@@ -43076,7 +43032,7 @@
         <v>181</v>
       </c>
       <c r="O1258" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1258" s="21"/>
     </row>
@@ -43138,7 +43094,7 @@
         <v>1180</v>
       </c>
       <c r="X1260" s="43" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1261" spans="5:24" x14ac:dyDescent="0.25">
@@ -43308,7 +43264,7 @@
         <v>201</v>
       </c>
       <c r="O1266" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1266" s="21"/>
     </row>
@@ -43398,7 +43354,7 @@
         <v>1180</v>
       </c>
       <c r="X1269" s="40" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1270" spans="5:24" x14ac:dyDescent="0.25">
@@ -43582,8 +43538,8 @@
       <c r="P1275" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1275" s="51" t="s">
-        <v>1299</v>
+      <c r="X1275" s="48" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1276" spans="5:24" x14ac:dyDescent="0.25">
@@ -43673,7 +43629,7 @@
         <v>1180</v>
       </c>
       <c r="X1278" s="40" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1279" spans="5:24" x14ac:dyDescent="0.25">
@@ -43789,7 +43745,7 @@
         <v>97</v>
       </c>
       <c r="U1282" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X1282" s="21"/>
     </row>
@@ -44058,7 +44014,7 @@
         <v>1176</v>
       </c>
       <c r="O1291" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1291" s="21"/>
     </row>
@@ -44202,7 +44158,7 @@
         <v>811</v>
       </c>
       <c r="U1296" s="2" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="X1296" s="21"/>
     </row>
@@ -44411,7 +44367,7 @@
         <v>181</v>
       </c>
       <c r="O1303" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1303" s="21"/>
     </row>
@@ -44444,8 +44400,8 @@
       <c r="P1304" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1304" s="51" t="s">
-        <v>1300</v>
+      <c r="X1304" s="48" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1305" spans="5:24" x14ac:dyDescent="0.25">
@@ -44542,8 +44498,8 @@
       <c r="P1307" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1307" s="51" t="s">
-        <v>1301</v>
+      <c r="X1307" s="48" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1308" spans="5:24" x14ac:dyDescent="0.25">
@@ -44993,7 +44949,7 @@
         <v>1180</v>
       </c>
       <c r="X1322" s="43" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1323" spans="5:24" x14ac:dyDescent="0.25">
@@ -45189,13 +45145,13 @@
         <v>175</v>
       </c>
       <c r="N1329" s="12" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>1180</v>
       </c>
       <c r="X1329" s="40" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1330" spans="5:24" x14ac:dyDescent="0.25">
@@ -45315,7 +45271,7 @@
         <v>181</v>
       </c>
       <c r="O1333" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1333" s="21"/>
     </row>
@@ -45374,10 +45330,10 @@
         <v>1174</v>
       </c>
       <c r="O1335" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="S1335" s="2" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="X1335" s="21"/>
     </row>
@@ -45532,7 +45488,7 @@
         <v>97</v>
       </c>
       <c r="U1340" s="2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="X1340" s="21"/>
     </row>
@@ -45688,7 +45644,7 @@
         <v>1180</v>
       </c>
       <c r="X1345" s="40" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1346" spans="5:24" x14ac:dyDescent="0.25">
@@ -45943,7 +45899,7 @@
         <v>1176</v>
       </c>
       <c r="O1354" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1354" s="21"/>
     </row>
@@ -46004,8 +45960,8 @@
       <c r="P1356" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1356" s="51" t="s">
-        <v>1302</v>
+      <c r="X1356" s="48" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="1357" spans="5:24" x14ac:dyDescent="0.25">
@@ -46286,8 +46242,11 @@
       <c r="N1365" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="R1365" s="2" t="s">
-        <v>1260</v>
+      <c r="S1365" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="T1365" s="2" t="s">
+        <v>1257</v>
       </c>
       <c r="X1365" s="21"/>
     </row>
@@ -46318,7 +46277,7 @@
         <v>1177</v>
       </c>
       <c r="O1366" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1366" s="21"/>
     </row>
@@ -46492,7 +46451,7 @@
         <v>1177</v>
       </c>
       <c r="O1372" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1372" s="21"/>
     </row>
@@ -46942,7 +46901,7 @@
         <v>203</v>
       </c>
       <c r="O1387" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1387" s="21"/>
     </row>
@@ -46976,7 +46935,7 @@
         <v>1180</v>
       </c>
       <c r="X1388" s="40" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1389" spans="5:24" x14ac:dyDescent="0.25">
@@ -47184,7 +47143,7 @@
         <v>203</v>
       </c>
       <c r="O1395" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1395" s="21"/>
     </row>
@@ -47335,7 +47294,7 @@
         <v>1180</v>
       </c>
       <c r="X1400" s="40" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1401" spans="5:24" x14ac:dyDescent="0.25">
@@ -47364,8 +47323,8 @@
       <c r="N1401" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U1401" s="44" t="s">
-        <v>1272</v>
+      <c r="U1401" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="X1401" s="21"/>
     </row>
@@ -47396,7 +47355,7 @@
         <v>877</v>
       </c>
       <c r="U1402" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X1402" s="21"/>
     </row>
@@ -47641,7 +47600,7 @@
         <v>181</v>
       </c>
       <c r="O1410" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1410" s="21"/>
     </row>
@@ -47937,10 +47896,10 @@
         <v>1180</v>
       </c>
       <c r="U1420" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="X1420" s="51" t="s">
-        <v>1303</v>
+        <v>1223</v>
+      </c>
+      <c r="X1420" s="48" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1421" spans="5:24" x14ac:dyDescent="0.25">
@@ -47995,7 +47954,7 @@
         <v>268</v>
       </c>
       <c r="N1422" s="12" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="X1422" s="21"/>
     </row>
@@ -48175,7 +48134,7 @@
         <v>1180</v>
       </c>
       <c r="X1428" s="40" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1429" spans="5:24" x14ac:dyDescent="0.25">
@@ -48413,7 +48372,7 @@
         <v>1180</v>
       </c>
       <c r="X1436" s="40" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1437" spans="5:24" x14ac:dyDescent="0.25">
@@ -48684,8 +48643,8 @@
       <c r="P1445" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1445" s="45" t="s">
-        <v>1284</v>
+      <c r="X1445" s="44" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="1446" spans="5:24" x14ac:dyDescent="0.25">
@@ -48771,7 +48730,7 @@
         <v>181</v>
       </c>
       <c r="O1448" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1448" s="21"/>
     </row>
@@ -48894,7 +48853,7 @@
         <v>1180</v>
       </c>
       <c r="X1452" s="40" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1453" spans="5:24" x14ac:dyDescent="0.25">
@@ -49005,10 +48964,10 @@
         <v>302</v>
       </c>
       <c r="N1456" s="12" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="O1456" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1456" s="21"/>
     </row>
@@ -49101,7 +49060,7 @@
         <v>1180</v>
       </c>
       <c r="X1459" s="40" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1460" spans="5:24" x14ac:dyDescent="0.25">
@@ -49159,7 +49118,7 @@
         <v>97</v>
       </c>
       <c r="U1461" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X1461" s="21"/>
     </row>
@@ -49279,7 +49238,7 @@
         <v>181</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1465" s="21"/>
     </row>
@@ -49312,8 +49271,8 @@
       <c r="P1466" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1466" s="51" t="s">
-        <v>1300</v>
+      <c r="X1466" s="48" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1467" spans="5:24" x14ac:dyDescent="0.25">
@@ -49427,7 +49386,7 @@
         <v>914</v>
       </c>
       <c r="U1470" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="X1470" s="21"/>
     </row>
@@ -49652,7 +49611,7 @@
         <v>1180</v>
       </c>
       <c r="X1477" s="12" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1478" spans="5:24" x14ac:dyDescent="0.25">
@@ -49741,10 +49700,10 @@
         <v>1180</v>
       </c>
       <c r="U1480" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="X1480" s="40" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1481" spans="5:24" x14ac:dyDescent="0.25">
@@ -50047,7 +50006,7 @@
         <v>1180</v>
       </c>
       <c r="X1490" s="40" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1491" spans="5:24" x14ac:dyDescent="0.25">
@@ -50392,17 +50351,14 @@
       <c r="P1502" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="R1502" s="2" t="s">
-        <v>1213</v>
-      </c>
       <c r="S1502" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="T1502" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X1502" s="40" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1503" spans="5:24" x14ac:dyDescent="0.25">
@@ -50516,7 +50472,7 @@
         <v>181</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1506" s="21"/>
     </row>
@@ -50661,7 +50617,7 @@
       <c r="P1511" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1511" s="51" t="s">
+      <c r="X1511" s="48" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -50751,7 +50707,7 @@
         <v>1180</v>
       </c>
       <c r="X1514" s="40" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1515" spans="5:24" x14ac:dyDescent="0.25">
@@ -50873,7 +50829,7 @@
         <v>205</v>
       </c>
       <c r="U1518" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="X1518" s="38" t="s">
         <v>1204</v>
@@ -51058,7 +51014,7 @@
         <v>1180</v>
       </c>
       <c r="X1524" s="40" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1525" spans="5:24" x14ac:dyDescent="0.25">
@@ -51232,7 +51188,7 @@
         <v>1180</v>
       </c>
       <c r="X1530" s="40" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1531" spans="5:24" x14ac:dyDescent="0.25">
@@ -51262,7 +51218,7 @@
         <v>181</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1531" s="21"/>
     </row>
@@ -51379,8 +51335,8 @@
       <c r="P1535" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1535" s="40" t="s">
-        <v>1242</v>
+      <c r="X1535" s="49" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="1536" spans="5:24" x14ac:dyDescent="0.25">
@@ -51550,10 +51506,10 @@
         <v>94</v>
       </c>
       <c r="S1541" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="V1541" s="2" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="X1541" s="21"/>
     </row>
@@ -51612,7 +51568,7 @@
         <v>181</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1543" s="21"/>
     </row>
@@ -51646,7 +51602,7 @@
         <v>1180</v>
       </c>
       <c r="X1544" s="40" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1545" spans="5:24" x14ac:dyDescent="0.25">
@@ -51790,7 +51746,7 @@
       <c r="P1549" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="X1549" s="51" t="s">
+      <c r="X1549" s="48" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -51969,7 +51925,7 @@
         <v>1180</v>
       </c>
       <c r="X1555" s="12" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1556" spans="5:24" x14ac:dyDescent="0.25">
@@ -52091,7 +52047,7 @@
         <v>204</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="X1559" s="21"/>
     </row>
@@ -52122,7 +52078,7 @@
         <v>97</v>
       </c>
       <c r="U1560" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="X1560" s="21"/>
     </row>
@@ -52271,7 +52227,7 @@
         <v>1180</v>
       </c>
       <c r="X1565" s="40" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1566" spans="5:24" x14ac:dyDescent="0.25">
@@ -52360,10 +52316,10 @@
         <v>1180</v>
       </c>
       <c r="U1568" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="X1568" s="45" t="s">
-        <v>1286</v>
+        <v>1223</v>
+      </c>
+      <c r="X1568" s="44" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="1569" spans="5:8" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -4520,7 +4520,7 @@
   <dimension ref="A1:X1577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1511" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
     </sheetView>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TS 1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.1'!$C$1:$X$1568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.1'!$V$1:$V$1577</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="1310">
   <si>
     <t>PS</t>
   </si>
@@ -3656,9 +3656,6 @@
     <t>sUqrayaq iti# sUqraya#H ||</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>4G</t>
   </si>
   <si>
@@ -3908,19 +3905,58 @@
     <t>N</t>
   </si>
   <si>
-    <t>N+R</t>
-  </si>
-  <si>
-    <t>R(c)</t>
-  </si>
-  <si>
-    <t>N(H)</t>
-  </si>
-  <si>
     <t>Table  Process</t>
   </si>
   <si>
     <t>Padam Split Expansion</t>
+  </si>
+  <si>
+    <t>P[H]+S[o]+N(H)</t>
+  </si>
+  <si>
+    <t>P[r]+S[H]+N[H]</t>
+  </si>
+  <si>
+    <t>P[H]+S[o]+N[s]</t>
+  </si>
+  <si>
+    <t>P[H]+S[H]+N[r]</t>
+  </si>
+  <si>
+    <t>P[r]+S[s]+N[r]</t>
+  </si>
+  <si>
+    <t>P[r]+S[H]+N[r]</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P+N</t>
+  </si>
+  <si>
+    <t>P[H]+S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>P[r]+S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>P[r]+S[r]</t>
+  </si>
+  <si>
+    <t>S[o]+N[s]</t>
+  </si>
+  <si>
+    <t>P[H]+S[r]</t>
+  </si>
+  <si>
+    <t>1.03.30</t>
+  </si>
+  <si>
+    <t>1.24.29</t>
+  </si>
+  <si>
+    <t>P[s]+S[o]+N[o]</t>
   </si>
 </sst>
 </file>
@@ -4086,7 +4122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4236,6 +4272,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4519,10 +4558,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1511" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="T369" sqref="T369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4543,9 +4582,10 @@
     <col min="16" max="17" width="5.7109375" style="2" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="2" customWidth="1"/>
-    <col min="21" max="22" width="18.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="62.85546875" style="15" customWidth="1"/>
     <col min="25" max="265" width="9.140625" style="15"/>
     <col min="266" max="266" width="9.28515625" style="15" customWidth="1"/>
@@ -5045,7 +5085,7 @@
         <v>10</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="T1" s="50" t="s">
         <v>208</v>
@@ -5060,7 +5100,7 @@
         <v>211</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5427,7 +5467,7 @@
         <v>180</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -6010,7 +6050,7 @@
         <v>198</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -6499,7 +6539,7 @@
         <v>198</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -7341,7 +7381,7 @@
         <v>203</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
@@ -7466,7 +7506,7 @@
         <v>180</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -8151,7 +8191,7 @@
         <v>1175</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -8638,7 +8678,7 @@
         <v>180</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -8855,7 +8895,7 @@
         <v>1203</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="X96" s="18"/>
     </row>
@@ -8886,7 +8926,7 @@
         <v>1175</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X97" s="18"/>
     </row>
@@ -9120,7 +9160,7 @@
         <v>135</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X105" s="18"/>
     </row>
@@ -9793,7 +9833,7 @@
         <v>203</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X128" s="18"/>
     </row>
@@ -11093,7 +11133,7 @@
         <v>181</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X172" s="18"/>
     </row>
@@ -11246,7 +11286,7 @@
         <v>197</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X177" s="18"/>
     </row>
@@ -11596,7 +11636,7 @@
         <v>197</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X189" s="18"/>
     </row>
@@ -11746,10 +11786,10 @@
         <v>75</v>
       </c>
       <c r="N194" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="O194" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="O194" s="1" t="s">
-        <v>1250</v>
       </c>
       <c r="X194" s="18"/>
     </row>
@@ -11902,7 +11942,7 @@
         <v>159</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X199" s="18"/>
     </row>
@@ -12060,7 +12100,7 @@
         <v>1175</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X204" s="18"/>
     </row>
@@ -12218,7 +12258,7 @@
         <v>1175</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X209" s="18"/>
     </row>
@@ -14300,6 +14340,9 @@
       <c r="P279" s="2" t="s">
         <v>1178</v>
       </c>
+      <c r="S279" s="47" t="s">
+        <v>1307</v>
+      </c>
       <c r="X279" s="18" t="s">
         <v>1038</v>
       </c>
@@ -15352,7 +15395,7 @@
         <v>202</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X315" s="18"/>
     </row>
@@ -15467,11 +15510,11 @@
       <c r="N319" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S319" s="47" t="s">
+      <c r="S319" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="T319" s="47" t="s">
-        <v>1295</v>
+      <c r="T319" s="2" t="s">
+        <v>1294</v>
       </c>
       <c r="X319" s="18"/>
     </row>
@@ -15505,7 +15548,7 @@
         <v>1178</v>
       </c>
       <c r="X320" s="44" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="321" spans="5:24" x14ac:dyDescent="0.25">
@@ -15694,7 +15737,7 @@
         <v>1178</v>
       </c>
       <c r="X326" s="39" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="327" spans="5:24" x14ac:dyDescent="0.25">
@@ -16134,7 +16177,7 @@
         <v>180</v>
       </c>
       <c r="O341" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X341" s="18"/>
     </row>
@@ -16279,6 +16322,9 @@
       <c r="S346" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T346" s="2" t="s">
+        <v>1295</v>
+      </c>
       <c r="X346" s="18"/>
     </row>
     <row r="347" spans="5:24" x14ac:dyDescent="0.25">
@@ -16618,7 +16664,7 @@
         <v>159</v>
       </c>
       <c r="O358" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X358" s="18"/>
     </row>
@@ -16881,6 +16927,9 @@
       <c r="S367" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T367" s="2" t="s">
+        <v>1296</v>
+      </c>
       <c r="X367" s="18"/>
     </row>
     <row r="368" spans="5:24" x14ac:dyDescent="0.25">
@@ -16937,6 +16986,12 @@
       <c r="N369" s="9" t="s">
         <v>401</v>
       </c>
+      <c r="S369" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="T369" s="47" t="s">
+        <v>1309</v>
+      </c>
       <c r="X369" s="18"/>
     </row>
     <row r="370" spans="5:24" x14ac:dyDescent="0.25">
@@ -17118,7 +17173,7 @@
         <v>201</v>
       </c>
       <c r="O375" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X375" s="18"/>
     </row>
@@ -17207,6 +17262,9 @@
       <c r="S378" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T378" s="2" t="s">
+        <v>1297</v>
+      </c>
       <c r="X378" s="18"/>
     </row>
     <row r="379" spans="5:24" x14ac:dyDescent="0.25">
@@ -17236,7 +17294,7 @@
         <v>71</v>
       </c>
       <c r="O379" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X379" s="18"/>
     </row>
@@ -17266,7 +17324,7 @@
         <v>202</v>
       </c>
       <c r="O380" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X380" s="18"/>
     </row>
@@ -18138,7 +18196,7 @@
         <v>1178</v>
       </c>
       <c r="X410" s="41" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="411" spans="4:24" x14ac:dyDescent="0.25">
@@ -18166,7 +18224,7 @@
         <v>1182</v>
       </c>
       <c r="O411" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X411" s="18"/>
     </row>
@@ -19101,7 +19159,7 @@
         <v>34</v>
       </c>
       <c r="N444" s="42" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="X444" s="18"/>
     </row>
@@ -19274,7 +19332,7 @@
         <v>200</v>
       </c>
       <c r="O450" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X450" s="18"/>
     </row>
@@ -19394,7 +19452,7 @@
         <v>202</v>
       </c>
       <c r="O454" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X454" s="18"/>
     </row>
@@ -19486,7 +19544,7 @@
         <v>202</v>
       </c>
       <c r="O457" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X457" s="18"/>
     </row>
@@ -19869,6 +19927,9 @@
       <c r="P470" s="2" t="s">
         <v>1178</v>
       </c>
+      <c r="T470" s="2" t="s">
+        <v>1308</v>
+      </c>
       <c r="X470" s="18" t="s">
         <v>445</v>
       </c>
@@ -20589,7 +20650,7 @@
         <v>199</v>
       </c>
       <c r="O495" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X495" s="18"/>
     </row>
@@ -20968,7 +21029,7 @@
         <v>203</v>
       </c>
       <c r="O508" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X508" s="18"/>
     </row>
@@ -21055,7 +21116,7 @@
         <v>180</v>
       </c>
       <c r="O511" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X511" s="18"/>
     </row>
@@ -21311,7 +21372,7 @@
         <v>455</v>
       </c>
       <c r="S520" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="X520" s="18"/>
     </row>
@@ -21693,7 +21754,7 @@
         <v>197</v>
       </c>
       <c r="O533" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X533" s="18"/>
     </row>
@@ -21755,7 +21816,7 @@
         <v>1178</v>
       </c>
       <c r="X535" s="39" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="536" spans="5:24" x14ac:dyDescent="0.25">
@@ -22019,7 +22080,7 @@
         <v>1178</v>
       </c>
       <c r="X544" s="39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="545" spans="5:24" x14ac:dyDescent="0.25">
@@ -22531,7 +22592,7 @@
         <v>1175</v>
       </c>
       <c r="O561" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X561" s="18"/>
     </row>
@@ -22705,7 +22766,7 @@
         <v>0</v>
       </c>
       <c r="X567" s="39" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="568" spans="5:24" x14ac:dyDescent="0.25">
@@ -22909,7 +22970,7 @@
         <v>1175</v>
       </c>
       <c r="O574" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X574" s="18"/>
     </row>
@@ -23054,7 +23115,7 @@
         <v>1175</v>
       </c>
       <c r="O579" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X579" s="18"/>
     </row>
@@ -23310,7 +23371,7 @@
         <v>197</v>
       </c>
       <c r="O588" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X588" s="18"/>
     </row>
@@ -23345,7 +23406,7 @@
         <v>1178</v>
       </c>
       <c r="X589" s="45" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="590" spans="5:24" x14ac:dyDescent="0.25">
@@ -23608,7 +23669,7 @@
         <v>181</v>
       </c>
       <c r="O598" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X598" s="18"/>
     </row>
@@ -23752,7 +23813,7 @@
         <v>494</v>
       </c>
       <c r="R603" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="X603" s="18"/>
     </row>
@@ -23927,6 +23988,9 @@
       <c r="S609" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T609" s="52" t="s">
+        <v>1298</v>
+      </c>
       <c r="X609" s="18"/>
     </row>
     <row r="610" spans="5:24" x14ac:dyDescent="0.25">
@@ -24379,7 +24443,7 @@
         <v>204</v>
       </c>
       <c r="U625" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X625" s="33" t="s">
         <v>1184</v>
@@ -24524,10 +24588,10 @@
         <v>135</v>
       </c>
       <c r="O630" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="S630" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="T630" s="2" t="s">
         <v>1178</v>
@@ -24561,7 +24625,7 @@
         <v>181</v>
       </c>
       <c r="O631" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X631" s="18"/>
     </row>
@@ -24716,10 +24780,10 @@
         <v>135</v>
       </c>
       <c r="O636" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="S636" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="T636" s="2" t="s">
         <v>1178</v>
@@ -24753,7 +24817,7 @@
         <v>181</v>
       </c>
       <c r="O637" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X637" s="18"/>
     </row>
@@ -24939,7 +25003,7 @@
         <v>1178</v>
       </c>
       <c r="X643" s="41" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="644" spans="5:24" x14ac:dyDescent="0.25">
@@ -25710,11 +25774,11 @@
       <c r="N669" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="S669" s="47" t="s">
+      <c r="S669" s="52" t="s">
         <v>1205</v>
       </c>
-      <c r="T669" s="47" t="s">
-        <v>1209</v>
+      <c r="T669" s="52" t="s">
+        <v>1299</v>
       </c>
       <c r="X669" s="18"/>
     </row>
@@ -25779,7 +25843,7 @@
         <v>180</v>
       </c>
       <c r="O671" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X671" s="18"/>
     </row>
@@ -25955,7 +26019,7 @@
         <v>180</v>
       </c>
       <c r="O677" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X677" s="18"/>
     </row>
@@ -26015,7 +26079,7 @@
         <v>539</v>
       </c>
       <c r="S679" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="X679" s="18"/>
     </row>
@@ -26168,7 +26232,7 @@
         <v>181</v>
       </c>
       <c r="O684" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X684" s="18"/>
     </row>
@@ -26541,7 +26605,7 @@
         <v>200</v>
       </c>
       <c r="O697" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X697" s="18"/>
     </row>
@@ -26689,7 +26753,7 @@
         <v>200</v>
       </c>
       <c r="O702" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X702" s="18"/>
     </row>
@@ -26776,7 +26840,7 @@
         <v>200</v>
       </c>
       <c r="O705" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X705" s="18"/>
     </row>
@@ -27018,7 +27082,7 @@
         <v>0</v>
       </c>
       <c r="R713" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="X713" s="18" t="s">
         <v>83</v>
@@ -27054,7 +27118,7 @@
         <v>0</v>
       </c>
       <c r="Q714" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="X714" s="18" t="s">
         <v>556</v>
@@ -27087,7 +27151,7 @@
         <v>180</v>
       </c>
       <c r="O715" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X715" s="18"/>
     </row>
@@ -27411,7 +27475,7 @@
         <v>200</v>
       </c>
       <c r="O726" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X726" s="18"/>
     </row>
@@ -27849,7 +27913,7 @@
         <v>572</v>
       </c>
       <c r="S741" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="T741" s="2" t="s">
         <v>1178</v>
@@ -27883,7 +27947,7 @@
         <v>181</v>
       </c>
       <c r="O742" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X742" s="18"/>
     </row>
@@ -27998,7 +28062,7 @@
         <v>135</v>
       </c>
       <c r="O746" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X746" s="18"/>
     </row>
@@ -28120,6 +28184,9 @@
       <c r="S750" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T750" s="2" t="s">
+        <v>1296</v>
+      </c>
       <c r="X750" s="18"/>
     </row>
     <row r="751" spans="5:24" x14ac:dyDescent="0.25">
@@ -28230,13 +28297,13 @@
         <v>84</v>
       </c>
       <c r="N754" s="42" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O754" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X754" s="41" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="755" spans="5:24" x14ac:dyDescent="0.25">
@@ -28322,10 +28389,10 @@
         <v>93</v>
       </c>
       <c r="S757" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="V757" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="T757" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="X757" s="18"/>
     </row>
@@ -28537,7 +28604,7 @@
         <v>1178</v>
       </c>
       <c r="X764" s="45" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="765" spans="5:24" x14ac:dyDescent="0.25">
@@ -28622,7 +28689,7 @@
         <v>180</v>
       </c>
       <c r="O767" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X767" s="18"/>
     </row>
@@ -28742,7 +28809,7 @@
         <v>180</v>
       </c>
       <c r="O771" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X771" s="18"/>
     </row>
@@ -28857,7 +28924,7 @@
         <v>180</v>
       </c>
       <c r="O775" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X775" s="18"/>
     </row>
@@ -28972,7 +29039,7 @@
         <v>180</v>
       </c>
       <c r="O779" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X779" s="18"/>
     </row>
@@ -29092,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="S783" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="V783" s="2" t="s">
-        <v>1178</v>
+        <v>1290</v>
+      </c>
+      <c r="T783" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="X783" s="18" t="s">
         <v>582</v>
@@ -29502,7 +29569,7 @@
         <v>180</v>
       </c>
       <c r="O797" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X797" s="18"/>
     </row>
@@ -29730,7 +29797,7 @@
         <v>180</v>
       </c>
       <c r="O805" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X805" s="18"/>
     </row>
@@ -29845,7 +29912,7 @@
         <v>180</v>
       </c>
       <c r="O809" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X809" s="18"/>
     </row>
@@ -30052,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="X816" s="41" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="817" spans="5:24" x14ac:dyDescent="0.25">
@@ -31112,7 +31179,7 @@
         <v>181</v>
       </c>
       <c r="O853" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X853" s="18"/>
     </row>
@@ -31316,7 +31383,7 @@
         <v>135</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X860" s="18"/>
     </row>
@@ -31409,7 +31476,7 @@
         <v>202</v>
       </c>
       <c r="O863" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X863" s="18"/>
     </row>
@@ -31588,7 +31655,7 @@
         <v>1178</v>
       </c>
       <c r="X869" s="45" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="870" spans="5:24" x14ac:dyDescent="0.25">
@@ -31616,7 +31683,7 @@
         <v>200</v>
       </c>
       <c r="O870" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X870" s="18"/>
     </row>
@@ -31732,7 +31799,7 @@
         <v>200</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X874" s="18"/>
     </row>
@@ -32038,7 +32105,7 @@
         <v>0</v>
       </c>
       <c r="U884" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="X884" s="18" t="s">
         <v>607</v>
@@ -32071,7 +32138,7 @@
         <v>1173</v>
       </c>
       <c r="O885" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X885" s="18"/>
     </row>
@@ -32194,7 +32261,7 @@
         <v>0</v>
       </c>
       <c r="U889" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="X889" s="18" t="s">
         <v>607</v>
@@ -32227,7 +32294,7 @@
         <v>202</v>
       </c>
       <c r="O890" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X890" s="18"/>
     </row>
@@ -32316,6 +32383,9 @@
       <c r="S893" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T893" s="2" t="s">
+        <v>1298</v>
+      </c>
       <c r="X893" s="18"/>
     </row>
     <row r="894" spans="5:24" x14ac:dyDescent="0.25">
@@ -32702,7 +32772,7 @@
         <v>135</v>
       </c>
       <c r="O906" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X906" s="18"/>
     </row>
@@ -32786,7 +32856,7 @@
         <v>40</v>
       </c>
       <c r="N909" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="O909" s="12"/>
       <c r="X909" s="18"/>
@@ -33015,7 +33085,7 @@
         <v>200</v>
       </c>
       <c r="O917" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X917" s="18"/>
     </row>
@@ -34215,7 +34285,7 @@
         <v>1181</v>
       </c>
       <c r="U958" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X958" s="18" t="s">
         <v>644</v>
@@ -34643,7 +34713,7 @@
         <v>26</v>
       </c>
       <c r="N973" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="O973" s="2" t="s">
         <v>1181</v>
@@ -35393,7 +35463,7 @@
         <v>1174</v>
       </c>
       <c r="O999" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X999" s="18"/>
     </row>
@@ -36085,7 +36155,7 @@
         <v>1178</v>
       </c>
       <c r="X1023" s="37" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1024" spans="5:24" x14ac:dyDescent="0.25">
@@ -36253,7 +36323,7 @@
         <v>155</v>
       </c>
       <c r="U1029" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="X1029" s="18"/>
     </row>
@@ -36284,10 +36354,10 @@
         <v>667</v>
       </c>
       <c r="S1030" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="V1030" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
+      </c>
+      <c r="T1030" s="2" t="s">
+        <v>1301</v>
       </c>
       <c r="X1030" s="18"/>
     </row>
@@ -36318,7 +36388,7 @@
         <v>180</v>
       </c>
       <c r="O1031" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1031" s="18"/>
     </row>
@@ -36379,10 +36449,10 @@
       </c>
       <c r="O1033" s="2"/>
       <c r="S1033" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="V1033" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="T1033" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="X1033" s="18"/>
     </row>
@@ -36413,7 +36483,7 @@
         <v>669</v>
       </c>
       <c r="U1034" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="X1034" s="18"/>
     </row>
@@ -36447,7 +36517,7 @@
         <v>1178</v>
       </c>
       <c r="X1035" s="45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1036" spans="5:24" x14ac:dyDescent="0.25">
@@ -37100,7 +37170,7 @@
         <v>1178</v>
       </c>
       <c r="X1057" s="37" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1058" spans="5:24" x14ac:dyDescent="0.25">
@@ -37635,7 +37705,7 @@
         <v>180</v>
       </c>
       <c r="O1076" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1076" s="18"/>
     </row>
@@ -37694,7 +37764,7 @@
         <v>197</v>
       </c>
       <c r="O1078" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1078" s="18"/>
     </row>
@@ -37837,7 +37907,7 @@
         <v>200</v>
       </c>
       <c r="O1083" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1083" s="18"/>
     </row>
@@ -38431,7 +38501,7 @@
         <v>1178</v>
       </c>
       <c r="X1103" s="37" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1104" spans="5:24" x14ac:dyDescent="0.25">
@@ -38716,7 +38786,7 @@
         <v>1178</v>
       </c>
       <c r="X1113" s="37" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1114" spans="5:24" x14ac:dyDescent="0.25">
@@ -39357,7 +39427,7 @@
         <v>196</v>
       </c>
       <c r="O1135" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1135" s="18"/>
     </row>
@@ -39529,7 +39599,7 @@
         <v>203</v>
       </c>
       <c r="O1141" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1141" s="18"/>
     </row>
@@ -39563,7 +39633,7 @@
         <v>1178</v>
       </c>
       <c r="X1142" s="43" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1143" spans="5:24" x14ac:dyDescent="0.25">
@@ -39799,7 +39869,7 @@
         <v>1178</v>
       </c>
       <c r="X1150" s="9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1151" spans="5:24" x14ac:dyDescent="0.25">
@@ -39916,7 +39986,7 @@
         <v>1178</v>
       </c>
       <c r="X1154" s="45" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1155" spans="5:24" x14ac:dyDescent="0.25">
@@ -39973,7 +40043,7 @@
       </c>
       <c r="O1156" s="2"/>
       <c r="U1156" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="X1156" s="18"/>
     </row>
@@ -40032,7 +40102,7 @@
         <v>725</v>
       </c>
       <c r="U1158" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="X1158" s="18"/>
     </row>
@@ -40236,7 +40306,7 @@
         <v>1178</v>
       </c>
       <c r="X1165" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1166" spans="5:24" x14ac:dyDescent="0.25">
@@ -40560,7 +40630,7 @@
         <v>1178</v>
       </c>
       <c r="X1176" s="38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1177" spans="5:24" x14ac:dyDescent="0.25">
@@ -40590,7 +40660,7 @@
         <v>180</v>
       </c>
       <c r="O1177" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1177" s="18"/>
     </row>
@@ -40797,7 +40867,7 @@
         <v>1178</v>
       </c>
       <c r="X1184" s="45" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1185" spans="5:24" x14ac:dyDescent="0.25">
@@ -41003,7 +41073,7 @@
         <v>1178</v>
       </c>
       <c r="X1191" s="37" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1192" spans="5:24" x14ac:dyDescent="0.25">
@@ -41089,7 +41159,7 @@
         <v>1173</v>
       </c>
       <c r="O1194" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1194" s="18"/>
     </row>
@@ -41120,7 +41190,10 @@
         <v>747</v>
       </c>
       <c r="S1195" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
+      </c>
+      <c r="T1195" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="X1195" s="18"/>
     </row>
@@ -41299,7 +41372,7 @@
         <v>1178</v>
       </c>
       <c r="X1201" s="37" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1202" spans="5:24" x14ac:dyDescent="0.25">
@@ -41567,7 +41640,7 @@
         <v>1178</v>
       </c>
       <c r="X1210" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1211" spans="5:24" x14ac:dyDescent="0.25">
@@ -41627,6 +41700,9 @@
       <c r="S1212" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T1212" s="2" t="s">
+        <v>1302</v>
+      </c>
       <c r="X1212" s="18"/>
     </row>
     <row r="1213" spans="5:24" x14ac:dyDescent="0.25">
@@ -41837,7 +41913,7 @@
         <v>1178</v>
       </c>
       <c r="X1219" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1220" spans="5:24" x14ac:dyDescent="0.25">
@@ -41924,7 +42000,7 @@
         <v>180</v>
       </c>
       <c r="O1222" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1222" s="18"/>
     </row>
@@ -42069,6 +42145,9 @@
       <c r="S1227" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T1227" s="2" t="s">
+        <v>1303</v>
+      </c>
       <c r="X1227" s="18"/>
     </row>
     <row r="1228" spans="5:24" x14ac:dyDescent="0.25">
@@ -42165,7 +42244,7 @@
         <v>1204</v>
       </c>
       <c r="X1230" s="41" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1231" spans="5:24" x14ac:dyDescent="0.25">
@@ -42336,7 +42415,7 @@
         <v>772</v>
       </c>
       <c r="S1236" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="X1236" s="18"/>
     </row>
@@ -42515,7 +42594,7 @@
         <v>202</v>
       </c>
       <c r="O1242" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1242" s="18"/>
     </row>
@@ -42632,7 +42711,7 @@
         <v>779</v>
       </c>
       <c r="U1246" s="47" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="X1246" s="18"/>
     </row>
@@ -42663,7 +42742,7 @@
         <v>180</v>
       </c>
       <c r="O1247" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1247" s="18"/>
     </row>
@@ -42788,8 +42867,11 @@
       <c r="S1251" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T1251" s="2" t="s">
+        <v>1304</v>
+      </c>
       <c r="X1251" s="37" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1252" spans="5:24" x14ac:dyDescent="0.25">
@@ -42816,13 +42898,13 @@
         <v>98</v>
       </c>
       <c r="N1252" s="9" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O1252" s="2" t="s">
         <v>204</v>
       </c>
       <c r="X1252" s="37" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1253" spans="5:24" x14ac:dyDescent="0.25">
@@ -42914,6 +42996,9 @@
       <c r="S1255" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T1255" s="2" t="s">
+        <v>1302</v>
+      </c>
       <c r="X1255" s="18"/>
     </row>
     <row r="1256" spans="5:24" x14ac:dyDescent="0.25">
@@ -42999,7 +43084,7 @@
         <v>180</v>
       </c>
       <c r="O1258" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1258" s="18"/>
     </row>
@@ -43061,7 +43146,7 @@
         <v>1178</v>
       </c>
       <c r="X1260" s="40" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1261" spans="5:24" x14ac:dyDescent="0.25">
@@ -43231,7 +43316,7 @@
         <v>200</v>
       </c>
       <c r="O1266" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1266" s="18"/>
     </row>
@@ -43321,7 +43406,7 @@
         <v>1178</v>
       </c>
       <c r="X1269" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1270" spans="5:24" x14ac:dyDescent="0.25">
@@ -43506,7 +43591,7 @@
         <v>1178</v>
       </c>
       <c r="X1275" s="45" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1276" spans="5:24" x14ac:dyDescent="0.25">
@@ -43596,7 +43681,7 @@
         <v>1178</v>
       </c>
       <c r="X1278" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1279" spans="5:24" x14ac:dyDescent="0.25">
@@ -43712,7 +43797,7 @@
         <v>96</v>
       </c>
       <c r="U1282" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X1282" s="18"/>
     </row>
@@ -43981,7 +44066,7 @@
         <v>1174</v>
       </c>
       <c r="O1291" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1291" s="18"/>
     </row>
@@ -44125,7 +44210,7 @@
         <v>809</v>
       </c>
       <c r="U1296" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="X1296" s="18"/>
     </row>
@@ -44334,7 +44419,7 @@
         <v>180</v>
       </c>
       <c r="O1303" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1303" s="18"/>
     </row>
@@ -44368,7 +44453,7 @@
         <v>1178</v>
       </c>
       <c r="X1304" s="45" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1305" spans="5:24" x14ac:dyDescent="0.25">
@@ -44466,7 +44551,7 @@
         <v>1178</v>
       </c>
       <c r="X1307" s="45" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1308" spans="5:24" x14ac:dyDescent="0.25">
@@ -44916,7 +45001,7 @@
         <v>1178</v>
       </c>
       <c r="X1322" s="40" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1323" spans="5:24" x14ac:dyDescent="0.25">
@@ -45112,13 +45197,13 @@
         <v>175</v>
       </c>
       <c r="N1329" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>1178</v>
       </c>
       <c r="X1329" s="37" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1330" spans="5:24" x14ac:dyDescent="0.25">
@@ -45238,7 +45323,7 @@
         <v>180</v>
       </c>
       <c r="O1333" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1333" s="18"/>
     </row>
@@ -45297,10 +45382,10 @@
         <v>1172</v>
       </c>
       <c r="O1335" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="S1335" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="X1335" s="18"/>
     </row>
@@ -45455,7 +45540,7 @@
         <v>96</v>
       </c>
       <c r="U1340" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="X1340" s="18"/>
     </row>
@@ -45611,7 +45696,7 @@
         <v>1178</v>
       </c>
       <c r="X1345" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1346" spans="5:24" x14ac:dyDescent="0.25">
@@ -45866,7 +45951,7 @@
         <v>1174</v>
       </c>
       <c r="O1354" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1354" s="18"/>
     </row>
@@ -45928,7 +46013,7 @@
         <v>1178</v>
       </c>
       <c r="X1356" s="45" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1357" spans="5:24" x14ac:dyDescent="0.25">
@@ -46212,6 +46297,9 @@
       <c r="S1365" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T1365" s="2" t="s">
+        <v>1305</v>
+      </c>
       <c r="X1365" s="18"/>
     </row>
     <row r="1366" spans="5:24" x14ac:dyDescent="0.25">
@@ -46241,7 +46329,7 @@
         <v>1175</v>
       </c>
       <c r="O1366" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1366" s="18"/>
     </row>
@@ -46415,7 +46503,7 @@
         <v>1175</v>
       </c>
       <c r="O1372" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1372" s="18"/>
     </row>
@@ -46865,7 +46953,7 @@
         <v>202</v>
       </c>
       <c r="O1387" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1387" s="18"/>
     </row>
@@ -46899,7 +46987,7 @@
         <v>1178</v>
       </c>
       <c r="X1388" s="37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1389" spans="5:24" x14ac:dyDescent="0.25">
@@ -47107,7 +47195,7 @@
         <v>202</v>
       </c>
       <c r="O1395" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1395" s="18"/>
     </row>
@@ -47258,7 +47346,7 @@
         <v>1178</v>
       </c>
       <c r="X1400" s="37" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1401" spans="5:24" x14ac:dyDescent="0.25">
@@ -47288,7 +47376,7 @@
         <v>112</v>
       </c>
       <c r="U1401" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="X1401" s="18"/>
     </row>
@@ -47319,7 +47407,7 @@
         <v>875</v>
       </c>
       <c r="U1402" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X1402" s="18"/>
     </row>
@@ -47561,7 +47649,7 @@
         <v>180</v>
       </c>
       <c r="O1410" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1410" s="18"/>
     </row>
@@ -47857,10 +47945,10 @@
         <v>1178</v>
       </c>
       <c r="U1420" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X1420" s="45" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1421" spans="5:24" x14ac:dyDescent="0.25">
@@ -47915,7 +48003,7 @@
         <v>268</v>
       </c>
       <c r="N1422" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="X1422" s="18"/>
     </row>
@@ -48095,7 +48183,7 @@
         <v>1178</v>
       </c>
       <c r="X1428" s="37" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1429" spans="5:24" x14ac:dyDescent="0.25">
@@ -48333,7 +48421,7 @@
         <v>1178</v>
       </c>
       <c r="X1436" s="37" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1437" spans="5:24" x14ac:dyDescent="0.25">
@@ -48605,7 +48693,7 @@
         <v>1178</v>
       </c>
       <c r="X1445" s="41" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1446" spans="5:24" x14ac:dyDescent="0.25">
@@ -48691,7 +48779,7 @@
         <v>180</v>
       </c>
       <c r="O1448" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1448" s="18"/>
     </row>
@@ -48814,7 +48902,7 @@
         <v>1178</v>
       </c>
       <c r="X1452" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1453" spans="5:24" x14ac:dyDescent="0.25">
@@ -48925,10 +49013,10 @@
         <v>302</v>
       </c>
       <c r="N1456" s="9" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O1456" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1456" s="18"/>
     </row>
@@ -49021,7 +49109,7 @@
         <v>1178</v>
       </c>
       <c r="X1459" s="37" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1460" spans="5:24" x14ac:dyDescent="0.25">
@@ -49079,7 +49167,7 @@
         <v>96</v>
       </c>
       <c r="U1461" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X1461" s="18"/>
     </row>
@@ -49199,7 +49287,7 @@
         <v>180</v>
       </c>
       <c r="O1465" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1465" s="18"/>
     </row>
@@ -49233,7 +49321,7 @@
         <v>1178</v>
       </c>
       <c r="X1466" s="45" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1467" spans="5:24" x14ac:dyDescent="0.25">
@@ -49347,7 +49435,7 @@
         <v>912</v>
       </c>
       <c r="U1470" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="X1470" s="18"/>
     </row>
@@ -49572,7 +49660,7 @@
         <v>1178</v>
       </c>
       <c r="X1477" s="9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1478" spans="5:24" x14ac:dyDescent="0.25">
@@ -49661,10 +49749,10 @@
         <v>1178</v>
       </c>
       <c r="U1480" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X1480" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1481" spans="5:24" x14ac:dyDescent="0.25">
@@ -49967,7 +50055,7 @@
         <v>1178</v>
       </c>
       <c r="X1490" s="37" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1491" spans="5:24" x14ac:dyDescent="0.25">
@@ -50315,8 +50403,11 @@
       <c r="S1502" s="2" t="s">
         <v>1205</v>
       </c>
+      <c r="T1502" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="X1502" s="37" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1503" spans="5:24" x14ac:dyDescent="0.25">
@@ -50430,7 +50521,7 @@
         <v>180</v>
       </c>
       <c r="O1506" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1506" s="18"/>
     </row>
@@ -50665,7 +50756,7 @@
         <v>1178</v>
       </c>
       <c r="X1514" s="37" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1515" spans="5:24" x14ac:dyDescent="0.25">
@@ -50787,7 +50878,7 @@
         <v>204</v>
       </c>
       <c r="U1518" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="X1518" s="35" t="s">
         <v>1202</v>
@@ -50972,7 +51063,7 @@
         <v>1178</v>
       </c>
       <c r="X1524" s="37" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1525" spans="5:24" x14ac:dyDescent="0.25">
@@ -51146,7 +51237,7 @@
         <v>1178</v>
       </c>
       <c r="X1530" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1531" spans="5:24" x14ac:dyDescent="0.25">
@@ -51176,7 +51267,7 @@
         <v>180</v>
       </c>
       <c r="O1531" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1531" s="18"/>
     </row>
@@ -51294,7 +51385,7 @@
         <v>1178</v>
       </c>
       <c r="X1535" s="46" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1536" spans="5:24" x14ac:dyDescent="0.25">
@@ -51464,10 +51555,10 @@
         <v>93</v>
       </c>
       <c r="S1541" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="V1541" s="2" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="T1541" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="X1541" s="18"/>
     </row>
@@ -51526,7 +51617,7 @@
         <v>180</v>
       </c>
       <c r="O1543" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1543" s="18"/>
     </row>
@@ -51560,7 +51651,7 @@
         <v>1178</v>
       </c>
       <c r="X1544" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1545" spans="5:24" x14ac:dyDescent="0.25">
@@ -51883,7 +51974,7 @@
         <v>1178</v>
       </c>
       <c r="X1555" s="9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1556" spans="5:24" x14ac:dyDescent="0.25">
@@ -52005,7 +52096,7 @@
         <v>203</v>
       </c>
       <c r="O1559" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="X1559" s="18"/>
     </row>
@@ -52036,7 +52127,7 @@
         <v>96</v>
       </c>
       <c r="U1560" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="X1560" s="18"/>
     </row>
@@ -52185,7 +52276,7 @@
         <v>1178</v>
       </c>
       <c r="X1565" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1566" spans="5:24" x14ac:dyDescent="0.25">
@@ -52274,10 +52365,10 @@
         <v>1178</v>
       </c>
       <c r="U1568" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="X1568" s="41" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1569" spans="5:8" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="1310">
   <si>
     <t>PS</t>
   </si>
@@ -3911,52 +3911,52 @@
     <t>Padam Split Expansion</t>
   </si>
   <si>
-    <t>P[H]+S[o]+N(H)</t>
-  </si>
-  <si>
-    <t>P[r]+S[H]+N[H]</t>
-  </si>
-  <si>
-    <t>P[H]+S[o]+N[s]</t>
-  </si>
-  <si>
-    <t>P[H]+S[H]+N[r]</t>
-  </si>
-  <si>
     <t>P[r]+S[s]+N[r]</t>
   </si>
   <si>
-    <t>P[r]+S[H]+N[r]</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>P+N</t>
   </si>
   <si>
-    <t>P[H]+S[r]+N[r]</t>
-  </si>
-  <si>
     <t>P[r]+S[r]+N[r]</t>
   </si>
   <si>
     <t>P[r]+S[r]</t>
   </si>
   <si>
-    <t>S[o]+N[s]</t>
-  </si>
-  <si>
-    <t>P[H]+S[r]</t>
-  </si>
-  <si>
-    <t>1.03.30</t>
-  </si>
-  <si>
-    <t>1.24.29</t>
-  </si>
-  <si>
-    <t>P[s]+S[o]+N[o]</t>
+    <t>N(H)</t>
+  </si>
+  <si>
+    <t>P[r]</t>
+  </si>
+  <si>
+    <t>N[s]</t>
+  </si>
+  <si>
+    <t>P[s]</t>
+  </si>
+  <si>
+    <t>N[r]</t>
+  </si>
+  <si>
+    <t>NE+se?</t>
+  </si>
+  <si>
+    <t>NRE?</t>
+  </si>
+  <si>
+    <t>P[r]+N[r]</t>
+  </si>
+  <si>
+    <t>S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>N(Sh)</t>
+  </si>
+  <si>
+    <t>S[r]</t>
   </si>
 </sst>
 </file>
@@ -4075,7 +4075,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4091,6 +4091,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4122,7 +4128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4275,6 +4281,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4558,10 +4570,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1557" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="T369" sqref="T369"/>
+      <selection pane="bottomLeft" activeCell="U1550" sqref="U1550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14340,9 +14352,6 @@
       <c r="P279" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="S279" s="47" t="s">
-        <v>1307</v>
-      </c>
       <c r="X279" s="18" t="s">
         <v>1038</v>
       </c>
@@ -15514,7 +15523,7 @@
         <v>1205</v>
       </c>
       <c r="T319" s="2" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="X319" s="18"/>
     </row>
@@ -16323,7 +16332,7 @@
         <v>1205</v>
       </c>
       <c r="T346" s="2" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="X346" s="18"/>
     </row>
@@ -16928,7 +16937,7 @@
         <v>1205</v>
       </c>
       <c r="T367" s="2" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="X367" s="18"/>
     </row>
@@ -16989,8 +16998,8 @@
       <c r="S369" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="T369" s="47" t="s">
-        <v>1309</v>
+      <c r="T369" s="2" t="s">
+        <v>1302</v>
       </c>
       <c r="X369" s="18"/>
     </row>
@@ -17263,7 +17272,7 @@
         <v>1205</v>
       </c>
       <c r="T378" s="2" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="X378" s="18"/>
     </row>
@@ -19927,9 +19936,6 @@
       <c r="P470" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="T470" s="2" t="s">
-        <v>1308</v>
-      </c>
       <c r="X470" s="18" t="s">
         <v>445</v>
       </c>
@@ -20302,6 +20308,9 @@
       <c r="N483" s="9" t="s">
         <v>173</v>
       </c>
+      <c r="U483" s="47" t="s">
+        <v>1258</v>
+      </c>
       <c r="X483" s="18"/>
     </row>
     <row r="484" spans="5:24" x14ac:dyDescent="0.25">
@@ -21521,6 +21530,9 @@
       <c r="P525" s="2" t="s">
         <v>1178</v>
       </c>
+      <c r="T525" s="47" t="s">
+        <v>1304</v>
+      </c>
       <c r="X525" s="36" t="s">
         <v>1206</v>
       </c>
@@ -22823,6 +22835,12 @@
       <c r="N569" s="9" t="s">
         <v>271</v>
       </c>
+      <c r="S569" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="T569" s="2" t="s">
+        <v>1301</v>
+      </c>
       <c r="X569" s="18"/>
     </row>
     <row r="570" spans="5:24" x14ac:dyDescent="0.25">
@@ -23174,6 +23192,12 @@
         <v>271</v>
       </c>
       <c r="O581" s="2"/>
+      <c r="S581" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="T581" s="2" t="s">
+        <v>1301</v>
+      </c>
       <c r="X581" s="18"/>
     </row>
     <row r="582" spans="5:24" x14ac:dyDescent="0.25">
@@ -23989,7 +24013,7 @@
         <v>1205</v>
       </c>
       <c r="T609" s="52" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="X609" s="18"/>
     </row>
@@ -24594,7 +24618,7 @@
         <v>1291</v>
       </c>
       <c r="T630" s="2" t="s">
-        <v>1178</v>
+        <v>1291</v>
       </c>
       <c r="X630" s="18"/>
     </row>
@@ -24786,7 +24810,7 @@
         <v>1291</v>
       </c>
       <c r="T636" s="2" t="s">
-        <v>1178</v>
+        <v>1291</v>
       </c>
       <c r="X636" s="18"/>
     </row>
@@ -25268,6 +25292,9 @@
       <c r="N652" s="9" t="s">
         <v>163</v>
       </c>
+      <c r="T652" s="2" t="s">
+        <v>1305</v>
+      </c>
       <c r="X652" s="18"/>
     </row>
     <row r="653" spans="5:24" x14ac:dyDescent="0.25">
@@ -25778,7 +25805,7 @@
         <v>1205</v>
       </c>
       <c r="T669" s="52" t="s">
-        <v>1299</v>
+        <v>1306</v>
       </c>
       <c r="X669" s="18"/>
     </row>
@@ -27916,7 +27943,7 @@
         <v>1291</v>
       </c>
       <c r="T741" s="2" t="s">
-        <v>1178</v>
+        <v>1291</v>
       </c>
       <c r="X741" s="18"/>
     </row>
@@ -28185,7 +28212,7 @@
         <v>1205</v>
       </c>
       <c r="T750" s="2" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="X750" s="18"/>
     </row>
@@ -29162,7 +29189,7 @@
         <v>1290</v>
       </c>
       <c r="T783" s="2" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="X783" s="18" t="s">
         <v>582</v>
@@ -32384,7 +32411,7 @@
         <v>1205</v>
       </c>
       <c r="T893" s="2" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="X893" s="18"/>
     </row>
@@ -36357,7 +36384,7 @@
         <v>1289</v>
       </c>
       <c r="T1030" s="2" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="X1030" s="18"/>
     </row>
@@ -41193,7 +41220,7 @@
         <v>1280</v>
       </c>
       <c r="T1195" s="2" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="X1195" s="18"/>
     </row>
@@ -41701,7 +41728,7 @@
         <v>1205</v>
       </c>
       <c r="T1212" s="2" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="X1212" s="18"/>
     </row>
@@ -42146,7 +42173,7 @@
         <v>1205</v>
       </c>
       <c r="T1227" s="2" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="X1227" s="18"/>
     </row>
@@ -42710,7 +42737,7 @@
       <c r="N1246" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="U1246" s="47" t="s">
+      <c r="U1246" s="53" t="s">
         <v>1288</v>
       </c>
       <c r="X1246" s="18"/>
@@ -42868,7 +42895,7 @@
         <v>1205</v>
       </c>
       <c r="T1251" s="2" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="X1251" s="37" t="s">
         <v>1222</v>
@@ -42997,7 +43024,7 @@
         <v>1205</v>
       </c>
       <c r="T1255" s="2" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="X1255" s="18"/>
     </row>
@@ -43680,7 +43707,7 @@
       <c r="P1278" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="X1278" s="37" t="s">
+      <c r="X1278" s="54" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -44243,7 +44270,7 @@
       <c r="P1297" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="X1297" s="37" t="s">
+      <c r="X1297" s="54" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -45030,6 +45057,12 @@
       <c r="N1323" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="S1323" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="T1323" s="2" t="s">
+        <v>1308</v>
+      </c>
       <c r="X1323" s="18"/>
     </row>
     <row r="1324" spans="5:24" x14ac:dyDescent="0.25">
@@ -46298,7 +46331,7 @@
         <v>1205</v>
       </c>
       <c r="T1365" s="2" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="X1365" s="18"/>
     </row>
@@ -50404,7 +50437,7 @@
         <v>1205</v>
       </c>
       <c r="T1502" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="X1502" s="37" t="s">
         <v>1241</v>
@@ -51558,7 +51591,7 @@
         <v>1289</v>
       </c>
       <c r="T1541" s="2" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="X1541" s="18"/>
     </row>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -4570,10 +4570,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1557" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1136" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="U1550" sqref="U1550"/>
+      <selection pane="bottomLeft" activeCell="X1145" sqref="X1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -3926,9 +3926,6 @@
     <t>N[r]</t>
   </si>
   <si>
-    <t>P[r]+N[r]</t>
-  </si>
-  <si>
     <t>S[r]+N[r]</t>
   </si>
   <si>
@@ -4085,6 +4082,9 @@
   </si>
   <si>
     <t>GS1.3-29</t>
+  </si>
+  <si>
+    <t>P[c]</t>
   </si>
 </sst>
 </file>
@@ -4736,9 +4736,9 @@
   <dimension ref="A1:V1577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1562" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="S520" sqref="S520"/>
+      <selection pane="bottomLeft" activeCell="T894" sqref="T894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8180,7 +8180,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="53" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8859,7 +8859,7 @@
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
       <c r="H96" s="61" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>211</v>
@@ -8881,12 +8881,6 @@
       </c>
       <c r="N96" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="S96" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>1287</v>
       </c>
       <c r="V96" s="18"/>
     </row>
@@ -8895,7 +8889,7 @@
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
       <c r="H97" s="61" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>211</v>
@@ -8920,6 +8914,12 @@
       </c>
       <c r="O97" s="1" t="s">
         <v>1246</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>1345</v>
       </c>
       <c r="V97" s="18"/>
     </row>
@@ -13883,7 +13883,7 @@
       <c r="F264" s="28"/>
       <c r="G264" s="28"/>
       <c r="H264" s="61" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I264" s="9" t="s">
         <v>214</v>
@@ -13913,7 +13913,7 @@
       <c r="F265" s="28"/>
       <c r="G265" s="28"/>
       <c r="H265" s="61" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I265" s="9" t="s">
         <v>214</v>
@@ -13943,7 +13943,7 @@
       <c r="F266" s="28"/>
       <c r="G266" s="28"/>
       <c r="H266" s="61" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I266" s="9" t="s">
         <v>214</v>
@@ -13978,7 +13978,7 @@
       <c r="F267" s="28"/>
       <c r="G267" s="28"/>
       <c r="H267" s="61" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I267" s="9" t="s">
         <v>214</v>
@@ -14232,7 +14232,7 @@
       <c r="E276" s="28"/>
       <c r="F276" s="28"/>
       <c r="G276" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H276" s="28"/>
       <c r="I276" s="9" t="s">
@@ -14262,7 +14262,7 @@
       <c r="E277" s="28"/>
       <c r="F277" s="28"/>
       <c r="G277" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H277" s="28"/>
       <c r="I277" s="9" t="s">
@@ -14292,7 +14292,7 @@
       <c r="E278" s="28"/>
       <c r="F278" s="28"/>
       <c r="G278" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H278" s="28"/>
       <c r="I278" s="9" t="s">
@@ -14322,7 +14322,7 @@
       <c r="E279" s="28"/>
       <c r="F279" s="28"/>
       <c r="G279" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H279" s="28"/>
       <c r="I279" s="9" t="s">
@@ -14480,7 +14480,7 @@
       <c r="F284" s="28"/>
       <c r="G284" s="28"/>
       <c r="H284" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I284" s="9" t="s">
         <v>215</v>
@@ -14515,7 +14515,7 @@
       <c r="F285" s="28"/>
       <c r="G285" s="28"/>
       <c r="H285" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I285" s="9" t="s">
         <v>215</v>
@@ -14545,7 +14545,7 @@
       <c r="F286" s="28"/>
       <c r="G286" s="28"/>
       <c r="H286" s="61" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I286" s="9" t="s">
         <v>215</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="290" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D290" s="58" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E290" s="28"/>
       <c r="F290" s="28"/>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="297" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D297" s="58" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="28"/>
@@ -16027,7 +16027,7 @@
       <c r="F336" s="28"/>
       <c r="G336" s="28"/>
       <c r="H336" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I336" s="9" t="s">
         <v>216</v>
@@ -16057,7 +16057,7 @@
       <c r="F337" s="28"/>
       <c r="G337" s="28"/>
       <c r="H337" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I337" s="9" t="s">
         <v>216</v>
@@ -16087,7 +16087,7 @@
       <c r="F338" s="28"/>
       <c r="G338" s="28"/>
       <c r="H338" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I338" s="9" t="s">
         <v>216</v>
@@ -16117,7 +16117,7 @@
       <c r="F339" s="28"/>
       <c r="G339" s="28"/>
       <c r="H339" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I339" s="9" t="s">
         <v>216</v>
@@ -16148,7 +16148,7 @@
       <c r="F340" s="28"/>
       <c r="G340" s="28"/>
       <c r="H340" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I340" s="9" t="s">
         <v>216</v>
@@ -16178,7 +16178,7 @@
       <c r="F341" s="28"/>
       <c r="G341" s="28"/>
       <c r="H341" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I341" s="9" t="s">
         <v>216</v>
@@ -16211,7 +16211,7 @@
       <c r="F342" s="28"/>
       <c r="G342" s="28"/>
       <c r="H342" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I342" s="9" t="s">
         <v>216</v>
@@ -16241,7 +16241,7 @@
       <c r="F343" s="28"/>
       <c r="G343" s="28"/>
       <c r="H343" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I343" s="9" t="s">
         <v>216</v>
@@ -16271,7 +16271,7 @@
       <c r="F344" s="28"/>
       <c r="G344" s="28"/>
       <c r="H344" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I344" s="9" t="s">
         <v>216</v>
@@ -16301,7 +16301,7 @@
       <c r="F345" s="28"/>
       <c r="G345" s="28"/>
       <c r="H345" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I345" s="9" t="s">
         <v>216</v>
@@ -16331,7 +16331,7 @@
       <c r="F346" s="28"/>
       <c r="G346" s="28"/>
       <c r="H346" s="61" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I346" s="9" t="s">
         <v>216</v>
@@ -16938,7 +16938,7 @@
       <c r="F367" s="28"/>
       <c r="G367" s="28"/>
       <c r="H367" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I367" s="9" t="s">
         <v>216</v>
@@ -16974,7 +16974,7 @@
       <c r="F368" s="28"/>
       <c r="G368" s="28"/>
       <c r="H368" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I368" s="9" t="s">
         <v>216</v>
@@ -17004,7 +17004,7 @@
       <c r="F369" s="28"/>
       <c r="G369" s="28"/>
       <c r="H369" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I369" s="9" t="s">
         <v>216</v>
@@ -17040,7 +17040,7 @@
       <c r="F370" s="28"/>
       <c r="G370" s="28"/>
       <c r="H370" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I370" s="9" t="s">
         <v>216</v>
@@ -17278,7 +17278,7 @@
     </row>
     <row r="378" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D378" s="58" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E378" s="28"/>
       <c r="F378" s="28"/>
@@ -17982,7 +17982,7 @@
       <c r="F402" s="28"/>
       <c r="G402" s="28"/>
       <c r="H402" s="61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I402" s="9" t="s">
         <v>217</v>
@@ -18012,7 +18012,7 @@
       <c r="F403" s="28"/>
       <c r="G403" s="28"/>
       <c r="H403" s="61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I403" s="9" t="s">
         <v>217</v>
@@ -18042,7 +18042,7 @@
       <c r="F404" s="28"/>
       <c r="G404" s="28"/>
       <c r="H404" s="61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I404" s="9" t="s">
         <v>217</v>
@@ -18073,7 +18073,7 @@
       <c r="F405" s="28"/>
       <c r="G405" s="28"/>
       <c r="H405" s="61" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I405" s="9" t="s">
         <v>217</v>
@@ -18258,7 +18258,7 @@
       <c r="F411" s="28"/>
       <c r="G411" s="28"/>
       <c r="H411" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I411" s="9" t="s">
         <v>218</v>
@@ -18289,7 +18289,7 @@
       <c r="F412" s="28"/>
       <c r="G412" s="28"/>
       <c r="H412" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I412" s="9" t="s">
         <v>218</v>
@@ -18319,7 +18319,7 @@
       <c r="F413" s="28"/>
       <c r="G413" s="28"/>
       <c r="H413" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I413" s="9" t="s">
         <v>218</v>
@@ -18349,7 +18349,7 @@
       <c r="F414" s="28"/>
       <c r="G414" s="28"/>
       <c r="H414" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I414" s="9" t="s">
         <v>218</v>
@@ -18379,7 +18379,7 @@
       <c r="F415" s="28"/>
       <c r="G415" s="28"/>
       <c r="H415" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I415" s="9" t="s">
         <v>218</v>
@@ -18409,7 +18409,7 @@
       <c r="F416" s="28"/>
       <c r="G416" s="28"/>
       <c r="H416" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I416" s="9" t="s">
         <v>218</v>
@@ -18439,7 +18439,7 @@
       <c r="F417" s="28"/>
       <c r="G417" s="28"/>
       <c r="H417" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I417" s="9" t="s">
         <v>218</v>
@@ -18469,7 +18469,7 @@
       <c r="F418" s="28"/>
       <c r="G418" s="28"/>
       <c r="H418" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I418" s="9" t="s">
         <v>218</v>
@@ -18499,7 +18499,7 @@
       <c r="F419" s="28"/>
       <c r="G419" s="28"/>
       <c r="H419" s="61" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I419" s="9" t="s">
         <v>218</v>
@@ -21253,7 +21253,7 @@
       <c r="F514" s="28"/>
       <c r="G514" s="28"/>
       <c r="H514" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I514" s="9" t="s">
         <v>219</v>
@@ -21283,7 +21283,7 @@
       <c r="F515" s="28"/>
       <c r="G515" s="28"/>
       <c r="H515" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I515" s="9" t="s">
         <v>219</v>
@@ -21313,7 +21313,7 @@
       <c r="F516" s="28"/>
       <c r="G516" s="28"/>
       <c r="H516" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I516" s="9" t="s">
         <v>219</v>
@@ -21344,7 +21344,7 @@
       <c r="F517" s="28"/>
       <c r="G517" s="28"/>
       <c r="H517" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I517" s="9" t="s">
         <v>219</v>
@@ -21374,7 +21374,7 @@
       <c r="F518" s="28"/>
       <c r="G518" s="28"/>
       <c r="H518" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I518" s="9" t="s">
         <v>219</v>
@@ -21404,7 +21404,7 @@
       <c r="F519" s="28"/>
       <c r="G519" s="28"/>
       <c r="H519" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I519" s="9" t="s">
         <v>219</v>
@@ -21434,7 +21434,7 @@
       <c r="F520" s="28"/>
       <c r="G520" s="28"/>
       <c r="H520" s="61" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I520" s="9" t="s">
         <v>988</v>
@@ -21617,7 +21617,7 @@
       <c r="F526" s="28"/>
       <c r="G526" s="28"/>
       <c r="H526" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I526" s="9" t="s">
         <v>220</v>
@@ -21647,7 +21647,7 @@
       <c r="F527" s="28"/>
       <c r="G527" s="28"/>
       <c r="H527" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I527" s="9" t="s">
         <v>220</v>
@@ -21678,7 +21678,7 @@
       <c r="F528" s="28"/>
       <c r="G528" s="28"/>
       <c r="H528" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I528" s="9" t="s">
         <v>220</v>
@@ -21708,7 +21708,7 @@
       <c r="F529" s="28"/>
       <c r="G529" s="28"/>
       <c r="H529" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I529" s="9" t="s">
         <v>220</v>
@@ -25774,7 +25774,7 @@
       <c r="F666" s="28"/>
       <c r="G666" s="28"/>
       <c r="H666" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I666" s="9" t="s">
         <v>222</v>
@@ -25804,7 +25804,7 @@
       <c r="F667" s="28"/>
       <c r="G667" s="28"/>
       <c r="H667" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I667" s="9" t="s">
         <v>222</v>
@@ -25834,7 +25834,7 @@
       <c r="F668" s="28"/>
       <c r="G668" s="28"/>
       <c r="H668" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I668" s="9" t="s">
         <v>222</v>
@@ -25864,7 +25864,7 @@
       <c r="F669" s="28"/>
       <c r="G669" s="28"/>
       <c r="H669" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I669" s="9" t="s">
         <v>222</v>
@@ -25891,7 +25891,7 @@
         <v>1202</v>
       </c>
       <c r="T669" s="57" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V669" s="18"/>
     </row>
@@ -25900,7 +25900,7 @@
       <c r="F670" s="28"/>
       <c r="G670" s="28"/>
       <c r="H670" s="61" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I670" s="9" t="s">
         <v>970</v>
@@ -27172,7 +27172,7 @@
       <c r="F713" s="28"/>
       <c r="G713" s="28"/>
       <c r="H713" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I713" s="9" t="s">
         <v>223</v>
@@ -27210,7 +27210,7 @@
       <c r="F714" s="28"/>
       <c r="G714" s="28"/>
       <c r="H714" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I714" s="9" t="s">
         <v>223</v>
@@ -27248,7 +27248,7 @@
       <c r="F715" s="28"/>
       <c r="G715" s="28"/>
       <c r="H715" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I715" s="9" t="s">
         <v>223</v>
@@ -27281,7 +27281,7 @@
       <c r="F716" s="28"/>
       <c r="G716" s="28"/>
       <c r="H716" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I716" s="9" t="s">
         <v>223</v>
@@ -27925,7 +27925,7 @@
       <c r="F738" s="28"/>
       <c r="G738" s="28"/>
       <c r="H738" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I738" s="9" t="s">
         <v>224</v>
@@ -27955,7 +27955,7 @@
       <c r="F739" s="28"/>
       <c r="G739" s="28"/>
       <c r="H739" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I739" s="9" t="s">
         <v>224</v>
@@ -27985,7 +27985,7 @@
       <c r="F740" s="28"/>
       <c r="G740" s="28"/>
       <c r="H740" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I740" s="9" t="s">
         <v>224</v>
@@ -28020,7 +28020,7 @@
       <c r="F741" s="28"/>
       <c r="G741" s="28"/>
       <c r="H741" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I741" s="9" t="s">
         <v>224</v>
@@ -28056,7 +28056,7 @@
       <c r="F742" s="28"/>
       <c r="G742" s="28"/>
       <c r="H742" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I742" s="9" t="s">
         <v>224</v>
@@ -28089,7 +28089,7 @@
       <c r="F743" s="28"/>
       <c r="G743" s="28"/>
       <c r="H743" s="61" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I743" s="9" t="s">
         <v>224</v>
@@ -29211,7 +29211,7 @@
       <c r="F781" s="28"/>
       <c r="G781" s="28"/>
       <c r="H781" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I781" s="9" t="s">
         <v>225</v>
@@ -29242,7 +29242,7 @@
       <c r="F782" s="28"/>
       <c r="G782" s="28"/>
       <c r="H782" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I782" s="9" t="s">
         <v>225</v>
@@ -29273,7 +29273,7 @@
       <c r="F783" s="28"/>
       <c r="G783" s="28"/>
       <c r="H783" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I783" s="9" t="s">
         <v>225</v>
@@ -29303,7 +29303,7 @@
         <v>1286</v>
       </c>
       <c r="T783" s="2" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="V783" s="18" t="s">
         <v>579</v>
@@ -29314,7 +29314,7 @@
       <c r="F784" s="28"/>
       <c r="G784" s="28"/>
       <c r="H784" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I784" s="9" t="s">
         <v>225</v>
@@ -29344,7 +29344,7 @@
       <c r="F785" s="28"/>
       <c r="G785" s="28"/>
       <c r="H785" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I785" s="9" t="s">
         <v>225</v>
@@ -31566,7 +31566,7 @@
       <c r="F862" s="28"/>
       <c r="G862" s="28"/>
       <c r="H862" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I862" s="9" t="s">
         <v>226</v>
@@ -31601,7 +31601,7 @@
       <c r="F863" s="28"/>
       <c r="G863" s="28"/>
       <c r="H863" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I863" s="9" t="s">
         <v>226</v>
@@ -31634,7 +31634,7 @@
       <c r="F864" s="28"/>
       <c r="G864" s="28"/>
       <c r="H864" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I864" s="9" t="s">
         <v>226</v>
@@ -31664,7 +31664,7 @@
       <c r="F865" s="28"/>
       <c r="G865" s="28"/>
       <c r="H865" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I865" s="9" t="s">
         <v>226</v>
@@ -32230,7 +32230,7 @@
     </row>
     <row r="884" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D884" s="58" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E884" s="28"/>
       <c r="F884" s="28"/>
@@ -32389,7 +32389,7 @@
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D889" s="58" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E889" s="28"/>
       <c r="F889" s="28"/>
@@ -32543,7 +32543,7 @@
         <v>1202</v>
       </c>
       <c r="T893" s="2" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="V893" s="18"/>
     </row>
@@ -36085,7 +36085,7 @@
     </row>
     <row r="1016" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D1016" s="58" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E1016" s="28"/>
       <c r="F1016" s="28"/>
@@ -36325,7 +36325,7 @@
       <c r="F1024" s="28"/>
       <c r="G1024" s="28"/>
       <c r="H1024" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1024" s="9" t="s">
         <v>230</v>
@@ -36353,7 +36353,7 @@
       <c r="F1025" s="28"/>
       <c r="G1025" s="28"/>
       <c r="H1025" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1025" s="9" t="s">
         <v>230</v>
@@ -36380,12 +36380,12 @@
     </row>
     <row r="1026" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1026" s="61" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F1026" s="28"/>
       <c r="G1026" s="28"/>
       <c r="H1026" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1026" s="9" t="s">
         <v>230</v>
@@ -36412,15 +36412,15 @@
     </row>
     <row r="1027" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1027" s="51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1027" s="61" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F1027" s="28"/>
       <c r="G1027" s="28"/>
       <c r="H1027" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1027" s="9" t="s">
         <v>230</v>
@@ -36451,7 +36451,7 @@
       <c r="F1028" s="28"/>
       <c r="G1028" s="28"/>
       <c r="H1028" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1028" s="9" t="s">
         <v>230</v>
@@ -36482,7 +36482,7 @@
       <c r="F1029" s="28"/>
       <c r="G1029" s="28"/>
       <c r="H1029" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1029" s="9" t="s">
         <v>230</v>
@@ -36512,13 +36512,13 @@
     </row>
     <row r="1030" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1030" s="51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1030" s="28"/>
       <c r="F1030" s="28"/>
       <c r="G1030" s="28"/>
       <c r="H1030" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1030" s="9" t="s">
         <v>230</v>
@@ -36554,7 +36554,7 @@
       <c r="F1031" s="28"/>
       <c r="G1031" s="28"/>
       <c r="H1031" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1031" s="9" t="s">
         <v>230</v>
@@ -36587,7 +36587,7 @@
       <c r="F1032" s="28"/>
       <c r="G1032" s="28"/>
       <c r="H1032" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1032" s="9" t="s">
         <v>230</v>
@@ -36618,7 +36618,7 @@
       <c r="F1033" s="28"/>
       <c r="G1033" s="28"/>
       <c r="H1033" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1033" s="9" t="s">
         <v>230</v>
@@ -36652,13 +36652,13 @@
     </row>
     <row r="1034" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1034" s="58" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E1034" s="28"/>
       <c r="F1034" s="28"/>
       <c r="G1034" s="28"/>
       <c r="H1034" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1034" s="9" t="s">
         <v>230</v>
@@ -36691,7 +36691,7 @@
       <c r="F1035" s="28"/>
       <c r="G1035" s="28"/>
       <c r="H1035" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I1035" s="9" t="s">
         <v>230</v>
@@ -37856,7 +37856,7 @@
       <c r="F1075" s="28"/>
       <c r="G1075" s="28"/>
       <c r="H1075" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1075" s="9" t="s">
         <v>231</v>
@@ -37886,7 +37886,7 @@
       <c r="F1076" s="28"/>
       <c r="G1076" s="28"/>
       <c r="H1076" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1076" s="9" t="s">
         <v>231</v>
@@ -37919,7 +37919,7 @@
       <c r="F1077" s="28"/>
       <c r="G1077" s="28"/>
       <c r="H1077" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1077" s="9" t="s">
         <v>231</v>
@@ -37949,7 +37949,7 @@
       <c r="F1078" s="28"/>
       <c r="G1078" s="28"/>
       <c r="H1078" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1078" s="9" t="s">
         <v>231</v>
@@ -37982,7 +37982,7 @@
       <c r="F1079" s="28"/>
       <c r="G1079" s="28"/>
       <c r="H1079" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1079" s="9" t="s">
         <v>231</v>
@@ -38012,7 +38012,7 @@
       <c r="F1080" s="28"/>
       <c r="G1080" s="28"/>
       <c r="H1080" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1080" s="9" t="s">
         <v>231</v>
@@ -38042,7 +38042,7 @@
       <c r="F1081" s="28"/>
       <c r="G1081" s="28"/>
       <c r="H1081" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1081" s="9" t="s">
         <v>231</v>
@@ -38072,7 +38072,7 @@
       <c r="F1082" s="28"/>
       <c r="G1082" s="28"/>
       <c r="H1082" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1082" s="9" t="s">
         <v>231</v>
@@ -38102,7 +38102,7 @@
       <c r="F1083" s="28"/>
       <c r="G1083" s="28"/>
       <c r="H1083" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I1083" s="9" t="s">
         <v>231</v>
@@ -38783,7 +38783,7 @@
       <c r="E1106" s="28"/>
       <c r="F1106" s="28"/>
       <c r="G1106" s="61" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1106" s="28"/>
       <c r="I1106" s="9" t="s">
@@ -38813,7 +38813,7 @@
       <c r="E1107" s="28"/>
       <c r="F1107" s="28"/>
       <c r="G1107" s="61" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1107" s="28"/>
       <c r="I1107" s="9" t="s">
@@ -39129,7 +39129,7 @@
     </row>
     <row r="1118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1118" s="51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1118" s="28"/>
       <c r="F1118" s="28"/>
@@ -39189,7 +39189,7 @@
     </row>
     <row r="1120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1120" s="51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1120" s="28"/>
       <c r="F1120" s="28"/>
@@ -39578,7 +39578,7 @@
       <c r="F1133" s="28"/>
       <c r="G1133" s="28"/>
       <c r="H1133" s="61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I1133" s="9" t="s">
         <v>232</v>
@@ -39608,7 +39608,7 @@
       <c r="F1134" s="28"/>
       <c r="G1134" s="28"/>
       <c r="H1134" s="61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I1134" s="9" t="s">
         <v>232</v>
@@ -39639,7 +39639,7 @@
       <c r="F1135" s="28"/>
       <c r="G1135" s="28"/>
       <c r="H1135" s="61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I1135" s="9" t="s">
         <v>232</v>
@@ -39672,7 +39672,7 @@
       <c r="F1136" s="28"/>
       <c r="G1136" s="28"/>
       <c r="H1136" s="61" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I1136" s="9" t="s">
         <v>232</v>
@@ -40229,12 +40229,12 @@
     </row>
     <row r="1155" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1155" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1155" s="28"/>
       <c r="G1155" s="28"/>
       <c r="H1155" s="61" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I1155" s="9" t="s">
         <v>233</v>
@@ -40259,12 +40259,12 @@
     </row>
     <row r="1156" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1156" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1156" s="28"/>
       <c r="G1156" s="28"/>
       <c r="H1156" s="61" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I1156" s="9" t="s">
         <v>233</v>
@@ -40298,7 +40298,7 @@
       <c r="F1157" s="28"/>
       <c r="G1157" s="28"/>
       <c r="H1157" s="61" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I1157" s="9" t="s">
         <v>233</v>
@@ -40328,7 +40328,7 @@
       <c r="F1158" s="28"/>
       <c r="G1158" s="28"/>
       <c r="H1158" s="61" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I1158" s="9" t="s">
         <v>233</v>
@@ -41449,7 +41449,7 @@
     </row>
     <row r="1196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1196" s="51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1196" s="28"/>
       <c r="F1196" s="28"/>
@@ -41690,7 +41690,7 @@
       <c r="F1204" s="28"/>
       <c r="G1204" s="28"/>
       <c r="H1204" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I1204" s="9" t="s">
         <v>981</v>
@@ -41725,7 +41725,7 @@
       <c r="F1205" s="28"/>
       <c r="G1205" s="28"/>
       <c r="H1205" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I1205" s="9" t="s">
         <v>234</v>
@@ -41759,7 +41759,7 @@
       <c r="F1206" s="28"/>
       <c r="G1206" s="28"/>
       <c r="H1206" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I1206" s="9" t="s">
         <v>234</v>
@@ -41789,7 +41789,7 @@
       <c r="F1207" s="28"/>
       <c r="G1207" s="28"/>
       <c r="H1207" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I1207" s="9" t="s">
         <v>234</v>
@@ -41819,7 +41819,7 @@
       <c r="F1208" s="28"/>
       <c r="G1208" s="28"/>
       <c r="H1208" s="61" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I1208" s="9" t="s">
         <v>234</v>
@@ -41936,7 +41936,7 @@
     </row>
     <row r="1212" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D1212" s="58" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E1212" s="28"/>
       <c r="F1212" s="28"/>
@@ -41967,7 +41967,7 @@
         <v>1202</v>
       </c>
       <c r="T1212" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V1212" s="18"/>
     </row>
@@ -42187,7 +42187,7 @@
       <c r="F1220" s="28"/>
       <c r="G1220" s="28"/>
       <c r="H1220" s="61" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I1220" s="9" t="s">
         <v>234</v>
@@ -42217,7 +42217,7 @@
       <c r="F1221" s="28"/>
       <c r="G1221" s="28"/>
       <c r="H1221" s="61" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I1221" s="9" t="s">
         <v>234</v>
@@ -42248,7 +42248,7 @@
       <c r="F1222" s="28"/>
       <c r="G1222" s="28"/>
       <c r="H1222" s="61" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I1222" s="9" t="s">
         <v>234</v>
@@ -42281,7 +42281,7 @@
       <c r="F1223" s="28"/>
       <c r="G1223" s="28"/>
       <c r="H1223" s="61" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I1223" s="9" t="s">
         <v>234</v>
@@ -42311,7 +42311,7 @@
       <c r="F1224" s="28"/>
       <c r="G1224" s="28"/>
       <c r="H1224" s="61" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I1224" s="9" t="s">
         <v>234</v>
@@ -42394,7 +42394,7 @@
     </row>
     <row r="1227" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D1227" s="58" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E1227" s="28"/>
       <c r="F1227" s="28"/>
@@ -42851,7 +42851,7 @@
       <c r="F1242" s="28"/>
       <c r="G1242" s="28"/>
       <c r="H1242" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1242" s="9" t="s">
         <v>234</v>
@@ -42884,7 +42884,7 @@
       <c r="F1243" s="28"/>
       <c r="G1243" s="28"/>
       <c r="H1243" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1243" s="9" t="s">
         <v>234</v>
@@ -42915,7 +42915,7 @@
       <c r="F1244" s="28"/>
       <c r="G1244" s="28"/>
       <c r="H1244" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1244" s="9" t="s">
         <v>234</v>
@@ -42946,7 +42946,7 @@
       <c r="F1245" s="28"/>
       <c r="G1245" s="28"/>
       <c r="H1245" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1245" s="9" t="s">
         <v>234</v>
@@ -42976,7 +42976,7 @@
       <c r="F1246" s="28"/>
       <c r="G1246" s="28"/>
       <c r="H1246" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1246" s="9" t="s">
         <v>234</v>
@@ -43009,7 +43009,7 @@
       <c r="F1247" s="28"/>
       <c r="G1247" s="28"/>
       <c r="H1247" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1247" s="9" t="s">
         <v>234</v>
@@ -43042,7 +43042,7 @@
       <c r="F1248" s="28"/>
       <c r="G1248" s="28"/>
       <c r="H1248" s="61" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="I1248" s="9" t="s">
         <v>234</v>
@@ -43290,7 +43290,7 @@
         <v>1202</v>
       </c>
       <c r="T1255" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V1255" s="18"/>
     </row>
@@ -44099,7 +44099,7 @@
       <c r="F1283" s="28"/>
       <c r="G1283" s="28"/>
       <c r="H1283" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I1283" s="9" t="s">
         <v>235</v>
@@ -44127,13 +44127,13 @@
     </row>
     <row r="1284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1284" s="51" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E1284" s="28"/>
       <c r="F1284" s="28"/>
       <c r="G1284" s="28"/>
       <c r="H1284" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I1284" s="9" t="s">
         <v>235</v>
@@ -44163,7 +44163,7 @@
       <c r="F1285" s="28"/>
       <c r="G1285" s="28"/>
       <c r="H1285" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I1285" s="9" t="s">
         <v>235</v>
@@ -44193,7 +44193,7 @@
       <c r="F1286" s="28"/>
       <c r="G1286" s="28"/>
       <c r="H1286" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I1286" s="9" t="s">
         <v>235</v>
@@ -44223,7 +44223,7 @@
       <c r="F1287" s="28"/>
       <c r="G1287" s="28"/>
       <c r="H1287" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I1287" s="9" t="s">
         <v>235</v>
@@ -44258,7 +44258,7 @@
       <c r="F1288" s="28"/>
       <c r="G1288" s="28"/>
       <c r="H1288" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I1288" s="9" t="s">
         <v>235</v>
@@ -44440,7 +44440,7 @@
       <c r="F1294" s="28"/>
       <c r="G1294" s="28"/>
       <c r="H1294" s="61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I1294" s="9" t="s">
         <v>235</v>
@@ -44470,7 +44470,7 @@
       <c r="F1295" s="28"/>
       <c r="G1295" s="28"/>
       <c r="H1295" s="61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I1295" s="9" t="s">
         <v>235</v>
@@ -44500,7 +44500,7 @@
       <c r="F1296" s="28"/>
       <c r="G1296" s="28"/>
       <c r="H1296" s="61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I1296" s="9" t="s">
         <v>235</v>
@@ -44533,7 +44533,7 @@
       <c r="F1297" s="28"/>
       <c r="G1297" s="28"/>
       <c r="H1297" s="61" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I1297" s="9" t="s">
         <v>235</v>
@@ -45350,7 +45350,7 @@
         <v>1202</v>
       </c>
       <c r="T1323" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="V1323" s="18"/>
     </row>
@@ -45533,7 +45533,7 @@
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D1330" s="58" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E1330" s="28"/>
       <c r="F1330" s="28"/>
@@ -45810,13 +45810,13 @@
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E1339" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1339" s="61" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G1339" s="61" t="s">
         <v>1315</v>
-      </c>
-      <c r="G1339" s="61" t="s">
-        <v>1316</v>
       </c>
       <c r="H1339" s="28"/>
       <c r="I1339" s="9" t="s">
@@ -45849,13 +45849,13 @@
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E1340" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1340" s="61" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G1340" s="61" t="s">
         <v>1315</v>
-      </c>
-      <c r="G1340" s="61" t="s">
-        <v>1316</v>
       </c>
       <c r="H1340" s="28"/>
       <c r="I1340" s="9" t="s">
@@ -46703,7 +46703,7 @@
     </row>
     <row r="1368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D1368" s="58" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E1368" s="28"/>
       <c r="F1368" s="28"/>
@@ -46734,7 +46734,7 @@
     </row>
     <row r="1369" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D1369" s="58" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E1369" s="28"/>
       <c r="F1369" s="28"/>
@@ -46994,7 +46994,7 @@
       <c r="F1377" s="28"/>
       <c r="G1377" s="28"/>
       <c r="H1377" s="61" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I1377" s="9" t="s">
         <v>237</v>
@@ -47024,7 +47024,7 @@
       <c r="F1378" s="28"/>
       <c r="G1378" s="28"/>
       <c r="H1378" s="61" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I1378" s="9" t="s">
         <v>237</v>
@@ -47054,7 +47054,7 @@
       <c r="F1379" s="28"/>
       <c r="G1379" s="28"/>
       <c r="H1379" s="61" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="I1379" s="9" t="s">
         <v>237</v>
@@ -48787,7 +48787,7 @@
       <c r="F1437" s="28"/>
       <c r="G1437" s="28"/>
       <c r="H1437" s="61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I1437" s="9" t="s">
         <v>238</v>
@@ -48817,7 +48817,7 @@
       <c r="F1438" s="28"/>
       <c r="G1438" s="28"/>
       <c r="H1438" s="61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I1438" s="9" t="s">
         <v>238</v>
@@ -48847,7 +48847,7 @@
       <c r="F1439" s="28"/>
       <c r="G1439" s="28"/>
       <c r="H1439" s="61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="I1439" s="9" t="s">
         <v>238</v>
@@ -49331,7 +49331,7 @@
       <c r="F1455" s="28"/>
       <c r="G1455" s="28"/>
       <c r="H1455" s="61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I1455" s="9" t="s">
         <v>239</v>
@@ -49360,7 +49360,7 @@
       <c r="F1456" s="28"/>
       <c r="G1456" s="28"/>
       <c r="H1456" s="61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I1456" s="9" t="s">
         <v>239</v>
@@ -49393,7 +49393,7 @@
       <c r="F1457" s="28"/>
       <c r="G1457" s="28"/>
       <c r="H1457" s="61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I1457" s="9" t="s">
         <v>239</v>
@@ -49423,7 +49423,7 @@
       <c r="F1458" s="28"/>
       <c r="G1458" s="28"/>
       <c r="H1458" s="61" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="I1458" s="9" t="s">
         <v>239</v>
@@ -50132,7 +50132,7 @@
       <c r="F1481" s="28"/>
       <c r="G1481" s="28"/>
       <c r="H1481" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I1481" s="9" t="s">
         <v>239</v>
@@ -50162,7 +50162,7 @@
       <c r="F1482" s="28"/>
       <c r="G1482" s="28"/>
       <c r="H1482" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I1482" s="9" t="s">
         <v>239</v>
@@ -50192,7 +50192,7 @@
       <c r="F1483" s="28"/>
       <c r="G1483" s="28"/>
       <c r="H1483" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I1483" s="9" t="s">
         <v>239</v>
@@ -50227,7 +50227,7 @@
       <c r="F1484" s="28"/>
       <c r="G1484" s="28"/>
       <c r="H1484" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I1484" s="9" t="s">
         <v>239</v>
@@ -50260,7 +50260,7 @@
       <c r="F1485" s="28"/>
       <c r="G1485" s="28"/>
       <c r="H1485" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I1485" s="9" t="s">
         <v>239</v>
@@ -50295,7 +50295,7 @@
       <c r="F1486" s="28"/>
       <c r="G1486" s="28"/>
       <c r="H1486" s="61" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I1486" s="9" t="s">
         <v>239</v>
@@ -50620,7 +50620,7 @@
       <c r="F1497" s="28"/>
       <c r="G1497" s="28"/>
       <c r="H1497" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I1497" s="9" t="s">
         <v>239</v>
@@ -50650,7 +50650,7 @@
       <c r="F1498" s="28"/>
       <c r="G1498" s="28"/>
       <c r="H1498" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I1498" s="9" t="s">
         <v>239</v>
@@ -50680,7 +50680,7 @@
       <c r="F1499" s="28"/>
       <c r="G1499" s="28"/>
       <c r="H1499" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I1499" s="9" t="s">
         <v>239</v>
@@ -50710,7 +50710,7 @@
       <c r="F1500" s="28"/>
       <c r="G1500" s="28"/>
       <c r="H1500" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I1500" s="9" t="s">
         <v>239</v>
@@ -50740,7 +50740,7 @@
       <c r="F1501" s="28"/>
       <c r="G1501" s="28"/>
       <c r="H1501" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I1501" s="9" t="s">
         <v>239</v>
@@ -50770,7 +50770,7 @@
       <c r="F1502" s="28"/>
       <c r="G1502" s="28"/>
       <c r="H1502" s="61" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I1502" s="9" t="s">
         <v>239</v>
@@ -50800,7 +50800,7 @@
         <v>1202</v>
       </c>
       <c r="T1502" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="V1502" s="37" t="s">
         <v>1238</v>
@@ -51246,7 +51246,7 @@
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1518" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1518" s="28"/>
       <c r="G1518" s="28"/>
@@ -51284,7 +51284,7 @@
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1519" s="61" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F1519" s="28"/>
       <c r="G1519" s="28"/>
@@ -51701,7 +51701,7 @@
     </row>
     <row r="1533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1533" s="51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E1533" s="28"/>
       <c r="F1533" s="28"/>
@@ -52207,7 +52207,7 @@
       <c r="F1550" s="28"/>
       <c r="G1550" s="28"/>
       <c r="H1550" s="61" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I1550" s="9" t="s">
         <v>240</v>
@@ -52237,7 +52237,7 @@
       <c r="F1551" s="28"/>
       <c r="G1551" s="28"/>
       <c r="H1551" s="61" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I1551" s="9" t="s">
         <v>240</v>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TS 1.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$I$1:$V$1568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$C$1:$V$1568</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="1347">
   <si>
     <t>PS</t>
   </si>
@@ -4085,6 +4085,9 @@
   </si>
   <si>
     <t>P[c]</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -4735,10 +4738,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1562" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1549" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="T894" sqref="T894"/>
+      <selection pane="bottomLeft" activeCell="N537" sqref="N537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4751,9 +4754,9 @@
     <col min="8" max="8" width="14.140625" style="15" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="26" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="26" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="26" customWidth="1"/>
     <col min="14" max="14" width="32.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" customWidth="1"/>
     <col min="16" max="17" width="5.7109375" style="2" customWidth="1"/>
@@ -17218,6 +17221,12 @@
       <c r="O375" s="2" t="s">
         <v>1246</v>
       </c>
+      <c r="S375" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="T375" s="2" t="s">
+        <v>1346</v>
+      </c>
       <c r="V375" s="18"/>
     </row>
     <row r="376" spans="4:22" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="1327">
   <si>
     <t>PS</t>
   </si>
@@ -3999,19 +3999,34 @@
   </si>
   <si>
     <t xml:space="preserve">praqsaqve </t>
+  </si>
+  <si>
+    <t>PS-8.28</t>
+  </si>
+  <si>
+    <t>PS-9.21</t>
+  </si>
+  <si>
+    <t>alopa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4176,99 +4191,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4282,11 +4300,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4294,14 +4312,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4309,44 +4327,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4631,10 +4652,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1199" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="T670" sqref="T670"/>
+      <selection pane="bottomLeft" activeCell="C1204" sqref="C1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5168,7 +5189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -5204,7 +5225,7 @@
       <c r="U2" s="4"/>
       <c r="V2" s="18"/>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="14"/>
@@ -5243,7 +5264,7 @@
       <c r="U3" s="4"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="14"/>
@@ -5282,7 +5303,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="14"/>
@@ -5325,7 +5346,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
@@ -5364,7 +5385,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
@@ -5407,7 +5428,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
@@ -5446,7 +5467,7 @@
       <c r="U8" s="4"/>
       <c r="V8" s="18"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
@@ -5485,7 +5506,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="18"/>
     </row>
-    <row r="10" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -5526,7 +5547,7 @@
       <c r="U10" s="4"/>
       <c r="V10" s="18"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -5565,7 +5586,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="18"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
@@ -5604,7 +5625,7 @@
       <c r="U12" s="4"/>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
@@ -5642,7 +5663,7 @@
       <c r="U13" s="4"/>
       <c r="V13" s="18"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
@@ -5681,7 +5702,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="18"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="14"/>
@@ -5720,7 +5741,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="18"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="14"/>
@@ -5763,7 +5784,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
@@ -5802,7 +5823,7 @@
       <c r="U17" s="4"/>
       <c r="V17" s="18"/>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
@@ -5845,7 +5866,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
@@ -5884,7 +5905,7 @@
       <c r="U19" s="4"/>
       <c r="V19" s="18"/>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
@@ -5923,7 +5944,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="18"/>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
@@ -5962,7 +5983,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="18"/>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
@@ -6001,7 +6022,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="18"/>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
@@ -6040,7 +6061,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="18"/>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
@@ -6081,7 +6102,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="18"/>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
@@ -6120,7 +6141,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="18"/>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
@@ -6159,7 +6180,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="18"/>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="14"/>
@@ -6198,7 +6219,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="18"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -6232,7 +6253,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="18"/>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="14"/>
@@ -6271,7 +6292,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="18"/>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="14"/>
@@ -6310,7 +6331,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="18"/>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="14"/>
@@ -6349,7 +6370,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="18"/>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="14"/>
@@ -6388,7 +6409,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="18"/>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
@@ -6427,7 +6448,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="18"/>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="14"/>
@@ -6466,7 +6487,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="18"/>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="14"/>
@@ -6505,7 +6526,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="18"/>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
@@ -6546,7 +6567,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="18"/>
     </row>
-    <row r="37" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
@@ -6585,7 +6606,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="18"/>
     </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="14"/>
@@ -6624,7 +6645,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="18"/>
     </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="14"/>
@@ -6663,7 +6684,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="18"/>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -6697,7 +6718,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="18"/>
     </row>
-    <row r="41" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -6731,7 +6752,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="18"/>
     </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="14"/>
@@ -6770,7 +6791,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="18"/>
     </row>
-    <row r="43" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="14"/>
@@ -6809,7 +6830,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="18"/>
     </row>
-    <row r="44" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="14"/>
@@ -6848,7 +6869,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="18"/>
     </row>
-    <row r="45" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="14"/>
@@ -6887,7 +6908,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="18"/>
     </row>
-    <row r="46" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="14"/>
@@ -6930,7 +6951,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="14"/>
@@ -6969,7 +6990,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="18"/>
     </row>
-    <row r="48" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="14"/>
@@ -7008,7 +7029,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="18"/>
     </row>
-    <row r="49" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="14"/>
@@ -7047,7 +7068,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="18"/>
     </row>
-    <row r="50" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -7082,7 +7103,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="18"/>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
@@ -7116,7 +7137,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="18"/>
     </row>
-    <row r="52" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="14"/>
@@ -7154,7 +7175,7 @@
       <c r="U52" s="4"/>
       <c r="V52" s="18"/>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -7188,7 +7209,7 @@
       <c r="U53" s="4"/>
       <c r="V53" s="18"/>
     </row>
-    <row r="54" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="14"/>
@@ -7227,7 +7248,7 @@
       <c r="U54" s="4"/>
       <c r="V54" s="18"/>
     </row>
-    <row r="55" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="14"/>
@@ -7266,7 +7287,7 @@
       <c r="U55" s="4"/>
       <c r="V55" s="18"/>
     </row>
-    <row r="56" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="14"/>
@@ -7305,7 +7326,7 @@
       <c r="U56" s="4"/>
       <c r="V56" s="18"/>
     </row>
-    <row r="57" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="14"/>
@@ -7346,7 +7367,7 @@
       <c r="U57" s="4"/>
       <c r="V57" s="18"/>
     </row>
-    <row r="58" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="14"/>
@@ -7385,7 +7406,7 @@
       <c r="U58" s="4"/>
       <c r="V58" s="18"/>
     </row>
-    <row r="59" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="14"/>
@@ -7424,7 +7445,7 @@
       <c r="U59" s="4"/>
       <c r="V59" s="18"/>
     </row>
-    <row r="60" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="14"/>
@@ -7465,7 +7486,7 @@
       <c r="U60" s="4"/>
       <c r="V60" s="18"/>
     </row>
-    <row r="61" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
@@ -7500,7 +7521,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="18"/>
     </row>
-    <row r="62" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
@@ -7534,7 +7555,7 @@
       <c r="U62" s="4"/>
       <c r="V62" s="18"/>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -7568,7 +7589,7 @@
       <c r="U63" s="4"/>
       <c r="V63" s="18"/>
     </row>
-    <row r="64" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="14"/>
@@ -7607,7 +7628,7 @@
       <c r="U64" s="4"/>
       <c r="V64" s="18"/>
     </row>
-    <row r="65" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="14"/>
@@ -7646,7 +7667,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="18"/>
     </row>
-    <row r="66" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="14"/>
@@ -7685,7 +7706,7 @@
       <c r="U66" s="4"/>
       <c r="V66" s="18"/>
     </row>
-    <row r="67" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="14"/>
@@ -7724,7 +7745,7 @@
       <c r="U67" s="4"/>
       <c r="V67" s="18"/>
     </row>
-    <row r="68" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="14"/>
@@ -7763,7 +7784,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="18"/>
     </row>
-    <row r="69" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="14"/>
@@ -7806,7 +7827,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="14"/>
@@ -7845,7 +7866,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="18"/>
     </row>
-    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
@@ -7880,7 +7901,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="18"/>
     </row>
-    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
@@ -7919,7 +7940,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="14"/>
@@ -7958,7 +7979,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="18"/>
     </row>
-    <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="28"/>
@@ -7997,7 +8018,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -8036,7 +8057,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="14"/>
@@ -8079,7 +8100,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -8116,7 +8137,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="18"/>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="28"/>
@@ -8150,7 +8171,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="18"/>
     </row>
-    <row r="79" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="14"/>
@@ -8189,7 +8210,7 @@
       <c r="U79" s="4"/>
       <c r="V79" s="18"/>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
@@ -8223,7 +8244,7 @@
       <c r="U80" s="4"/>
       <c r="V80" s="18"/>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -8257,7 +8278,7 @@
       <c r="U81" s="4"/>
       <c r="V81" s="18"/>
     </row>
-    <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
@@ -8291,7 +8312,7 @@
       <c r="U82" s="4"/>
       <c r="V82" s="18"/>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
       <c r="G83" s="28"/>
@@ -8330,7 +8351,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
       <c r="G84" s="28"/>
@@ -8364,7 +8385,7 @@
       <c r="U84" s="4"/>
       <c r="V84" s="18"/>
     </row>
-    <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -8402,7 +8423,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="18"/>
     </row>
-    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
@@ -8437,7 +8458,7 @@
       <c r="U86" s="4"/>
       <c r="V86" s="18"/>
     </row>
-    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
@@ -8471,7 +8492,7 @@
       <c r="U87" s="4"/>
       <c r="V87" s="18"/>
     </row>
-    <row r="88" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
       <c r="G88" s="28"/>
@@ -8505,7 +8526,7 @@
       <c r="U88" s="4"/>
       <c r="V88" s="18"/>
     </row>
-    <row r="89" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
@@ -8544,7 +8565,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
@@ -8581,7 +8602,7 @@
       <c r="U90" s="4"/>
       <c r="V90" s="18"/>
     </row>
-    <row r="91" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="14"/>
@@ -8620,7 +8641,7 @@
       <c r="U91" s="4"/>
       <c r="V91" s="18"/>
     </row>
-    <row r="92" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="14"/>
@@ -8659,7 +8680,7 @@
       <c r="U92" s="4"/>
       <c r="V92" s="18"/>
     </row>
-    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
@@ -15948,7 +15969,7 @@
       </c>
       <c r="V336" s="18"/>
     </row>
-    <row r="337" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E337" s="28"/>
       <c r="F337" s="28"/>
       <c r="G337" s="28"/>
@@ -15978,7 +15999,7 @@
       </c>
       <c r="V337" s="18"/>
     </row>
-    <row r="338" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E338" s="28"/>
       <c r="F338" s="28"/>
       <c r="G338" s="28"/>
@@ -16008,7 +16029,7 @@
       </c>
       <c r="V338" s="18"/>
     </row>
-    <row r="339" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E339" s="28"/>
       <c r="F339" s="28"/>
       <c r="G339" s="28"/>
@@ -16039,7 +16060,7 @@
       <c r="O339" s="2"/>
       <c r="V339" s="18"/>
     </row>
-    <row r="340" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E340" s="28"/>
       <c r="F340" s="28"/>
       <c r="G340" s="28"/>
@@ -16069,7 +16090,7 @@
       </c>
       <c r="V340" s="18"/>
     </row>
-    <row r="341" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E341" s="28"/>
       <c r="F341" s="28"/>
       <c r="G341" s="28"/>
@@ -16102,7 +16123,7 @@
       </c>
       <c r="V341" s="18"/>
     </row>
-    <row r="342" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E342" s="28"/>
       <c r="F342" s="28"/>
       <c r="G342" s="28"/>
@@ -16132,7 +16153,7 @@
       </c>
       <c r="V342" s="18"/>
     </row>
-    <row r="343" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E343" s="28"/>
       <c r="F343" s="28"/>
       <c r="G343" s="28"/>
@@ -16162,7 +16183,7 @@
       </c>
       <c r="V343" s="18"/>
     </row>
-    <row r="344" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E344" s="28"/>
       <c r="F344" s="28"/>
       <c r="G344" s="28"/>
@@ -16192,7 +16213,7 @@
       </c>
       <c r="V344" s="18"/>
     </row>
-    <row r="345" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E345" s="28"/>
       <c r="F345" s="28"/>
       <c r="G345" s="28"/>
@@ -16222,7 +16243,10 @@
       </c>
       <c r="V345" s="18"/>
     </row>
-    <row r="346" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D346" s="60" t="s">
+        <v>132</v>
+      </c>
       <c r="E346" s="28"/>
       <c r="F346" s="28"/>
       <c r="G346" s="28"/>
@@ -16258,7 +16282,7 @@
       </c>
       <c r="V346" s="18"/>
     </row>
-    <row r="347" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E347" s="28"/>
       <c r="F347" s="28"/>
       <c r="G347" s="28"/>
@@ -16286,7 +16310,7 @@
       </c>
       <c r="V347" s="18"/>
     </row>
-    <row r="348" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E348" s="28"/>
       <c r="F348" s="28"/>
       <c r="G348" s="28"/>
@@ -16314,7 +16338,7 @@
       </c>
       <c r="V348" s="18"/>
     </row>
-    <row r="349" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E349" s="28"/>
       <c r="F349" s="28"/>
       <c r="G349" s="28"/>
@@ -16342,7 +16366,7 @@
       </c>
       <c r="V349" s="18"/>
     </row>
-    <row r="350" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E350" s="28"/>
       <c r="F350" s="28"/>
       <c r="G350" s="28"/>
@@ -16370,7 +16394,7 @@
       </c>
       <c r="V350" s="18"/>
     </row>
-    <row r="351" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E351" s="28"/>
       <c r="F351" s="28"/>
       <c r="G351" s="28"/>
@@ -16399,7 +16423,7 @@
       <c r="O351" s="2"/>
       <c r="V351" s="18"/>
     </row>
-    <row r="352" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E352" s="28"/>
       <c r="F352" s="28"/>
       <c r="G352" s="28"/>
@@ -16428,7 +16452,7 @@
       <c r="O352" s="2"/>
       <c r="V352" s="18"/>
     </row>
-    <row r="353" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E353" s="28"/>
       <c r="F353" s="28"/>
       <c r="G353" s="28"/>
@@ -16456,7 +16480,7 @@
       </c>
       <c r="V353" s="18"/>
     </row>
-    <row r="354" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E354" s="28"/>
       <c r="F354" s="28"/>
       <c r="G354" s="28"/>
@@ -16484,7 +16508,7 @@
       </c>
       <c r="V354" s="18"/>
     </row>
-    <row r="355" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E355" s="28"/>
       <c r="F355" s="28"/>
       <c r="G355" s="28"/>
@@ -16512,7 +16536,7 @@
       </c>
       <c r="V355" s="18"/>
     </row>
-    <row r="356" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E356" s="28"/>
       <c r="F356" s="28"/>
       <c r="G356" s="28"/>
@@ -16540,7 +16564,7 @@
       </c>
       <c r="V356" s="18"/>
     </row>
-    <row r="357" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E357" s="28"/>
       <c r="F357" s="28"/>
       <c r="G357" s="28"/>
@@ -16568,7 +16592,7 @@
       </c>
       <c r="V357" s="18"/>
     </row>
-    <row r="358" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E358" s="28"/>
       <c r="F358" s="28"/>
       <c r="G358" s="28"/>
@@ -16599,7 +16623,7 @@
       </c>
       <c r="V358" s="18"/>
     </row>
-    <row r="359" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E359" s="28"/>
       <c r="F359" s="28"/>
       <c r="G359" s="28"/>
@@ -16627,7 +16651,7 @@
       </c>
       <c r="V359" s="18"/>
     </row>
-    <row r="360" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E360" s="28"/>
       <c r="F360" s="28"/>
       <c r="G360" s="28"/>
@@ -16655,7 +16679,7 @@
       </c>
       <c r="V360" s="18"/>
     </row>
-    <row r="361" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E361" s="28"/>
       <c r="F361" s="28"/>
       <c r="G361" s="28"/>
@@ -16683,7 +16707,7 @@
       </c>
       <c r="V361" s="18"/>
     </row>
-    <row r="362" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E362" s="28"/>
       <c r="F362" s="28"/>
       <c r="G362" s="28"/>
@@ -16712,7 +16736,7 @@
       <c r="O362" s="2"/>
       <c r="V362" s="18"/>
     </row>
-    <row r="363" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E363" s="28"/>
       <c r="F363" s="28"/>
       <c r="G363" s="28"/>
@@ -16740,7 +16764,7 @@
       </c>
       <c r="V363" s="18"/>
     </row>
-    <row r="364" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E364" s="28"/>
       <c r="F364" s="28"/>
       <c r="G364" s="28"/>
@@ -16768,7 +16792,7 @@
       </c>
       <c r="V364" s="18"/>
     </row>
-    <row r="365" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E365" s="28"/>
       <c r="F365" s="28"/>
       <c r="G365" s="28"/>
@@ -16801,7 +16825,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="366" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E366" s="28"/>
       <c r="F366" s="28"/>
       <c r="G366" s="28"/>
@@ -16829,7 +16853,7 @@
       </c>
       <c r="V366" s="18"/>
     </row>
-    <row r="367" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E367" s="28"/>
       <c r="F367" s="28"/>
       <c r="G367" s="28"/>
@@ -16865,7 +16889,10 @@
       </c>
       <c r="V367" s="18"/>
     </row>
-    <row r="368" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D368" s="60" t="s">
+        <v>1324</v>
+      </c>
       <c r="E368" s="28"/>
       <c r="F368" s="28"/>
       <c r="G368" s="28"/>
@@ -24514,7 +24541,7 @@
       </c>
       <c r="V627" s="18"/>
     </row>
-    <row r="628" spans="1:22" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E628" s="28"/>
       <c r="F628" s="28"/>
       <c r="G628" s="28"/>
@@ -36416,6 +36443,9 @@
       <c r="A1030" s="50" t="s">
         <v>129</v>
       </c>
+      <c r="D1030" s="60" t="s">
+        <v>1325</v>
+      </c>
       <c r="E1030" s="28"/>
       <c r="F1030" s="28"/>
       <c r="G1030" s="28"/>
@@ -36516,6 +36546,9 @@
       <c r="V1032" s="18"/>
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D1033" s="60" t="s">
+        <v>1325</v>
+      </c>
       <c r="E1033" s="28"/>
       <c r="F1033" s="28"/>
       <c r="G1033" s="28"/>
@@ -40068,7 +40101,7 @@
       </c>
       <c r="V1152" s="18"/>
     </row>
-    <row r="1153" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1153" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1153" s="28"/>
       <c r="F1153" s="28"/>
       <c r="G1153" s="28"/>
@@ -40096,7 +40129,7 @@
       </c>
       <c r="V1153" s="18"/>
     </row>
-    <row r="1154" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1154" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1154" s="28"/>
       <c r="F1154" s="28"/>
       <c r="G1154" s="28"/>
@@ -40129,7 +40162,10 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="1155" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1155" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1155" s="59" t="s">
         <v>137</v>
       </c>
@@ -40159,7 +40195,10 @@
       </c>
       <c r="V1155" s="18"/>
     </row>
-    <row r="1156" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1156" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1156" s="59" t="s">
         <v>137</v>
       </c>
@@ -40195,7 +40234,10 @@
       </c>
       <c r="V1156" s="18"/>
     </row>
-    <row r="1157" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1157" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1157" s="28"/>
       <c r="F1157" s="28"/>
       <c r="G1157" s="28"/>
@@ -40225,7 +40267,10 @@
       </c>
       <c r="V1157" s="18"/>
     </row>
-    <row r="1158" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1158" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1158" s="28"/>
       <c r="F1158" s="28"/>
       <c r="G1158" s="28"/>
@@ -40258,7 +40303,10 @@
       </c>
       <c r="V1158" s="18"/>
     </row>
-    <row r="1159" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1159" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1159" s="28"/>
       <c r="F1159" s="28"/>
       <c r="G1159" s="28"/>
@@ -40287,7 +40335,10 @@
       <c r="O1159" s="2"/>
       <c r="V1159" s="18"/>
     </row>
-    <row r="1160" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1160" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1160" s="28"/>
       <c r="F1160" s="28"/>
       <c r="G1160" s="28"/>
@@ -40315,7 +40366,10 @@
       </c>
       <c r="V1160" s="18"/>
     </row>
-    <row r="1161" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1161" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1161" s="28"/>
       <c r="F1161" s="28"/>
       <c r="G1161" s="28"/>
@@ -40344,7 +40398,10 @@
       <c r="O1161" s="2"/>
       <c r="V1161" s="18"/>
     </row>
-    <row r="1162" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1162" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1162" s="28"/>
       <c r="F1162" s="28"/>
       <c r="G1162" s="28"/>
@@ -40372,7 +40429,10 @@
       </c>
       <c r="V1162" s="18"/>
     </row>
-    <row r="1163" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1163" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1163" s="28"/>
       <c r="F1163" s="28"/>
       <c r="G1163" s="28"/>
@@ -40400,7 +40460,10 @@
       </c>
       <c r="V1163" s="18"/>
     </row>
-    <row r="1164" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1164" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1164" s="28"/>
       <c r="F1164" s="28"/>
       <c r="G1164" s="28"/>
@@ -40428,7 +40491,10 @@
       </c>
       <c r="V1164" s="18"/>
     </row>
-    <row r="1165" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1165" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1165" s="28"/>
       <c r="F1165" s="28"/>
       <c r="G1165" s="28"/>
@@ -40461,7 +40527,10 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="1166" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1166" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1166" s="28"/>
       <c r="F1166" s="28"/>
       <c r="G1166" s="28"/>
@@ -40489,7 +40558,10 @@
       </c>
       <c r="V1166" s="18"/>
     </row>
-    <row r="1167" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1167" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1167" s="28"/>
       <c r="F1167" s="28"/>
       <c r="G1167" s="28"/>
@@ -40517,7 +40589,10 @@
       </c>
       <c r="V1167" s="18"/>
     </row>
-    <row r="1168" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1168" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1168" s="28"/>
       <c r="F1168" s="28"/>
       <c r="G1168" s="28"/>
@@ -40546,7 +40621,10 @@
       <c r="O1168" s="2"/>
       <c r="V1168" s="18"/>
     </row>
-    <row r="1169" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1169" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1169" s="28"/>
       <c r="F1169" s="28"/>
       <c r="G1169" s="28"/>
@@ -40574,7 +40652,10 @@
       </c>
       <c r="V1169" s="18"/>
     </row>
-    <row r="1170" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1170" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1170" s="28"/>
       <c r="F1170" s="28"/>
       <c r="G1170" s="28"/>
@@ -40607,7 +40688,10 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="1171" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1171" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1171" s="28"/>
       <c r="F1171" s="28"/>
       <c r="G1171" s="28"/>
@@ -40635,7 +40719,10 @@
       </c>
       <c r="V1171" s="18"/>
     </row>
-    <row r="1172" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1172" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1172" s="28"/>
       <c r="F1172" s="28"/>
       <c r="G1172" s="28"/>
@@ -40663,7 +40750,10 @@
       </c>
       <c r="V1172" s="18"/>
     </row>
-    <row r="1173" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1173" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1173" s="28"/>
       <c r="F1173" s="28"/>
       <c r="G1173" s="28"/>
@@ -40696,7 +40786,10 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="1174" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1174" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1174" s="28"/>
       <c r="F1174" s="28"/>
       <c r="G1174" s="28"/>
@@ -40724,7 +40817,10 @@
       </c>
       <c r="V1174" s="18"/>
     </row>
-    <row r="1175" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1175" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1175" s="28"/>
       <c r="F1175" s="28"/>
       <c r="G1175" s="28"/>
@@ -40752,7 +40848,10 @@
       </c>
       <c r="V1175" s="18"/>
     </row>
-    <row r="1176" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1176" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1176" s="28"/>
       <c r="F1176" s="28"/>
       <c r="G1176" s="28"/>
@@ -40785,7 +40884,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1177" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1177" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1177" s="28"/>
       <c r="F1177" s="28"/>
       <c r="G1177" s="28"/>
@@ -40816,7 +40918,10 @@
       </c>
       <c r="V1177" s="18"/>
     </row>
-    <row r="1178" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1178" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1178" s="28"/>
       <c r="F1178" s="28"/>
       <c r="G1178" s="28"/>
@@ -40844,7 +40949,10 @@
       </c>
       <c r="V1178" s="18"/>
     </row>
-    <row r="1179" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1179" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1179" s="28"/>
       <c r="F1179" s="28"/>
       <c r="G1179" s="28"/>
@@ -40872,7 +40980,10 @@
       </c>
       <c r="V1179" s="18"/>
     </row>
-    <row r="1180" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1180" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1180" s="28"/>
       <c r="F1180" s="28"/>
       <c r="G1180" s="28"/>
@@ -40900,7 +41011,10 @@
       </c>
       <c r="V1180" s="18"/>
     </row>
-    <row r="1181" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1181" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1181" s="28"/>
       <c r="F1181" s="28"/>
       <c r="G1181" s="28"/>
@@ -40928,7 +41042,10 @@
       </c>
       <c r="V1181" s="18"/>
     </row>
-    <row r="1182" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1182" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1182" s="28"/>
       <c r="F1182" s="28"/>
       <c r="G1182" s="28"/>
@@ -40956,7 +41073,10 @@
       </c>
       <c r="V1182" s="18"/>
     </row>
-    <row r="1183" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1183" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1183" s="28"/>
       <c r="F1183" s="28"/>
       <c r="G1183" s="28"/>
@@ -40989,7 +41109,10 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="1184" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1184" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1184" s="28"/>
       <c r="F1184" s="28"/>
       <c r="G1184" s="28"/>
@@ -41023,6 +41146,9 @@
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1185" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1185" s="28"/>
       <c r="F1185" s="28"/>
       <c r="G1185" s="28"/>
@@ -41051,6 +41177,9 @@
       <c r="V1185" s="18"/>
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1186" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1186" s="28"/>
       <c r="F1186" s="28"/>
       <c r="G1186" s="28"/>
@@ -41079,6 +41208,9 @@
       <c r="V1186" s="18"/>
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1187" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1187" s="28"/>
       <c r="F1187" s="28"/>
       <c r="G1187" s="28"/>
@@ -41107,6 +41239,9 @@
       <c r="V1187" s="18"/>
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1188" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1188" s="28"/>
       <c r="F1188" s="28"/>
       <c r="G1188" s="28"/>
@@ -41135,6 +41270,9 @@
       <c r="V1188" s="18"/>
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1189" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1189" s="28"/>
       <c r="F1189" s="28"/>
       <c r="G1189" s="28"/>
@@ -41168,6 +41306,9 @@
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1190" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1190" s="28"/>
       <c r="F1190" s="28"/>
       <c r="G1190" s="28"/>
@@ -41196,6 +41337,9 @@
       <c r="V1190" s="18"/>
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1191" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1191" s="28"/>
       <c r="F1191" s="28"/>
       <c r="G1191" s="28"/>
@@ -41229,6 +41373,9 @@
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1192" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1192" s="28"/>
       <c r="F1192" s="28"/>
       <c r="G1192" s="28"/>
@@ -41257,6 +41404,9 @@
       <c r="V1192" s="18"/>
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1193" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1193" s="28"/>
       <c r="F1193" s="28"/>
       <c r="G1193" s="28"/>
@@ -41285,6 +41435,9 @@
       <c r="V1193" s="18"/>
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1194" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1194" s="28"/>
       <c r="F1194" s="28"/>
       <c r="G1194" s="28"/>
@@ -41316,6 +41469,9 @@
       <c r="V1194" s="18"/>
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1195" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1195" s="28"/>
       <c r="F1195" s="28"/>
       <c r="G1195" s="28"/>
@@ -41353,6 +41509,9 @@
       <c r="A1196" s="50" t="s">
         <v>129</v>
       </c>
+      <c r="C1196" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1196" s="28"/>
       <c r="F1196" s="28"/>
       <c r="G1196" s="28"/>
@@ -41381,6 +41540,9 @@
       <c r="V1196" s="18"/>
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1197" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1197" s="28"/>
       <c r="F1197" s="28"/>
       <c r="G1197" s="28"/>
@@ -41414,6 +41576,9 @@
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1198" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1198" s="28"/>
       <c r="F1198" s="28"/>
       <c r="G1198" s="28"/>
@@ -41442,6 +41607,9 @@
       <c r="V1198" s="18"/>
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1199" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1199" s="28"/>
       <c r="F1199" s="28"/>
       <c r="G1199" s="28"/>
@@ -41470,6 +41638,9 @@
       <c r="V1199" s="18"/>
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1200" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1200" s="28"/>
       <c r="F1200" s="28"/>
       <c r="G1200" s="28"/>
@@ -41497,7 +41668,10 @@
       </c>
       <c r="V1200" s="18"/>
     </row>
-    <row r="1201" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1201" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1201" s="28"/>
       <c r="F1201" s="28"/>
       <c r="G1201" s="28"/>
@@ -41530,7 +41704,10 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="1202" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1202" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1202" s="28"/>
       <c r="F1202" s="28"/>
       <c r="G1202" s="28"/>
@@ -41559,7 +41736,10 @@
       <c r="O1202" s="2"/>
       <c r="V1202" s="18"/>
     </row>
-    <row r="1203" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1203" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1203" s="28"/>
       <c r="F1203" s="28"/>
       <c r="G1203" s="28"/>
@@ -41587,7 +41767,10 @@
       </c>
       <c r="V1203" s="18"/>
     </row>
-    <row r="1204" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C1204" s="61" t="s">
+        <v>1326</v>
+      </c>
       <c r="E1204" s="28"/>
       <c r="F1204" s="28"/>
       <c r="G1204" s="28"/>
@@ -41622,7 +41805,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="1205" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1205" s="28"/>
       <c r="F1205" s="28"/>
       <c r="G1205" s="28"/>
@@ -41656,7 +41839,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="1206" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1206" s="28"/>
       <c r="F1206" s="28"/>
       <c r="G1206" s="28"/>
@@ -41686,7 +41869,7 @@
       </c>
       <c r="V1206" s="18"/>
     </row>
-    <row r="1207" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1207" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1207" s="28"/>
       <c r="F1207" s="28"/>
       <c r="G1207" s="28"/>
@@ -41716,7 +41899,7 @@
       </c>
       <c r="V1207" s="18"/>
     </row>
-    <row r="1208" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1208" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1208" s="28"/>
       <c r="F1208" s="28"/>
       <c r="G1208" s="28"/>
@@ -41747,7 +41930,7 @@
       <c r="O1208" s="2"/>
       <c r="V1208" s="18"/>
     </row>
-    <row r="1209" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1209" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1209" s="28"/>
       <c r="F1209" s="28"/>
       <c r="G1209" s="28"/>
@@ -41775,7 +41958,7 @@
       </c>
       <c r="V1209" s="18"/>
     </row>
-    <row r="1210" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1210" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1210" s="28"/>
       <c r="F1210" s="28"/>
       <c r="G1210" s="28"/>
@@ -41808,7 +41991,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="1211" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1211" s="28"/>
       <c r="F1211" s="28"/>
       <c r="G1211" s="28"/>
@@ -41836,7 +42019,7 @@
       </c>
       <c r="V1211" s="18"/>
     </row>
-    <row r="1212" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1212" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D1212" s="56" t="s">
         <v>132</v>
       </c>
@@ -41873,7 +42056,7 @@
       </c>
       <c r="V1212" s="18"/>
     </row>
-    <row r="1213" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1213" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1213" s="28"/>
       <c r="F1213" s="28"/>
       <c r="G1213" s="28"/>
@@ -41906,7 +42089,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="1214" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1214" s="28"/>
       <c r="F1214" s="28"/>
       <c r="G1214" s="28"/>
@@ -41934,7 +42117,7 @@
       </c>
       <c r="V1214" s="18"/>
     </row>
-    <row r="1215" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1215" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1215" s="28"/>
       <c r="F1215" s="28"/>
       <c r="G1215" s="28"/>
@@ -41965,7 +42148,7 @@
       </c>
       <c r="V1215" s="18"/>
     </row>
-    <row r="1216" spans="4:22" x14ac:dyDescent="0.25">
+    <row r="1216" spans="3:22" x14ac:dyDescent="0.25">
       <c r="E1216" s="28"/>
       <c r="F1216" s="28"/>
       <c r="G1216" s="28"/>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="TS 1.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$C$1:$V$1568</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.3'!$A$1:$XES$1577</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="1333">
   <si>
     <t>PS</t>
   </si>
@@ -2837,9 +2837,6 @@
     <t xml:space="preserve">aqyaqtiq </t>
   </si>
   <si>
-    <t xml:space="preserve">para# </t>
-  </si>
-  <si>
     <t xml:space="preserve">yakShma$m </t>
   </si>
   <si>
@@ -4026,12 +4023,15 @@
   </si>
   <si>
     <t>JD-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parA# </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4180,7 +4180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4190,6 +4190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,7 +4227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4410,6 +4416,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4694,10 +4703,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1098" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1329" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F1107" sqref="F1107"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5169,7 +5178,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -5375,7 +5384,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>0</v>
@@ -5387,7 +5396,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5469,7 +5478,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5825,7 +5834,7 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5907,7 +5916,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6992,7 +7001,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7868,7 +7877,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="70" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7981,7 +7990,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="73" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8059,7 +8068,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -8098,7 +8107,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8141,7 +8150,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="50" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -8392,7 +8401,7 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -8606,7 +8615,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="34" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -8812,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -9084,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="V104" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="105" spans="5:22" x14ac:dyDescent="0.25">
@@ -9551,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="V120" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="121" spans="5:22" x14ac:dyDescent="0.25">
@@ -9584,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="V121" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="122" spans="5:22" x14ac:dyDescent="0.25">
@@ -9757,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="V127" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="128" spans="5:22" x14ac:dyDescent="0.25">
@@ -9990,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="V135" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="136" spans="5:22" x14ac:dyDescent="0.25">
@@ -10361,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="V148" s="16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="149" spans="5:22" x14ac:dyDescent="0.25">
@@ -10394,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="V149" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="5:22" x14ac:dyDescent="0.25">
@@ -10596,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="V156" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="157" spans="5:22" x14ac:dyDescent="0.25">
@@ -10657,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="V158" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="159" spans="5:22" x14ac:dyDescent="0.25">
@@ -10690,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="V159" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="160" spans="5:22" x14ac:dyDescent="0.25">
@@ -10751,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="V161" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="162" spans="5:22" x14ac:dyDescent="0.25">
@@ -10784,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="V162" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="163" spans="5:22" x14ac:dyDescent="0.25">
@@ -10845,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="V164" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="165" spans="5:22" x14ac:dyDescent="0.25">
@@ -10878,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="V165" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="166" spans="5:22" x14ac:dyDescent="0.25">
@@ -11024,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="V170" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="171" spans="5:22" x14ac:dyDescent="0.25">
@@ -11057,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="V171" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="172" spans="5:22" x14ac:dyDescent="0.25">
@@ -11177,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="V175" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="176" spans="5:22" x14ac:dyDescent="0.25">
@@ -11210,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="V176" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="177" spans="5:22" x14ac:dyDescent="0.25">
@@ -11527,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="V187" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="188" spans="5:22" x14ac:dyDescent="0.25">
@@ -11560,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="V188" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="189" spans="5:22" x14ac:dyDescent="0.25">
@@ -11680,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="V192" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="193" spans="5:22" x14ac:dyDescent="0.25">
@@ -11713,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="V193" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="194" spans="5:22" x14ac:dyDescent="0.25">
@@ -11833,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="V197" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="198" spans="5:22" x14ac:dyDescent="0.25">
@@ -11866,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="V198" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="199" spans="5:22" x14ac:dyDescent="0.25">
@@ -11991,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="V202" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="203" spans="5:22" x14ac:dyDescent="0.25">
@@ -12024,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="V203" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="204" spans="5:22" x14ac:dyDescent="0.25">
@@ -12149,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="V207" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="208" spans="5:22" x14ac:dyDescent="0.25">
@@ -12182,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="V208" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="209" spans="5:22" x14ac:dyDescent="0.25">
@@ -12307,7 +12316,7 @@
         <v>0</v>
       </c>
       <c r="V212" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="213" spans="5:22" x14ac:dyDescent="0.25">
@@ -12340,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="V213" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="214" spans="5:22" x14ac:dyDescent="0.25">
@@ -12462,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="V217" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="218" spans="5:22" x14ac:dyDescent="0.25">
@@ -12614,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="V222" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="223" spans="5:22" x14ac:dyDescent="0.25">
@@ -12675,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="V224" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="225" spans="4:22" x14ac:dyDescent="0.25">
@@ -12766,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="V227" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="228" spans="4:22" x14ac:dyDescent="0.25">
@@ -12855,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="V230" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="231" spans="4:22" x14ac:dyDescent="0.25">
@@ -12944,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="V233" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="234" spans="4:22" x14ac:dyDescent="0.25">
@@ -13313,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="V246" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="247" spans="5:22" x14ac:dyDescent="0.25">
@@ -13375,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="V248" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="249" spans="5:22" x14ac:dyDescent="0.25">
@@ -13408,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="V249" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="250" spans="5:22" x14ac:dyDescent="0.25">
@@ -13497,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="V252" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="253" spans="5:22" x14ac:dyDescent="0.25">
@@ -13586,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="V255" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="256" spans="5:22" x14ac:dyDescent="0.25">
@@ -13648,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="V257" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -13681,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="V258" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -13742,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="V260" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -13775,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="V261" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
@@ -13836,12 +13845,12 @@
         <v>0</v>
       </c>
       <c r="V263" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E264" s="26"/>
       <c r="F264" s="26"/>
@@ -13874,7 +13883,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E265" s="26"/>
       <c r="F265" s="26"/>
@@ -13937,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="V266" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
@@ -14404,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="V282" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
@@ -14437,12 +14446,12 @@
         <v>0</v>
       </c>
       <c r="V283" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E284" s="26"/>
       <c r="F284" s="26"/>
@@ -14475,12 +14484,12 @@
         <v>0</v>
       </c>
       <c r="V284" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E285" s="26"/>
       <c r="F285" s="26"/>
@@ -14774,7 +14783,7 @@
     <row r="295" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E295" s="26"/>
       <c r="F295" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G295" s="26"/>
       <c r="H295" s="26"/>
@@ -14804,7 +14813,7 @@
     <row r="296" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E296" s="26"/>
       <c r="F296" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G296" s="26"/>
       <c r="H296" s="26"/>
@@ -14838,7 +14847,7 @@
       </c>
       <c r="E297" s="26"/>
       <c r="F297" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G297" s="26"/>
       <c r="H297" s="26"/>
@@ -14871,7 +14880,7 @@
     <row r="298" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E298" s="26"/>
       <c r="F298" s="65" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G298" s="26"/>
       <c r="H298" s="26"/>
@@ -15070,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="V304" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="305" spans="5:22" x14ac:dyDescent="0.25">
@@ -15301,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="V312" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="313" spans="5:22" x14ac:dyDescent="0.25">
@@ -15362,7 +15371,7 @@
         <v>15</v>
       </c>
       <c r="V314" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="315" spans="5:22" x14ac:dyDescent="0.25">
@@ -15539,7 +15548,7 @@
         <v>84</v>
       </c>
       <c r="V320" s="42" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="321" spans="5:22" x14ac:dyDescent="0.25">
@@ -15600,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="V322" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="323" spans="5:22" x14ac:dyDescent="0.25">
@@ -15662,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="V324" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="325" spans="5:22" x14ac:dyDescent="0.25">
@@ -15695,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="V325" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="326" spans="5:22" x14ac:dyDescent="0.25">
@@ -15728,7 +15737,7 @@
         <v>84</v>
       </c>
       <c r="V326" s="37" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="327" spans="5:22" x14ac:dyDescent="0.25">
@@ -15820,7 +15829,7 @@
       </c>
       <c r="S329" s="49"/>
       <c r="V329" s="16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="330" spans="5:22" x14ac:dyDescent="0.25">
@@ -15909,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="V332" s="16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="333" spans="5:22" x14ac:dyDescent="0.25">
@@ -15998,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="V335" s="16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="336" spans="5:22" x14ac:dyDescent="0.25">
@@ -16884,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="V365" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="366" spans="4:22" x14ac:dyDescent="0.25">
@@ -16953,7 +16962,7 @@
     </row>
     <row r="368" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D368" s="58" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E368" s="26"/>
       <c r="F368" s="26"/>
@@ -17081,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="V371" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="372" spans="4:22" x14ac:dyDescent="0.25">
@@ -17114,7 +17123,7 @@
         <v>0</v>
       </c>
       <c r="V372" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="373" spans="4:22" x14ac:dyDescent="0.25">
@@ -17509,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="V385" s="16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="386" spans="5:22" x14ac:dyDescent="0.25">
@@ -17598,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="V388" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="389" spans="5:22" x14ac:dyDescent="0.25">
@@ -18119,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="V406" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="407" spans="4:22" x14ac:dyDescent="0.25">
@@ -18180,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="V408" s="16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="409" spans="4:22" x14ac:dyDescent="0.25">
@@ -18241,7 +18250,7 @@
         <v>84</v>
       </c>
       <c r="V410" s="39" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="411" spans="4:22" x14ac:dyDescent="0.25">
@@ -18769,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="V428" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="429" spans="5:22" x14ac:dyDescent="0.25">
@@ -19027,7 +19036,7 @@
         <v>0</v>
       </c>
       <c r="V437" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="438" spans="5:22" x14ac:dyDescent="0.25">
@@ -19485,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="V453" s="16" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="454" spans="5:22" x14ac:dyDescent="0.25">
@@ -19577,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="V456" s="16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="457" spans="5:22" x14ac:dyDescent="0.25">
@@ -19782,7 +19791,7 @@
         <v>0</v>
       </c>
       <c r="V463" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="464" spans="5:22" x14ac:dyDescent="0.25">
@@ -19843,7 +19852,7 @@
         <v>0</v>
       </c>
       <c r="V465" s="16" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="466" spans="5:22" x14ac:dyDescent="0.25">
@@ -19991,7 +20000,7 @@
         <v>84</v>
       </c>
       <c r="V470" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="471" spans="5:22" x14ac:dyDescent="0.25">
@@ -20248,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="V479" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="480" spans="5:22" x14ac:dyDescent="0.25">
@@ -20566,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="V490" s="16" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="491" spans="5:22" x14ac:dyDescent="0.25">
@@ -20627,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="V492" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="493" spans="5:22" x14ac:dyDescent="0.25">
@@ -21001,7 +21010,7 @@
         <v>0</v>
       </c>
       <c r="V505" s="16" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="506" spans="5:22" x14ac:dyDescent="0.25">
@@ -21062,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="V507" s="37" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="508" spans="5:22" x14ac:dyDescent="0.25">
@@ -21566,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="V524" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="525" spans="5:22" x14ac:dyDescent="0.25">
@@ -21726,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="V529" s="16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="530" spans="5:22" x14ac:dyDescent="0.25">
@@ -21902,7 +21911,7 @@
         <v>84</v>
       </c>
       <c r="V535" s="37" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="536" spans="5:22" x14ac:dyDescent="0.25">
@@ -22077,7 +22086,7 @@
         <v>84</v>
       </c>
       <c r="V541" s="9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="542" spans="5:22" x14ac:dyDescent="0.25">
@@ -22166,7 +22175,7 @@
         <v>84</v>
       </c>
       <c r="V544" s="37" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="545" spans="5:22" x14ac:dyDescent="0.25">
@@ -22367,7 +22376,7 @@
         <v>84</v>
       </c>
       <c r="V551" s="34" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="552" spans="5:22" x14ac:dyDescent="0.25">
@@ -22488,7 +22497,7 @@
         <v>84</v>
       </c>
       <c r="V555" s="16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="556" spans="5:22" x14ac:dyDescent="0.25">
@@ -22521,7 +22530,7 @@
         <v>0</v>
       </c>
       <c r="V556" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="557" spans="5:22" x14ac:dyDescent="0.25">
@@ -22582,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="V558" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="559" spans="5:22" x14ac:dyDescent="0.25">
@@ -22615,7 +22624,7 @@
         <v>0</v>
       </c>
       <c r="V559" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="560" spans="5:22" x14ac:dyDescent="0.25">
@@ -22648,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="V560" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="561" spans="5:22" x14ac:dyDescent="0.25">
@@ -23003,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="V572" s="16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="573" spans="5:22" x14ac:dyDescent="0.25">
@@ -23504,7 +23513,7 @@
         <v>84</v>
       </c>
       <c r="V589" s="43" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="590" spans="5:22" x14ac:dyDescent="0.25">
@@ -23591,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="V592" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="593" spans="5:22" x14ac:dyDescent="0.25">
@@ -23652,7 +23661,7 @@
         <v>15</v>
       </c>
       <c r="V594" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="595" spans="5:22" x14ac:dyDescent="0.25">
@@ -24544,7 +24553,7 @@
         <v>98</v>
       </c>
       <c r="V625" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -25032,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="V641" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="642" spans="5:22" x14ac:dyDescent="0.25">
@@ -25065,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="V642" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="643" spans="5:22" x14ac:dyDescent="0.25">
@@ -25099,7 +25108,7 @@
         <v>84</v>
       </c>
       <c r="V643" s="39" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="644" spans="5:22" x14ac:dyDescent="0.25">
@@ -25245,7 +25254,7 @@
         <v>0</v>
       </c>
       <c r="V648" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="649" spans="5:22" x14ac:dyDescent="0.25">
@@ -25278,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="V649" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="650" spans="5:22" x14ac:dyDescent="0.25">
@@ -25340,10 +25349,10 @@
     </row>
     <row r="652" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E652" s="65" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F652" s="65" t="s">
         <v>1327</v>
-      </c>
-      <c r="F652" s="65" t="s">
-        <v>1328</v>
       </c>
       <c r="G652" s="26"/>
       <c r="H652" s="26"/>
@@ -25372,10 +25381,10 @@
     </row>
     <row r="653" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E653" s="65" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F653" s="65" t="s">
         <v>1327</v>
-      </c>
-      <c r="F653" s="65" t="s">
-        <v>1328</v>
       </c>
       <c r="G653" s="26"/>
       <c r="H653" s="26"/>
@@ -25404,7 +25413,7 @@
         <v>84</v>
       </c>
       <c r="V653" s="31" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="654" spans="5:22" x14ac:dyDescent="0.25">
@@ -25522,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="V657" s="16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="658" spans="5:22" x14ac:dyDescent="0.25">
@@ -25614,7 +25623,7 @@
         <v>91</v>
       </c>
       <c r="V660" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="661" spans="5:22" x14ac:dyDescent="0.25">
@@ -25680,7 +25689,7 @@
         <v>0</v>
       </c>
       <c r="V662" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="663" spans="5:22" x14ac:dyDescent="0.25">
@@ -25929,7 +25938,7 @@
         <v>84</v>
       </c>
       <c r="V670" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="671" spans="5:22" x14ac:dyDescent="0.25">
@@ -26075,7 +26084,7 @@
         <v>0</v>
       </c>
       <c r="V675" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="676" spans="5:22" x14ac:dyDescent="0.25">
@@ -26255,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="V681" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="682" spans="5:22" x14ac:dyDescent="0.25">
@@ -26316,7 +26325,7 @@
         <v>0</v>
       </c>
       <c r="V683" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="684" spans="5:22" x14ac:dyDescent="0.25">
@@ -26548,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="V691" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="692" spans="5:22" x14ac:dyDescent="0.25">
@@ -26781,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="V699" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="700" spans="5:22" x14ac:dyDescent="0.25">
@@ -26988,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="V706" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="707" spans="5:22" x14ac:dyDescent="0.25">
@@ -27021,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="V707" s="16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="708" spans="5:22" x14ac:dyDescent="0.25">
@@ -27168,7 +27177,7 @@
     </row>
     <row r="713" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E713" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F713" s="26"/>
       <c r="G713" s="26"/>
@@ -27203,12 +27212,12 @@
         <v>94</v>
       </c>
       <c r="V713" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="714" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E714" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F714" s="26"/>
       <c r="G714" s="26"/>
@@ -27243,12 +27252,12 @@
         <v>95</v>
       </c>
       <c r="V714" s="16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="715" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E715" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F715" s="26"/>
       <c r="G715" s="26"/>
@@ -27283,7 +27292,7 @@
     </row>
     <row r="716" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E716" s="65" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F716" s="26"/>
       <c r="G716" s="26"/>
@@ -27407,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="V719" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="720" spans="5:22" x14ac:dyDescent="0.25">
@@ -27807,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="V733" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="734" spans="5:22" x14ac:dyDescent="0.25">
@@ -27896,7 +27905,7 @@
         <v>0</v>
       </c>
       <c r="V736" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="737" spans="5:22" x14ac:dyDescent="0.25">
@@ -28019,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="V740" s="16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="741" spans="5:22" x14ac:dyDescent="0.25">
@@ -28266,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="V748" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="749" spans="5:22" x14ac:dyDescent="0.25">
@@ -28445,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="V754" s="39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="755" spans="5:22" x14ac:dyDescent="0.25">
@@ -28652,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="V761" s="16" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="762" spans="5:22" x14ac:dyDescent="0.25">
@@ -28685,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="V762" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="763" spans="5:22" x14ac:dyDescent="0.25">
@@ -28746,7 +28755,7 @@
         <v>84</v>
       </c>
       <c r="V764" s="43" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="765" spans="5:22" x14ac:dyDescent="0.25">
@@ -28893,7 +28902,7 @@
         <v>0</v>
       </c>
       <c r="V769" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="770" spans="5:22" x14ac:dyDescent="0.25">
@@ -29313,7 +29322,7 @@
         <v>124</v>
       </c>
       <c r="V783" s="16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="784" spans="5:22" x14ac:dyDescent="0.25">
@@ -29634,7 +29643,7 @@
         <v>0</v>
       </c>
       <c r="V794" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="795" spans="4:22" x14ac:dyDescent="0.25">
@@ -30211,7 +30220,7 @@
         <v>0</v>
       </c>
       <c r="V814" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="815" spans="5:22" x14ac:dyDescent="0.25">
@@ -30271,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V816" s="39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="817" spans="5:22" x14ac:dyDescent="0.25">
@@ -30388,7 +30397,7 @@
         <v>0</v>
       </c>
       <c r="V820" s="16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="821" spans="5:22" x14ac:dyDescent="0.25">
@@ -30505,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="V824" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="825" spans="5:22" x14ac:dyDescent="0.25">
@@ -31301,7 +31310,7 @@
         <v>85</v>
       </c>
       <c r="V852" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="853" spans="5:22" x14ac:dyDescent="0.25">
@@ -31449,7 +31458,7 @@
         <v>0</v>
       </c>
       <c r="V857" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="858" spans="5:22" x14ac:dyDescent="0.25">
@@ -31754,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="V867" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="868" spans="5:22" x14ac:dyDescent="0.25">
@@ -31815,7 +31824,7 @@
         <v>84</v>
       </c>
       <c r="V869" s="43" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="870" spans="5:22" x14ac:dyDescent="0.25">
@@ -31993,7 +32002,7 @@
         <v>0</v>
       </c>
       <c r="V875" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="876" spans="5:22" x14ac:dyDescent="0.25">
@@ -32026,7 +32035,7 @@
         <v>0</v>
       </c>
       <c r="V876" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="877" spans="5:22" x14ac:dyDescent="0.25">
@@ -32143,7 +32152,7 @@
         <v>0</v>
       </c>
       <c r="V880" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="881" spans="4:22" x14ac:dyDescent="0.25">
@@ -32232,7 +32241,7 @@
         <v>0</v>
       </c>
       <c r="V883" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="884" spans="4:22" x14ac:dyDescent="0.25">
@@ -32271,7 +32280,7 @@
         <v>107</v>
       </c>
       <c r="V884" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="885" spans="4:22" x14ac:dyDescent="0.25">
@@ -32391,7 +32400,7 @@
         <v>0</v>
       </c>
       <c r="V888" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="889" spans="4:22" x14ac:dyDescent="0.25">
@@ -32430,7 +32439,7 @@
         <v>107</v>
       </c>
       <c r="V889" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="890" spans="4:22" x14ac:dyDescent="0.25">
@@ -32640,7 +32649,7 @@
         <v>0</v>
       </c>
       <c r="V896" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="897" spans="5:22" x14ac:dyDescent="0.25">
@@ -32701,7 +32710,7 @@
         <v>0</v>
       </c>
       <c r="V898" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="899" spans="5:22" x14ac:dyDescent="0.25">
@@ -32762,7 +32771,7 @@
         <v>0</v>
       </c>
       <c r="V900" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="901" spans="5:22" x14ac:dyDescent="0.25">
@@ -32823,7 +32832,7 @@
         <v>0</v>
       </c>
       <c r="V902" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="903" spans="5:22" x14ac:dyDescent="0.25">
@@ -33567,7 +33576,7 @@
         <v>0</v>
       </c>
       <c r="V928" s="16" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="929" spans="5:22" x14ac:dyDescent="0.25">
@@ -33656,7 +33665,7 @@
         <v>0</v>
       </c>
       <c r="V931" s="16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="932" spans="5:22" x14ac:dyDescent="0.25">
@@ -33913,7 +33922,7 @@
         <v>0</v>
       </c>
       <c r="V940" s="16" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="941" spans="5:22" x14ac:dyDescent="0.25">
@@ -33946,7 +33955,7 @@
         <v>0</v>
       </c>
       <c r="V941" s="16" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="942" spans="5:22" x14ac:dyDescent="0.25">
@@ -33979,7 +33988,7 @@
         <v>0</v>
       </c>
       <c r="V942" s="16" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="943" spans="5:22" x14ac:dyDescent="0.25">
@@ -34012,7 +34021,7 @@
         <v>0</v>
       </c>
       <c r="V943" s="16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="944" spans="5:22" x14ac:dyDescent="0.25">
@@ -34073,7 +34082,7 @@
         <v>0</v>
       </c>
       <c r="V945" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="946" spans="5:22" x14ac:dyDescent="0.25">
@@ -34138,7 +34147,7 @@
         <v>84</v>
       </c>
       <c r="V947" s="16" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="948" spans="5:22" x14ac:dyDescent="0.25">
@@ -34454,7 +34463,7 @@
         <v>98</v>
       </c>
       <c r="V958" s="16" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="959" spans="5:22" x14ac:dyDescent="0.25">
@@ -34543,7 +34552,7 @@
         <v>0</v>
       </c>
       <c r="V961" s="16" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="962" spans="5:22" x14ac:dyDescent="0.25">
@@ -34885,7 +34894,7 @@
         <v>85</v>
       </c>
       <c r="V973" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="974" spans="5:22" x14ac:dyDescent="0.25">
@@ -35200,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="V984" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="985" spans="5:22" x14ac:dyDescent="0.25">
@@ -35261,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="V986" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="987" spans="5:22" x14ac:dyDescent="0.25">
@@ -35626,7 +35635,7 @@
         <v>52</v>
       </c>
       <c r="N999" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O999" s="1" t="s">
         <v>105</v>
@@ -35889,7 +35898,7 @@
         <v>0</v>
       </c>
       <c r="V1008" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1009" spans="4:22" x14ac:dyDescent="0.25">
@@ -36324,7 +36333,7 @@
         <v>84</v>
       </c>
       <c r="V1023" s="35" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1024" spans="4:22" x14ac:dyDescent="0.25">
@@ -36522,7 +36531,7 @@
         <v>129</v>
       </c>
       <c r="D1030" s="58" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E1030" s="26"/>
       <c r="F1030" s="26"/>
@@ -36625,7 +36634,7 @@
     </row>
     <row r="1033" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1033" s="58" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E1033" s="26"/>
       <c r="F1033" s="26"/>
@@ -36731,7 +36740,7 @@
         <v>84</v>
       </c>
       <c r="V1035" s="43" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1036" spans="1:22" x14ac:dyDescent="0.25">
@@ -36821,7 +36830,7 @@
         <v>0</v>
       </c>
       <c r="V1038" s="16" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1039" spans="1:22" x14ac:dyDescent="0.25">
@@ -37050,7 +37059,7 @@
         <v>0</v>
       </c>
       <c r="V1046" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1047" spans="5:22" x14ac:dyDescent="0.25">
@@ -37083,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="V1047" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1048" spans="5:22" x14ac:dyDescent="0.25">
@@ -37144,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="V1049" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1050" spans="5:22" x14ac:dyDescent="0.25">
@@ -37177,7 +37186,7 @@
         <v>0</v>
       </c>
       <c r="V1050" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1051" spans="5:22" x14ac:dyDescent="0.25">
@@ -37295,7 +37304,7 @@
         <v>0</v>
       </c>
       <c r="V1054" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1055" spans="5:22" x14ac:dyDescent="0.25">
@@ -37384,7 +37393,7 @@
         <v>84</v>
       </c>
       <c r="V1057" s="35" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1058" spans="5:22" x14ac:dyDescent="0.25">
@@ -38285,7 +38294,7 @@
         <v>0</v>
       </c>
       <c r="V1088" s="16" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1089" spans="5:22" x14ac:dyDescent="0.25">
@@ -38347,7 +38356,7 @@
         <v>0</v>
       </c>
       <c r="V1090" s="16" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1091" spans="5:22" x14ac:dyDescent="0.25">
@@ -38380,7 +38389,7 @@
         <v>0</v>
       </c>
       <c r="V1091" s="16" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1092" spans="5:22" x14ac:dyDescent="0.25">
@@ -38441,7 +38450,7 @@
         <v>0</v>
       </c>
       <c r="V1093" s="16" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1094" spans="5:22" x14ac:dyDescent="0.25">
@@ -38530,7 +38539,7 @@
         <v>0</v>
       </c>
       <c r="V1096" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1097" spans="5:22" x14ac:dyDescent="0.25">
@@ -38795,7 +38804,7 @@
     <row r="1106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1106" s="26"/>
       <c r="F1106" s="65" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G1106" s="57" t="s">
         <v>139</v>
@@ -38826,11 +38835,11 @@
     </row>
     <row r="1107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1107" s="64" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E1107" s="26"/>
       <c r="F1107" s="65" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G1107" s="57" t="s">
         <v>139</v>
@@ -39029,7 +39038,7 @@
         <v>84</v>
       </c>
       <c r="V1113" s="35" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1114" spans="1:22" x14ac:dyDescent="0.25">
@@ -39269,7 +39278,7 @@
         <v>0</v>
       </c>
       <c r="V1121" s="16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1122" spans="5:22" x14ac:dyDescent="0.25">
@@ -39387,7 +39396,7 @@
         <v>0</v>
       </c>
       <c r="V1125" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1126" spans="5:22" x14ac:dyDescent="0.25">
@@ -39478,7 +39487,7 @@
         <v>0</v>
       </c>
       <c r="V1128" s="16" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1129" spans="5:22" x14ac:dyDescent="0.25">
@@ -39891,7 +39900,7 @@
         <v>84</v>
       </c>
       <c r="V1142" s="41" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1143" spans="5:22" x14ac:dyDescent="0.25">
@@ -39980,7 +39989,7 @@
         <v>0</v>
       </c>
       <c r="V1145" s="16" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1146" spans="5:22" x14ac:dyDescent="0.25">
@@ -40127,7 +40136,7 @@
         <v>84</v>
       </c>
       <c r="V1150" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1151" spans="5:22" x14ac:dyDescent="0.25">
@@ -40244,12 +40253,12 @@
         <v>84</v>
       </c>
       <c r="V1154" s="43" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1155" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1155" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1155" s="57" t="s">
         <v>137</v>
@@ -40282,7 +40291,7 @@
     </row>
     <row r="1156" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1156" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1156" s="57" t="s">
         <v>137</v>
@@ -40321,7 +40330,7 @@
     </row>
     <row r="1157" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1157" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1157" s="26"/>
       <c r="F1157" s="26"/>
@@ -40354,7 +40363,7 @@
     </row>
     <row r="1158" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1158" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1158" s="26"/>
       <c r="F1158" s="26"/>
@@ -40390,7 +40399,7 @@
     </row>
     <row r="1159" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1159" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1159" s="26"/>
       <c r="F1159" s="26"/>
@@ -40422,7 +40431,7 @@
     </row>
     <row r="1160" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1160" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1160" s="26"/>
       <c r="F1160" s="26"/>
@@ -40453,7 +40462,7 @@
     </row>
     <row r="1161" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1161" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1161" s="26"/>
       <c r="F1161" s="26"/>
@@ -40485,7 +40494,7 @@
     </row>
     <row r="1162" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1162" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1162" s="26"/>
       <c r="F1162" s="26"/>
@@ -40516,7 +40525,7 @@
     </row>
     <row r="1163" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1163" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1163" s="26"/>
       <c r="F1163" s="26"/>
@@ -40547,7 +40556,7 @@
     </row>
     <row r="1164" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1164" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1164" s="26"/>
       <c r="F1164" s="26"/>
@@ -40578,7 +40587,7 @@
     </row>
     <row r="1165" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1165" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1165" s="26"/>
       <c r="F1165" s="26"/>
@@ -40609,12 +40618,12 @@
         <v>84</v>
       </c>
       <c r="V1165" s="9" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1166" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1166" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1166" s="26"/>
       <c r="F1166" s="26"/>
@@ -40645,7 +40654,7 @@
     </row>
     <row r="1167" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1167" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1167" s="26"/>
       <c r="F1167" s="26"/>
@@ -40676,7 +40685,7 @@
     </row>
     <row r="1168" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1168" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1168" s="26"/>
       <c r="F1168" s="26"/>
@@ -40708,7 +40717,7 @@
     </row>
     <row r="1169" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1169" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1169" s="26"/>
       <c r="F1169" s="26"/>
@@ -40739,7 +40748,7 @@
     </row>
     <row r="1170" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1170" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1170" s="26"/>
       <c r="F1170" s="26"/>
@@ -40770,12 +40779,12 @@
         <v>0</v>
       </c>
       <c r="V1170" s="16" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1171" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1171" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1171" s="26"/>
       <c r="F1171" s="26"/>
@@ -40806,7 +40815,7 @@
     </row>
     <row r="1172" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1172" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1172" s="26"/>
       <c r="F1172" s="26"/>
@@ -40837,7 +40846,7 @@
     </row>
     <row r="1173" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1173" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1173" s="26"/>
       <c r="F1173" s="26"/>
@@ -40868,12 +40877,12 @@
         <v>0</v>
       </c>
       <c r="V1173" s="16" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1174" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1174" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1174" s="26"/>
       <c r="F1174" s="26"/>
@@ -40904,7 +40913,7 @@
     </row>
     <row r="1175" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1175" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1175" s="26"/>
       <c r="F1175" s="26"/>
@@ -40935,7 +40944,7 @@
     </row>
     <row r="1176" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1176" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1176" s="26"/>
       <c r="F1176" s="26"/>
@@ -40971,7 +40980,7 @@
     </row>
     <row r="1177" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1177" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1177" s="26"/>
       <c r="F1177" s="26"/>
@@ -41005,7 +41014,7 @@
     </row>
     <row r="1178" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1178" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1178" s="26"/>
       <c r="F1178" s="26"/>
@@ -41036,7 +41045,7 @@
     </row>
     <row r="1179" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1179" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1179" s="26"/>
       <c r="F1179" s="26"/>
@@ -41067,7 +41076,7 @@
     </row>
     <row r="1180" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1180" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1180" s="26"/>
       <c r="F1180" s="26"/>
@@ -41098,7 +41107,7 @@
     </row>
     <row r="1181" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1181" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1181" s="26"/>
       <c r="F1181" s="26"/>
@@ -41129,7 +41138,7 @@
     </row>
     <row r="1182" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1182" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1182" s="26"/>
       <c r="F1182" s="26"/>
@@ -41160,7 +41169,7 @@
     </row>
     <row r="1183" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1183" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1183" s="26"/>
       <c r="F1183" s="26"/>
@@ -41191,12 +41200,12 @@
         <v>0</v>
       </c>
       <c r="V1183" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1184" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1184" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1184" s="26"/>
       <c r="F1184" s="26"/>
@@ -41227,12 +41236,12 @@
         <v>84</v>
       </c>
       <c r="V1184" s="43" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1185" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1185" s="26"/>
       <c r="F1185" s="26"/>
@@ -41263,7 +41272,7 @@
     </row>
     <row r="1186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1186" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1186" s="26"/>
       <c r="F1186" s="26"/>
@@ -41294,7 +41303,7 @@
     </row>
     <row r="1187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1187" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1187" s="26"/>
       <c r="F1187" s="26"/>
@@ -41325,7 +41334,7 @@
     </row>
     <row r="1188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1188" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1188" s="26"/>
       <c r="F1188" s="26"/>
@@ -41356,7 +41365,7 @@
     </row>
     <row r="1189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1189" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1189" s="26"/>
       <c r="F1189" s="26"/>
@@ -41387,12 +41396,12 @@
         <v>0</v>
       </c>
       <c r="V1189" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1190" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1190" s="26"/>
       <c r="F1190" s="26"/>
@@ -41423,7 +41432,7 @@
     </row>
     <row r="1191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1191" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1191" s="26"/>
       <c r="F1191" s="26"/>
@@ -41454,12 +41463,12 @@
         <v>84</v>
       </c>
       <c r="V1191" s="35" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1192" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1192" s="26"/>
       <c r="F1192" s="26"/>
@@ -41490,7 +41499,7 @@
     </row>
     <row r="1193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1193" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1193" s="26"/>
       <c r="F1193" s="26"/>
@@ -41521,7 +41530,7 @@
     </row>
     <row r="1194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1194" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1194" s="26"/>
       <c r="F1194" s="26"/>
@@ -41555,11 +41564,11 @@
     </row>
     <row r="1195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1195" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1195" s="26"/>
       <c r="F1195" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G1195" s="26"/>
       <c r="H1195" s="26"/>
@@ -41597,11 +41606,11 @@
         <v>129</v>
       </c>
       <c r="C1196" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1196" s="26"/>
       <c r="F1196" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G1196" s="26"/>
       <c r="H1196" s="26"/>
@@ -41630,7 +41639,7 @@
     </row>
     <row r="1197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1197" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1197" s="26"/>
       <c r="F1197" s="26"/>
@@ -41661,12 +41670,12 @@
         <v>0</v>
       </c>
       <c r="V1197" s="16" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1198" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1198" s="26"/>
       <c r="F1198" s="26"/>
@@ -41697,7 +41706,7 @@
     </row>
     <row r="1199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1199" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1199" s="26"/>
       <c r="F1199" s="26"/>
@@ -41728,7 +41737,7 @@
     </row>
     <row r="1200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1200" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1200" s="26"/>
       <c r="F1200" s="26"/>
@@ -41759,7 +41768,7 @@
     </row>
     <row r="1201" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1201" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1201" s="26"/>
       <c r="F1201" s="26"/>
@@ -41790,12 +41799,12 @@
         <v>84</v>
       </c>
       <c r="V1201" s="35" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1202" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1202" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1202" s="26"/>
       <c r="F1202" s="26"/>
@@ -41827,7 +41836,7 @@
     </row>
     <row r="1203" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1203" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1203" s="26"/>
       <c r="F1203" s="26"/>
@@ -41858,7 +41867,7 @@
     </row>
     <row r="1204" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C1204" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E1204" s="26"/>
       <c r="F1204" s="26"/>
@@ -41891,7 +41900,7 @@
         <v>0</v>
       </c>
       <c r="V1204" s="16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1205" spans="3:22" x14ac:dyDescent="0.25">
@@ -41925,7 +41934,7 @@
         <v>0</v>
       </c>
       <c r="V1205" s="39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1206" spans="3:22" x14ac:dyDescent="0.25">
@@ -42077,7 +42086,7 @@
         <v>84</v>
       </c>
       <c r="V1210" s="9" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1211" spans="3:22" x14ac:dyDescent="0.25">
@@ -42175,7 +42184,7 @@
         <v>0</v>
       </c>
       <c r="V1213" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1214" spans="3:22" x14ac:dyDescent="0.25">
@@ -42353,7 +42362,7 @@
         <v>84</v>
       </c>
       <c r="V1219" s="9" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1220" spans="4:22" x14ac:dyDescent="0.25">
@@ -42633,7 +42642,7 @@
         <v>0</v>
       </c>
       <c r="V1228" s="16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1229" spans="4:22" x14ac:dyDescent="0.25">
@@ -42961,7 +42970,7 @@
         <v>84</v>
       </c>
       <c r="V1239" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1240" spans="5:22" x14ac:dyDescent="0.25">
@@ -43243,7 +43252,7 @@
         <v>15</v>
       </c>
       <c r="V1248" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1249" spans="5:22" x14ac:dyDescent="0.25">
@@ -43371,7 +43380,7 @@
         <v>15</v>
       </c>
       <c r="V1252" s="35" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1253" spans="5:22" x14ac:dyDescent="0.25">
@@ -43432,7 +43441,7 @@
         <v>0</v>
       </c>
       <c r="V1254" s="16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1255" spans="5:22" x14ac:dyDescent="0.25">
@@ -43613,7 +43622,7 @@
         <v>84</v>
       </c>
       <c r="V1260" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1261" spans="5:22" x14ac:dyDescent="0.25">
@@ -43873,7 +43882,7 @@
         <v>84</v>
       </c>
       <c r="V1269" s="35" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1270" spans="5:22" x14ac:dyDescent="0.25">
@@ -43964,7 +43973,7 @@
         <v>0</v>
       </c>
       <c r="V1272" s="16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1273" spans="5:22" x14ac:dyDescent="0.25">
@@ -44025,7 +44034,7 @@
         <v>0</v>
       </c>
       <c r="V1274" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1275" spans="5:22" x14ac:dyDescent="0.25">
@@ -44058,7 +44067,7 @@
         <v>84</v>
       </c>
       <c r="V1275" s="43" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1276" spans="5:22" x14ac:dyDescent="0.25">
@@ -44148,7 +44157,7 @@
         <v>84</v>
       </c>
       <c r="V1278" s="51" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1279" spans="5:22" x14ac:dyDescent="0.25">
@@ -44427,7 +44436,7 @@
         <v>0</v>
       </c>
       <c r="V1287" s="16" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1288" spans="1:22" x14ac:dyDescent="0.25">
@@ -44465,7 +44474,7 @@
         <v>84</v>
       </c>
       <c r="V1288" s="16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1289" spans="1:22" x14ac:dyDescent="0.25">
@@ -44548,7 +44557,7 @@
         <v>137</v>
       </c>
       <c r="N1291" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1291" s="1" t="s">
         <v>105</v>
@@ -44737,7 +44746,7 @@
         <v>84</v>
       </c>
       <c r="V1297" s="51" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1298" spans="5:22" x14ac:dyDescent="0.25">
@@ -44882,7 +44891,7 @@
         <v>0</v>
       </c>
       <c r="V1302" s="16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1303" spans="5:22" x14ac:dyDescent="0.25">
@@ -44946,7 +44955,7 @@
         <v>84</v>
       </c>
       <c r="V1304" s="43" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1305" spans="5:22" x14ac:dyDescent="0.25">
@@ -44978,7 +44987,7 @@
         <v>15</v>
       </c>
       <c r="V1305" s="33" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1306" spans="5:22" x14ac:dyDescent="0.25">
@@ -45011,7 +45020,7 @@
         <v>0</v>
       </c>
       <c r="V1306" s="16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1307" spans="5:22" x14ac:dyDescent="0.25">
@@ -45044,7 +45053,7 @@
         <v>84</v>
       </c>
       <c r="V1307" s="43" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1308" spans="5:22" x14ac:dyDescent="0.25">
@@ -45161,7 +45170,7 @@
         <v>0</v>
       </c>
       <c r="V1311" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1312" spans="5:22" x14ac:dyDescent="0.25">
@@ -45222,7 +45231,7 @@
         <v>0</v>
       </c>
       <c r="V1313" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1314" spans="5:22" x14ac:dyDescent="0.25">
@@ -45344,7 +45353,7 @@
         <v>0</v>
       </c>
       <c r="V1317" s="16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1318" spans="5:22" x14ac:dyDescent="0.25">
@@ -45461,7 +45470,7 @@
         <v>0</v>
       </c>
       <c r="V1321" s="16" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1322" spans="5:22" x14ac:dyDescent="0.25">
@@ -45494,7 +45503,7 @@
         <v>84</v>
       </c>
       <c r="V1322" s="38" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1323" spans="5:22" x14ac:dyDescent="0.25">
@@ -45705,7 +45714,7 @@
         <v>84</v>
       </c>
       <c r="V1329" s="35" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1330" spans="4:22" x14ac:dyDescent="0.25">
@@ -45798,7 +45807,7 @@
         <v>0</v>
       </c>
       <c r="V1332" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1333" spans="4:22" x14ac:dyDescent="0.25">
@@ -45883,14 +45892,11 @@
         <f t="shared" si="42"/>
         <v>181</v>
       </c>
-      <c r="N1335" s="9" t="s">
-        <v>936</v>
+      <c r="N1335" s="66" t="s">
+        <v>1332</v>
       </c>
       <c r="O1335" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="S1335" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="V1335" s="16"/>
     </row>
@@ -45918,7 +45924,7 @@
         <v>182</v>
       </c>
       <c r="N1336" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="V1336" s="16"/>
     </row>
@@ -45946,7 +45952,7 @@
         <v>183</v>
       </c>
       <c r="N1337" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O1337" s="2"/>
       <c r="V1337" s="16"/>
@@ -45982,7 +45988,7 @@
         <v>84</v>
       </c>
       <c r="V1338" s="33" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1339" spans="4:22" x14ac:dyDescent="0.25">
@@ -46015,13 +46021,13 @@
         <v>185</v>
       </c>
       <c r="N1339" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O1339" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1339" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1340" spans="4:22" x14ac:dyDescent="0.25">
@@ -46141,13 +46147,13 @@
         <v>189</v>
       </c>
       <c r="N1343" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O1343" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1343" s="16" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1344" spans="4:22" x14ac:dyDescent="0.25">
@@ -46174,13 +46180,13 @@
         <v>190</v>
       </c>
       <c r="N1344" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O1344" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1344" s="16" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1345" spans="5:22" x14ac:dyDescent="0.25">
@@ -46207,13 +46213,13 @@
         <v>191</v>
       </c>
       <c r="N1345" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P1345" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1345" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1346" spans="5:22" x14ac:dyDescent="0.25">
@@ -46269,7 +46275,7 @@
         <v>193</v>
       </c>
       <c r="N1347" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="V1347" s="16"/>
     </row>
@@ -46297,7 +46303,7 @@
         <v>194</v>
       </c>
       <c r="N1348" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V1348" s="16"/>
     </row>
@@ -46325,7 +46331,7 @@
         <v>195</v>
       </c>
       <c r="N1349" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="V1349" s="16"/>
     </row>
@@ -46353,7 +46359,7 @@
         <v>196</v>
       </c>
       <c r="N1350" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="V1350" s="16"/>
     </row>
@@ -46381,7 +46387,7 @@
         <v>197</v>
       </c>
       <c r="N1351" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="V1351" s="16"/>
     </row>
@@ -46465,7 +46471,7 @@
         <v>200</v>
       </c>
       <c r="N1354" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1354" s="1" t="s">
         <v>105</v>
@@ -46495,7 +46501,7 @@
         <v>201</v>
       </c>
       <c r="N1355" s="40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="V1355" s="16"/>
     </row>
@@ -46530,7 +46536,7 @@
         <v>84</v>
       </c>
       <c r="V1356" s="43" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1357" spans="5:22" x14ac:dyDescent="0.25">
@@ -46557,7 +46563,7 @@
         <v>203</v>
       </c>
       <c r="N1357" s="40" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O1357" s="2"/>
       <c r="V1357" s="16"/>
@@ -46614,13 +46620,13 @@
         <v>205</v>
       </c>
       <c r="N1359" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O1359" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1359" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1360" spans="5:22" x14ac:dyDescent="0.25">
@@ -46647,13 +46653,13 @@
         <v>206</v>
       </c>
       <c r="N1360" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O1360" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1360" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1361" spans="4:22" x14ac:dyDescent="0.25">
@@ -46680,7 +46686,7 @@
         <v>207</v>
       </c>
       <c r="N1361" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O1361" s="2" t="s">
         <v>0</v>
@@ -46689,7 +46695,7 @@
         <v>84</v>
       </c>
       <c r="V1361" s="16" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1362" spans="4:22" x14ac:dyDescent="0.25">
@@ -46745,7 +46751,7 @@
         <v>209</v>
       </c>
       <c r="N1363" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="V1363" s="16"/>
     </row>
@@ -46773,7 +46779,7 @@
         <v>210</v>
       </c>
       <c r="N1364" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O1364" s="2" t="s">
         <v>0</v>
@@ -46782,7 +46788,7 @@
         <v>84</v>
       </c>
       <c r="V1364" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1365" spans="4:22" x14ac:dyDescent="0.25">
@@ -46874,7 +46880,7 @@
         <v>213</v>
       </c>
       <c r="N1367" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="V1367" s="16"/>
     </row>
@@ -46905,7 +46911,7 @@
         <v>214</v>
       </c>
       <c r="N1368" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="V1368" s="16"/>
     </row>
@@ -46995,7 +47001,7 @@
         <v>217</v>
       </c>
       <c r="N1371" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="V1371" s="16"/>
     </row>
@@ -47054,7 +47060,7 @@
         <v>219</v>
       </c>
       <c r="N1373" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O1373" s="2" t="s">
         <v>0</v>
@@ -47063,7 +47069,7 @@
         <v>84</v>
       </c>
       <c r="V1373" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1374" spans="4:22" x14ac:dyDescent="0.25">
@@ -47090,7 +47096,7 @@
         <v>220</v>
       </c>
       <c r="N1374" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V1374" s="16"/>
     </row>
@@ -47118,13 +47124,13 @@
         <v>221</v>
       </c>
       <c r="N1375" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O1375" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1375" s="16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1376" spans="4:22" x14ac:dyDescent="0.25">
@@ -47151,7 +47157,7 @@
         <v>222</v>
       </c>
       <c r="N1376" s="53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O1376" s="6" t="s">
         <v>0</v>
@@ -47163,7 +47169,7 @@
       <c r="T1376" s="52"/>
       <c r="U1376" s="52"/>
       <c r="V1376" s="16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1377" spans="5:22" x14ac:dyDescent="0.25">
@@ -47192,7 +47198,7 @@
         <v>223</v>
       </c>
       <c r="N1377" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="V1377" s="16"/>
     </row>
@@ -47222,7 +47228,7 @@
         <v>224</v>
       </c>
       <c r="N1378" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="V1378" s="16"/>
     </row>
@@ -47280,7 +47286,7 @@
         <v>226</v>
       </c>
       <c r="N1380" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O1380" s="2"/>
       <c r="V1380" s="16"/>
@@ -47309,7 +47315,7 @@
         <v>227</v>
       </c>
       <c r="N1381" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O1381" s="2" t="s">
         <v>0</v>
@@ -47318,7 +47324,7 @@
         <v>84</v>
       </c>
       <c r="V1381" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1382" spans="5:22" x14ac:dyDescent="0.25">
@@ -47345,7 +47351,7 @@
         <v>228</v>
       </c>
       <c r="N1382" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1382" s="16"/>
     </row>
@@ -47373,7 +47379,7 @@
         <v>229</v>
       </c>
       <c r="N1383" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V1383" s="16"/>
     </row>
@@ -47401,7 +47407,7 @@
         <v>230</v>
       </c>
       <c r="N1384" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="V1384" s="16"/>
     </row>
@@ -47457,7 +47463,7 @@
         <v>232</v>
       </c>
       <c r="N1386" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="V1386" s="16"/>
     </row>
@@ -47516,13 +47522,13 @@
         <v>234</v>
       </c>
       <c r="N1388" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P1388" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1388" s="35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1389" spans="5:22" x14ac:dyDescent="0.25">
@@ -47577,7 +47583,7 @@
         <v>236</v>
       </c>
       <c r="N1390" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="V1390" s="16"/>
     </row>
@@ -47605,7 +47611,7 @@
         <v>237</v>
       </c>
       <c r="N1391" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O1391" s="2" t="s">
         <v>0</v>
@@ -47614,7 +47620,7 @@
         <v>84</v>
       </c>
       <c r="V1391" s="16" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1392" spans="5:22" x14ac:dyDescent="0.25">
@@ -47641,7 +47647,7 @@
         <v>238</v>
       </c>
       <c r="N1392" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O1392" s="2"/>
       <c r="V1392" s="16"/>
@@ -47670,7 +47676,7 @@
         <v>239</v>
       </c>
       <c r="N1393" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1393" s="2"/>
       <c r="V1393" s="16"/>
@@ -47699,7 +47705,7 @@
         <v>240</v>
       </c>
       <c r="N1394" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="V1394" s="16"/>
     </row>
@@ -47758,7 +47764,7 @@
         <v>242</v>
       </c>
       <c r="N1396" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="V1396" s="16"/>
     </row>
@@ -47786,13 +47792,13 @@
         <v>243</v>
       </c>
       <c r="N1397" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O1397" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1397" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1398" spans="5:22" x14ac:dyDescent="0.25">
@@ -47847,7 +47853,7 @@
         <v>245</v>
       </c>
       <c r="N1399" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V1399" s="16"/>
     </row>
@@ -47875,13 +47881,13 @@
         <v>246</v>
       </c>
       <c r="N1400" s="9" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P1400" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1400" s="35" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1401" spans="5:22" x14ac:dyDescent="0.25">
@@ -47939,7 +47945,7 @@
         <v>248</v>
       </c>
       <c r="N1402" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="U1402" s="2" t="s">
         <v>98</v>
@@ -47970,7 +47976,7 @@
         <v>249</v>
       </c>
       <c r="N1403" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="U1403" s="2" t="s">
         <v>91</v>
@@ -48001,13 +48007,13 @@
         <v>250</v>
       </c>
       <c r="N1404" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O1404" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1404" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1405" spans="5:22" x14ac:dyDescent="0.25">
@@ -48117,7 +48123,7 @@
         <v>254</v>
       </c>
       <c r="N1408" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="V1408" s="16"/>
     </row>
@@ -48145,7 +48151,7 @@
         <v>255</v>
       </c>
       <c r="N1409" s="9" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O1409" s="2" t="s">
         <v>0</v>
@@ -48154,7 +48160,7 @@
         <v>84</v>
       </c>
       <c r="V1409" s="16" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1410" spans="5:22" x14ac:dyDescent="0.25">
@@ -48268,13 +48274,13 @@
         <v>259</v>
       </c>
       <c r="N1413" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O1413" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1413" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1414" spans="5:22" x14ac:dyDescent="0.25">
@@ -48301,7 +48307,7 @@
         <v>260</v>
       </c>
       <c r="N1414" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="V1414" s="16"/>
     </row>
@@ -48329,7 +48335,7 @@
         <v>261</v>
       </c>
       <c r="N1415" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="V1415" s="16"/>
     </row>
@@ -48357,7 +48363,7 @@
         <v>262</v>
       </c>
       <c r="N1416" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="V1416" s="16"/>
     </row>
@@ -48385,7 +48391,7 @@
         <v>263</v>
       </c>
       <c r="N1417" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1418" spans="5:22" x14ac:dyDescent="0.25">
@@ -48412,13 +48418,13 @@
         <v>264</v>
       </c>
       <c r="N1418" s="16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O1418" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1418" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1419" spans="5:22" x14ac:dyDescent="0.25">
@@ -48473,7 +48479,7 @@
         <v>266</v>
       </c>
       <c r="N1420" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O1420" s="2"/>
       <c r="P1420" s="2" t="s">
@@ -48483,7 +48489,7 @@
         <v>98</v>
       </c>
       <c r="V1420" s="43" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1421" spans="5:22" x14ac:dyDescent="0.25">
@@ -48538,7 +48544,7 @@
         <v>268</v>
       </c>
       <c r="N1422" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="V1422" s="16"/>
     </row>
@@ -48566,7 +48572,7 @@
         <v>269</v>
       </c>
       <c r="N1423" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O1423" s="2"/>
       <c r="V1423" s="16"/>
@@ -48595,7 +48601,7 @@
         <v>270</v>
       </c>
       <c r="N1424" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V1424" s="16"/>
     </row>
@@ -48623,13 +48629,13 @@
         <v>271</v>
       </c>
       <c r="N1425" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O1425" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1425" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1426" spans="5:22" x14ac:dyDescent="0.25">
@@ -48656,7 +48662,7 @@
         <v>272</v>
       </c>
       <c r="N1426" s="9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V1426" s="16"/>
     </row>
@@ -48684,7 +48690,7 @@
         <v>273</v>
       </c>
       <c r="N1427" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V1427" s="16"/>
     </row>
@@ -48773,7 +48779,7 @@
         <v>276</v>
       </c>
       <c r="N1430" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O1430" s="2"/>
       <c r="V1430" s="16"/>
@@ -48830,7 +48836,7 @@
         <v>278</v>
       </c>
       <c r="N1432" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="V1432" s="16"/>
     </row>
@@ -48886,7 +48892,7 @@
         <v>280</v>
       </c>
       <c r="N1434" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V1434" s="16"/>
     </row>
@@ -48914,13 +48920,13 @@
         <v>281</v>
       </c>
       <c r="N1435" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O1435" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1435" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1436" spans="5:22" x14ac:dyDescent="0.25">
@@ -48947,7 +48953,7 @@
         <v>282</v>
       </c>
       <c r="N1436" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1436" s="2" t="s">
         <v>0</v>
@@ -48956,7 +48962,7 @@
         <v>84</v>
       </c>
       <c r="V1436" s="35" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1437" spans="5:22" x14ac:dyDescent="0.25">
@@ -49045,13 +49051,13 @@
         <v>285</v>
       </c>
       <c r="N1439" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="O1439" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1439" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1440" spans="5:22" x14ac:dyDescent="0.25">
@@ -49078,13 +49084,13 @@
         <v>286</v>
       </c>
       <c r="N1440" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O1440" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1440" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1441" spans="1:22" x14ac:dyDescent="0.25">
@@ -49111,7 +49117,7 @@
         <v>287</v>
       </c>
       <c r="N1441" s="9" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V1441" s="16"/>
     </row>
@@ -49167,13 +49173,13 @@
         <v>289</v>
       </c>
       <c r="N1443" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1443" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1443" s="16" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1444" spans="1:22" x14ac:dyDescent="0.25">
@@ -49228,13 +49234,13 @@
         <v>291</v>
       </c>
       <c r="N1445" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P1445" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1445" s="39" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1446" spans="1:22" x14ac:dyDescent="0.25">
@@ -49289,7 +49295,7 @@
         <v>293</v>
       </c>
       <c r="N1447" s="9" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="V1447" s="16"/>
     </row>
@@ -49376,7 +49382,7 @@
         <v>296</v>
       </c>
       <c r="N1450" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="V1450" s="16"/>
     </row>
@@ -49404,13 +49410,13 @@
         <v>297</v>
       </c>
       <c r="N1451" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O1451" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1451" s="16" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1452" spans="1:22" x14ac:dyDescent="0.25">
@@ -49443,7 +49449,7 @@
         <v>84</v>
       </c>
       <c r="V1452" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1453" spans="1:22" x14ac:dyDescent="0.25">
@@ -49528,13 +49534,13 @@
         <v>301</v>
       </c>
       <c r="N1455" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V1455" s="16"/>
     </row>
     <row r="1456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1456" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E1456" s="26"/>
       <c r="F1456" s="26"/>
@@ -49561,7 +49567,7 @@
         <v>302</v>
       </c>
       <c r="N1456" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O1456" s="1" t="s">
         <v>105</v>
@@ -49570,7 +49576,7 @@
     </row>
     <row r="1457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1457" s="61" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E1457" s="26"/>
       <c r="F1457" s="26"/>
@@ -49597,7 +49603,7 @@
         <v>303</v>
       </c>
       <c r="N1457" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V1457" s="16"/>
     </row>
@@ -49655,7 +49661,7 @@
         <v>305</v>
       </c>
       <c r="N1459" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O1459" s="2" t="s">
         <v>0</v>
@@ -49664,7 +49670,7 @@
         <v>84</v>
       </c>
       <c r="V1459" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1460" spans="1:22" x14ac:dyDescent="0.25">
@@ -49750,13 +49756,13 @@
         <v>308</v>
       </c>
       <c r="N1462" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O1462" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1462" s="16" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1463" spans="1:22" x14ac:dyDescent="0.25">
@@ -49811,7 +49817,7 @@
         <v>310</v>
       </c>
       <c r="N1464" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V1464" s="16"/>
     </row>
@@ -49876,7 +49882,7 @@
         <v>84</v>
       </c>
       <c r="V1466" s="43" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1467" spans="1:22" x14ac:dyDescent="0.25">
@@ -49959,7 +49965,7 @@
         <v>315</v>
       </c>
       <c r="N1469" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V1469" s="16"/>
     </row>
@@ -49987,7 +49993,7 @@
         <v>316</v>
       </c>
       <c r="N1470" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="U1470" s="2" t="s">
         <v>107</v>
@@ -50018,7 +50024,7 @@
         <v>317</v>
       </c>
       <c r="N1471" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V1471" s="16"/>
     </row>
@@ -50046,7 +50052,7 @@
         <v>318</v>
       </c>
       <c r="N1472" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V1472" s="16"/>
     </row>
@@ -50074,7 +50080,7 @@
         <v>319</v>
       </c>
       <c r="N1473" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O1473" s="2" t="s">
         <v>0</v>
@@ -50083,7 +50089,7 @@
         <v>84</v>
       </c>
       <c r="V1473" s="16" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1474" spans="5:22" x14ac:dyDescent="0.25">
@@ -50110,13 +50116,13 @@
         <v>320</v>
       </c>
       <c r="N1474" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O1474" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1474" s="16" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1475" spans="5:22" x14ac:dyDescent="0.25">
@@ -50143,13 +50149,13 @@
         <v>321</v>
       </c>
       <c r="N1475" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O1475" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1475" s="16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1476" spans="5:22" x14ac:dyDescent="0.25">
@@ -50176,13 +50182,13 @@
         <v>322</v>
       </c>
       <c r="N1476" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O1476" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1476" s="16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1477" spans="5:22" x14ac:dyDescent="0.25">
@@ -50209,13 +50215,13 @@
         <v>323</v>
       </c>
       <c r="N1477" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="P1477" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1477" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1478" spans="5:22" x14ac:dyDescent="0.25">
@@ -50242,7 +50248,7 @@
         <v>324</v>
       </c>
       <c r="N1478" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V1478" s="16"/>
     </row>
@@ -50270,7 +50276,7 @@
         <v>325</v>
       </c>
       <c r="N1479" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V1479" s="16"/>
     </row>
@@ -50298,7 +50304,7 @@
         <v>326</v>
       </c>
       <c r="N1480" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="P1480" s="2" t="s">
         <v>84</v>
@@ -50307,13 +50313,13 @@
         <v>98</v>
       </c>
       <c r="V1480" s="35" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1481" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1481" s="26"/>
       <c r="F1481" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G1481" s="26"/>
       <c r="H1481" s="57" t="s">
@@ -50338,14 +50344,14 @@
         <v>327</v>
       </c>
       <c r="N1481" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V1481" s="16"/>
     </row>
     <row r="1482" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1482" s="26"/>
       <c r="F1482" s="65" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G1482" s="26"/>
       <c r="H1482" s="57" t="s">
@@ -50400,13 +50406,13 @@
         <v>329</v>
       </c>
       <c r="N1483" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O1483" s="2" t="s">
         <v>15</v>
       </c>
       <c r="V1483" s="33" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1484" spans="5:22" x14ac:dyDescent="0.25">
@@ -50435,7 +50441,7 @@
         <v>330</v>
       </c>
       <c r="N1484" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="U1484" s="2" t="s">
         <v>91</v>
@@ -50468,13 +50474,13 @@
         <v>331</v>
       </c>
       <c r="N1485" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="O1485" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1485" s="16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1486" spans="5:22" x14ac:dyDescent="0.25">
@@ -50503,7 +50509,7 @@
         <v>332</v>
       </c>
       <c r="N1486" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V1486" s="16"/>
     </row>
@@ -50562,7 +50568,7 @@
         <v>334</v>
       </c>
       <c r="N1488" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O1488" s="2"/>
       <c r="V1488" s="16"/>
@@ -50591,7 +50597,7 @@
         <v>335</v>
       </c>
       <c r="N1489" s="9" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1489" s="16"/>
     </row>
@@ -50619,14 +50625,14 @@
         <v>336</v>
       </c>
       <c r="N1490" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O1490" s="2"/>
       <c r="P1490" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1490" s="35" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1491" spans="5:22" x14ac:dyDescent="0.25">
@@ -50737,13 +50743,13 @@
         <v>340</v>
       </c>
       <c r="N1494" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O1494" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1494" s="16" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1495" spans="5:22" x14ac:dyDescent="0.25">
@@ -50770,7 +50776,7 @@
         <v>341</v>
       </c>
       <c r="N1495" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V1495" s="16"/>
     </row>
@@ -50828,7 +50834,7 @@
         <v>343</v>
       </c>
       <c r="N1497" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="V1497" s="16"/>
     </row>
@@ -50888,7 +50894,7 @@
         <v>345</v>
       </c>
       <c r="N1499" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V1499" s="16"/>
     </row>
@@ -50918,7 +50924,7 @@
         <v>346</v>
       </c>
       <c r="N1500" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V1500" s="16"/>
     </row>
@@ -50948,7 +50954,7 @@
         <v>347</v>
       </c>
       <c r="N1501" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V1501" s="16"/>
     </row>
@@ -50990,7 +50996,7 @@
         <v>128</v>
       </c>
       <c r="V1502" s="35" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1503" spans="5:22" x14ac:dyDescent="0.25">
@@ -51045,7 +51051,7 @@
         <v>350</v>
       </c>
       <c r="N1504" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V1504" s="16"/>
     </row>
@@ -51072,7 +51078,7 @@
         <v>351</v>
       </c>
       <c r="N1505" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="O1505" s="2"/>
       <c r="V1505" s="16"/>
@@ -51132,7 +51138,7 @@
         <v>353</v>
       </c>
       <c r="N1507" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="V1507" s="16"/>
     </row>
@@ -51160,7 +51166,7 @@
         <v>354</v>
       </c>
       <c r="N1508" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="V1508" s="16"/>
     </row>
@@ -51188,7 +51194,7 @@
         <v>355</v>
       </c>
       <c r="N1509" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="V1509" s="16"/>
     </row>
@@ -51250,7 +51256,7 @@
         <v>84</v>
       </c>
       <c r="V1511" s="43" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1512" spans="5:22" x14ac:dyDescent="0.25">
@@ -51277,7 +51283,7 @@
         <v>358</v>
       </c>
       <c r="N1512" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="V1512" s="16"/>
     </row>
@@ -51305,7 +51311,7 @@
         <v>359</v>
       </c>
       <c r="N1513" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V1513" s="16"/>
     </row>
@@ -51333,13 +51339,13 @@
         <v>360</v>
       </c>
       <c r="N1514" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="P1514" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1514" s="35" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1515" spans="5:22" x14ac:dyDescent="0.25">
@@ -51373,7 +51379,7 @@
     <row r="1516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1516" s="26"/>
       <c r="F1516" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G1516" s="26"/>
       <c r="H1516" s="26"/>
@@ -51396,14 +51402,14 @@
         <v>362</v>
       </c>
       <c r="N1516" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V1516" s="16"/>
     </row>
     <row r="1517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E1517" s="26"/>
       <c r="F1517" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G1517" s="26"/>
       <c r="H1517" s="26"/>
@@ -51426,13 +51432,13 @@
         <v>363</v>
       </c>
       <c r="N1517" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O1517" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1517" s="16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1518" spans="5:22" x14ac:dyDescent="0.25">
@@ -51440,7 +51446,7 @@
         <v>137</v>
       </c>
       <c r="F1518" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G1518" s="26"/>
       <c r="H1518" s="26"/>
@@ -51463,7 +51469,7 @@
         <v>364</v>
       </c>
       <c r="N1518" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O1518" s="1" t="s">
         <v>15</v>
@@ -51472,7 +51478,7 @@
         <v>102</v>
       </c>
       <c r="V1518" s="33" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1519" spans="5:22" x14ac:dyDescent="0.25">
@@ -51480,7 +51486,7 @@
         <v>137</v>
       </c>
       <c r="F1519" s="65" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G1519" s="26"/>
       <c r="H1519" s="26"/>
@@ -51503,7 +51509,7 @@
         <v>365</v>
       </c>
       <c r="N1519" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V1519" s="16"/>
     </row>
@@ -51531,7 +51537,7 @@
         <v>366</v>
       </c>
       <c r="N1520" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1520" s="2" t="s">
         <v>0</v>
@@ -51540,7 +51546,7 @@
         <v>84</v>
       </c>
       <c r="V1520" s="16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1521" spans="1:22" x14ac:dyDescent="0.25">
@@ -51567,7 +51573,7 @@
         <v>367</v>
       </c>
       <c r="N1521" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O1521" s="2"/>
       <c r="V1521" s="16"/>
@@ -51713,7 +51719,7 @@
         <v>372</v>
       </c>
       <c r="N1526" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V1526" s="16"/>
     </row>
@@ -51741,7 +51747,7 @@
         <v>373</v>
       </c>
       <c r="N1527" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V1527" s="16"/>
     </row>
@@ -51769,7 +51775,7 @@
         <v>374</v>
       </c>
       <c r="N1528" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V1528" s="16"/>
     </row>
@@ -51825,7 +51831,7 @@
         <v>376</v>
       </c>
       <c r="N1530" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1530" s="2"/>
       <c r="P1530" s="2" t="s">
@@ -51921,7 +51927,7 @@
         <v>379</v>
       </c>
       <c r="N1533" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V1533" s="16"/>
     </row>
@@ -51949,7 +51955,7 @@
         <v>380</v>
       </c>
       <c r="N1534" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V1534" s="16"/>
     </row>
@@ -51983,7 +51989,7 @@
         <v>84</v>
       </c>
       <c r="V1535" s="44" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1536" spans="1:22" x14ac:dyDescent="0.25">
@@ -52066,7 +52072,7 @@
         <v>384</v>
       </c>
       <c r="N1538" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="V1538" s="16"/>
     </row>
@@ -52094,7 +52100,7 @@
         <v>385</v>
       </c>
       <c r="N1539" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1539" s="16"/>
     </row>
@@ -52184,7 +52190,7 @@
         <v>388</v>
       </c>
       <c r="N1542" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V1542" s="16"/>
     </row>
@@ -52243,13 +52249,13 @@
         <v>390</v>
       </c>
       <c r="N1544" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="P1544" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1544" s="35" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1545" spans="5:22" x14ac:dyDescent="0.25">
@@ -52394,7 +52400,7 @@
         <v>84</v>
       </c>
       <c r="V1549" s="43" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1550" spans="5:22" x14ac:dyDescent="0.25">
@@ -52453,13 +52459,13 @@
         <v>397</v>
       </c>
       <c r="N1551" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O1551" s="2" t="s">
         <v>0</v>
       </c>
       <c r="V1551" s="16" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1552" spans="5:22" x14ac:dyDescent="0.25">
@@ -52486,7 +52492,7 @@
         <v>398</v>
       </c>
       <c r="N1552" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1552" s="16"/>
     </row>
@@ -52514,7 +52520,7 @@
         <v>399</v>
       </c>
       <c r="N1553" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V1553" s="16"/>
     </row>
@@ -52542,7 +52548,7 @@
         <v>400</v>
       </c>
       <c r="N1554" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1554" s="16"/>
     </row>
@@ -52576,7 +52582,7 @@
         <v>84</v>
       </c>
       <c r="V1555" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1556" spans="5:22" x14ac:dyDescent="0.25">
@@ -52603,7 +52609,7 @@
         <v>402</v>
       </c>
       <c r="N1556" s="9" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="V1556" s="16"/>
     </row>
@@ -52631,7 +52637,7 @@
         <v>403</v>
       </c>
       <c r="N1557" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V1557" s="16"/>
     </row>
@@ -52659,7 +52665,7 @@
         <v>404</v>
       </c>
       <c r="N1558" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O1558" s="2" t="s">
         <v>0</v>
@@ -52668,7 +52674,7 @@
         <v>84</v>
       </c>
       <c r="V1558" s="16" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1559" spans="5:22" x14ac:dyDescent="0.25">
@@ -52757,7 +52763,7 @@
         <v>407</v>
       </c>
       <c r="N1561" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="V1561" s="16"/>
     </row>
@@ -52813,7 +52819,7 @@
         <v>409</v>
       </c>
       <c r="N1563" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V1563" s="16"/>
     </row>
@@ -52841,7 +52847,7 @@
         <v>410</v>
       </c>
       <c r="N1564" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O1564" s="2" t="s">
         <v>0</v>
@@ -52872,13 +52878,13 @@
         <v>411</v>
       </c>
       <c r="N1565" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P1565" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V1565" s="35" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1566" spans="5:22" x14ac:dyDescent="0.25">
@@ -52933,7 +52939,7 @@
         <v>413</v>
       </c>
       <c r="N1567" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1567" s="16"/>
     </row>
@@ -52961,7 +52967,7 @@
         <v>414</v>
       </c>
       <c r="N1568" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="P1568" s="2" t="s">
         <v>84</v>
@@ -52970,7 +52976,7 @@
         <v>98</v>
       </c>
       <c r="V1568" s="39" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1569" spans="5:8" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -4025,7 +4025,7 @@
     <t>JD-93</t>
   </si>
   <si>
-    <t xml:space="preserve">parA# </t>
+    <t>parA$</t>
   </si>
 </sst>
 </file>
@@ -4704,7 +4704,7 @@
   <dimension ref="A1:V1577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1329" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1327" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>

--- a/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Raja Files/Padam Inputs/TS 1.3 Padam Input Template.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4031,7 +4031,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4703,10 +4703,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1327" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1318" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="L1330" sqref="L1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
